--- a/BackTest/2019-10-21 BackTest LINK.xlsx
+++ b/BackTest/2019-10-21 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>42</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-27.77777777777778</v>
+      </c>
       <c r="L12" t="n">
         <v>2884.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>45</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-57.57575757575758</v>
+      </c>
       <c r="L13" t="n">
         <v>2883.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>79</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-77.04918032786885</v>
+      </c>
       <c r="L14" t="n">
         <v>2878.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>79</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-80</v>
+      </c>
       <c r="L15" t="n">
         <v>2873.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>95</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-44</v>
+      </c>
       <c r="L16" t="n">
         <v>2870.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>107</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-48.14814814814815</v>
+      </c>
       <c r="L17" t="n">
         <v>2865.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>123</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-26.31578947368421</v>
+      </c>
       <c r="L18" t="n">
         <v>2863.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>124</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-15.29411764705882</v>
+      </c>
       <c r="L19" t="n">
         <v>2861.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>133</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-24.73118279569892</v>
+      </c>
       <c r="L20" t="n">
         <v>2858.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>136</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-23.40425531914894</v>
+      </c>
       <c r="L21" t="n">
         <v>2856.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>137</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-21.73913043478261</v>
+      </c>
       <c r="L22" t="n">
         <v>2854.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>138</v>
       </c>
       <c r="K23" t="n">
-        <v>-25.75757575757576</v>
+        <v>22.03389830508474</v>
       </c>
       <c r="L23" t="n">
         <v>2852.5</v>
@@ -1466,7 +1488,7 @@
         <v>139</v>
       </c>
       <c r="K24" t="n">
-        <v>-32.28346456692913</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>2853.7</v>
@@ -1515,7 +1537,7 @@
         <v>139</v>
       </c>
       <c r="K25" t="n">
-        <v>-28.92561983471074</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L25" t="n">
         <v>2854.9</v>
@@ -1564,7 +1586,7 @@
         <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>-28.92561983471074</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L26" t="n">
         <v>2854.6</v>
@@ -1613,7 +1635,7 @@
         <v>141</v>
       </c>
       <c r="K27" t="n">
-        <v>-30.57851239669421</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L27" t="n">
         <v>2855.4</v>
@@ -1662,7 +1684,7 @@
         <v>141</v>
       </c>
       <c r="K28" t="n">
-        <v>-26.95652173913043</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L28" t="n">
         <v>2854.6</v>
@@ -1711,7 +1733,7 @@
         <v>156</v>
       </c>
       <c r="K29" t="n">
-        <v>-37.5</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L29" t="n">
         <v>2852.2</v>
@@ -1760,7 +1782,7 @@
         <v>157</v>
       </c>
       <c r="K30" t="n">
-        <v>-30.50847457627119</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L30" t="n">
         <v>2850.8</v>
@@ -1809,7 +1831,7 @@
         <v>158</v>
       </c>
       <c r="K31" t="n">
-        <v>-30.50847457627119</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L31" t="n">
         <v>2849.2</v>
@@ -1860,7 +1882,7 @@
         <v>170</v>
       </c>
       <c r="K32" t="n">
-        <v>-20.3125</v>
+        <v>-6.25</v>
       </c>
       <c r="L32" t="n">
         <v>2848.9</v>
@@ -1911,7 +1933,7 @@
         <v>171</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.46031746031746</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>2848.8</v>
@@ -1962,7 +1984,7 @@
         <v>171</v>
       </c>
       <c r="K34" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>2848.8</v>
@@ -2013,7 +2035,7 @@
         <v>171</v>
       </c>
       <c r="K35" t="n">
-        <v>13.04347826086956</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L35" t="n">
         <v>2848.8</v>
@@ -2064,7 +2086,7 @@
         <v>171</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>2848.7</v>
@@ -2115,7 +2137,7 @@
         <v>171</v>
       </c>
       <c r="K37" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>2848.7</v>
@@ -2166,7 +2188,7 @@
         <v>180</v>
       </c>
       <c r="K38" t="n">
-        <v>-29.82456140350877</v>
+        <v>25</v>
       </c>
       <c r="L38" t="n">
         <v>2847.8</v>
@@ -2217,7 +2239,7 @@
         <v>180</v>
       </c>
       <c r="K39" t="n">
-        <v>-32.14285714285715</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L39" t="n">
         <v>2848.4</v>
@@ -2268,7 +2290,7 @@
         <v>180</v>
       </c>
       <c r="K40" t="n">
-        <v>-19.14893617021277</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L40" t="n">
         <v>2848.9</v>
@@ -2319,7 +2341,7 @@
         <v>183</v>
       </c>
       <c r="K41" t="n">
-        <v>-31.91489361702128</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L41" t="n">
         <v>2849</v>
@@ -2370,7 +2392,7 @@
         <v>183</v>
       </c>
       <c r="K42" t="n">
-        <v>-30.43478260869566</v>
+        <v>-100</v>
       </c>
       <c r="L42" t="n">
         <v>2847.9</v>
@@ -2421,7 +2443,7 @@
         <v>184</v>
       </c>
       <c r="K43" t="n">
-        <v>-26.08695652173913</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L43" t="n">
         <v>2846.8</v>
@@ -2472,7 +2494,7 @@
         <v>187</v>
       </c>
       <c r="K44" t="n">
-        <v>-29.16666666666667</v>
+        <v>-87.5</v>
       </c>
       <c r="L44" t="n">
         <v>2845.4</v>
@@ -2523,7 +2545,7 @@
         <v>187</v>
       </c>
       <c r="K45" t="n">
-        <v>-29.16666666666667</v>
+        <v>-87.5</v>
       </c>
       <c r="L45" t="n">
         <v>2844</v>
@@ -2574,7 +2596,7 @@
         <v>196</v>
       </c>
       <c r="K46" t="n">
-        <v>-42.85714285714285</v>
+        <v>-92</v>
       </c>
       <c r="L46" t="n">
         <v>2841.7</v>
@@ -2625,7 +2647,7 @@
         <v>196</v>
       </c>
       <c r="K47" t="n">
-        <v>-41.81818181818181</v>
+        <v>-87.5</v>
       </c>
       <c r="L47" t="n">
         <v>2839.4</v>
@@ -2676,7 +2698,7 @@
         <v>201</v>
       </c>
       <c r="K48" t="n">
-        <v>-30</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L48" t="n">
         <v>2838.5</v>
@@ -2727,7 +2749,7 @@
         <v>206</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L49" t="n">
         <v>2838.1</v>
@@ -2778,7 +2800,7 @@
         <v>216</v>
       </c>
       <c r="K50" t="n">
-        <v>18.64406779661017</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L50" t="n">
         <v>2838.7</v>
@@ -2829,7 +2851,7 @@
         <v>227</v>
       </c>
       <c r="K51" t="n">
-        <v>30.43478260869566</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L51" t="n">
         <v>2840.7</v>
@@ -2880,7 +2902,7 @@
         <v>233</v>
       </c>
       <c r="K52" t="n">
-        <v>4.761904761904762</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="L52" t="n">
         <v>2842.1</v>
@@ -2931,7 +2953,7 @@
         <v>236</v>
       </c>
       <c r="K53" t="n">
-        <v>-1.538461538461539</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="L53" t="n">
         <v>2843.1</v>
@@ -2982,7 +3004,7 @@
         <v>244</v>
       </c>
       <c r="K54" t="n">
-        <v>9.58904109589041</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L54" t="n">
         <v>2845.2</v>
@@ -3033,7 +3055,7 @@
         <v>244</v>
       </c>
       <c r="K55" t="n">
-        <v>9.58904109589041</v>
+        <v>62.5</v>
       </c>
       <c r="L55" t="n">
         <v>2847.3</v>
@@ -3084,7 +3106,7 @@
         <v>253</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.439024390243902</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L56" t="n">
         <v>2849.4</v>
@@ -3135,7 +3157,7 @@
         <v>254</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.614457831325301</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="L57" t="n">
         <v>2851.4</v>
@@ -3186,7 +3208,7 @@
         <v>254</v>
       </c>
       <c r="K58" t="n">
-        <v>8.108108108108109</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L58" t="n">
         <v>2852.9</v>
@@ -3237,7 +3259,7 @@
         <v>254</v>
       </c>
       <c r="K59" t="n">
-        <v>8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>2853.9</v>
@@ -3288,7 +3310,7 @@
         <v>257</v>
       </c>
       <c r="K60" t="n">
-        <v>11.68831168831169</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L60" t="n">
         <v>2854.2</v>
@@ -3339,7 +3361,7 @@
         <v>262</v>
       </c>
       <c r="K61" t="n">
-        <v>8.860759493670885</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L61" t="n">
         <v>2852.9</v>
@@ -3390,7 +3412,7 @@
         <v>270</v>
       </c>
       <c r="K62" t="n">
-        <v>-1.149425287356322</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L62" t="n">
         <v>2851.4</v>
@@ -3441,7 +3463,7 @@
         <v>276</v>
       </c>
       <c r="K63" t="n">
-        <v>-8.695652173913043</v>
+        <v>-81.25</v>
       </c>
       <c r="L63" t="n">
         <v>2849.6</v>
@@ -3492,7 +3514,7 @@
         <v>285</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571428</v>
+        <v>-85.36585365853658</v>
       </c>
       <c r="L64" t="n">
         <v>2846.1</v>
@@ -3543,7 +3565,7 @@
         <v>290</v>
       </c>
       <c r="K65" t="n">
-        <v>-18.44660194174757</v>
+        <v>-83.78378378378379</v>
       </c>
       <c r="L65" t="n">
         <v>2842.1</v>
@@ -3594,7 +3616,7 @@
         <v>300</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L66" t="n">
         <v>2840</v>
@@ -3645,7 +3667,7 @@
         <v>303</v>
       </c>
       <c r="K67" t="n">
-        <v>2.803738317757009</v>
+        <v>-34.69387755102041</v>
       </c>
       <c r="L67" t="n">
         <v>2838.3</v>
@@ -3696,7 +3718,7 @@
         <v>304</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.9708737864077669</v>
+        <v>-32</v>
       </c>
       <c r="L68" t="n">
         <v>2836.7</v>
@@ -3747,7 +3769,7 @@
         <v>304</v>
       </c>
       <c r="K69" t="n">
-        <v>-6.122448979591836</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L69" t="n">
         <v>2835.1</v>
@@ -3798,7 +3820,7 @@
         <v>305</v>
       </c>
       <c r="K70" t="n">
-        <v>-16.85393258426966</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L70" t="n">
         <v>2833.3</v>
@@ -3849,7 +3871,7 @@
         <v>310</v>
       </c>
       <c r="K71" t="n">
-        <v>-25.30120481927711</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>2832.5</v>
@@ -3900,7 +3922,7 @@
         <v>310</v>
       </c>
       <c r="K72" t="n">
-        <v>-19.48051948051948</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L72" t="n">
         <v>2832.5</v>
@@ -3951,7 +3973,7 @@
         <v>310</v>
       </c>
       <c r="K73" t="n">
-        <v>-16.21621621621622</v>
+        <v>60</v>
       </c>
       <c r="L73" t="n">
         <v>2833.1</v>
@@ -4002,7 +4024,7 @@
         <v>310</v>
       </c>
       <c r="K74" t="n">
-        <v>-30.3030303030303</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>2834.6</v>
@@ -4053,7 +4075,7 @@
         <v>310</v>
       </c>
       <c r="K75" t="n">
-        <v>-30.3030303030303</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
         <v>2836.6</v>
@@ -4104,7 +4126,7 @@
         <v>311</v>
       </c>
       <c r="K76" t="n">
-        <v>-17.24137931034483</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
         <v>2837.7</v>
@@ -4155,7 +4177,7 @@
         <v>331</v>
       </c>
       <c r="K77" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>2840.5</v>
@@ -4206,7 +4228,7 @@
         <v>336</v>
       </c>
       <c r="K78" t="n">
-        <v>19.51219512195122</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>2843.7</v>
@@ -4257,7 +4279,7 @@
         <v>336</v>
       </c>
       <c r="K79" t="n">
-        <v>19.51219512195122</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
         <v>2846.9</v>
@@ -4308,7 +4330,7 @@
         <v>338</v>
       </c>
       <c r="K80" t="n">
-        <v>18.51851851851852</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
         <v>2850.2</v>
@@ -4359,7 +4381,7 @@
         <v>343</v>
       </c>
       <c r="K81" t="n">
-        <v>30.8641975308642</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
         <v>2853.5</v>
@@ -4410,7 +4432,7 @@
         <v>343</v>
       </c>
       <c r="K82" t="n">
-        <v>45.20547945205479</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
         <v>2856.8</v>
@@ -4461,7 +4483,7 @@
         <v>343</v>
       </c>
       <c r="K83" t="n">
-        <v>58.2089552238806</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
         <v>2860.1</v>
@@ -4512,7 +4534,7 @@
         <v>350</v>
       </c>
       <c r="K84" t="n">
-        <v>63.07692307692307</v>
+        <v>65</v>
       </c>
       <c r="L84" t="n">
         <v>2862.7</v>
@@ -4563,7 +4585,7 @@
         <v>350</v>
       </c>
       <c r="K85" t="n">
-        <v>76.66666666666667</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="L85" t="n">
         <v>2865.3</v>
@@ -4614,7 +4636,7 @@
         <v>356</v>
       </c>
       <c r="K86" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L86" t="n">
         <v>2868.4</v>
@@ -4665,7 +4687,7 @@
         <v>369</v>
       </c>
       <c r="K87" t="n">
-        <v>78.78787878787878</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="L87" t="n">
         <v>2870.8</v>
@@ -4716,7 +4738,7 @@
         <v>378</v>
       </c>
       <c r="K88" t="n">
-        <v>56.75675675675676</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L88" t="n">
         <v>2871.8</v>
@@ -4767,7 +4789,7 @@
         <v>378</v>
       </c>
       <c r="K89" t="n">
-        <v>56.75675675675676</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>2872.8</v>
@@ -4818,7 +4840,7 @@
         <v>382</v>
       </c>
       <c r="K90" t="n">
-        <v>58.44155844155844</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L90" t="n">
         <v>2874</v>
@@ -4869,7 +4891,7 @@
         <v>383</v>
       </c>
       <c r="K91" t="n">
-        <v>53.42465753424658</v>
+        <v>15</v>
       </c>
       <c r="L91" t="n">
         <v>2874.6</v>
@@ -4920,7 +4942,7 @@
         <v>385</v>
       </c>
       <c r="K92" t="n">
-        <v>54.66666666666666</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L92" t="n">
         <v>2875.4</v>
@@ -4971,7 +4993,7 @@
         <v>387</v>
       </c>
       <c r="K93" t="n">
-        <v>55.84415584415584</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L93" t="n">
         <v>2876.4</v>
@@ -5022,7 +5044,7 @@
         <v>395</v>
       </c>
       <c r="K94" t="n">
-        <v>60</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L94" t="n">
         <v>2878.9</v>
@@ -5073,7 +5095,7 @@
         <v>395</v>
       </c>
       <c r="K95" t="n">
-        <v>60</v>
+        <v>48.71794871794872</v>
       </c>
       <c r="L95" t="n">
         <v>2881.4</v>
@@ -5124,7 +5146,7 @@
         <v>395</v>
       </c>
       <c r="K96" t="n">
-        <v>59.52380952380953</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L96" t="n">
         <v>2883.3</v>
@@ -5175,7 +5197,7 @@
         <v>396</v>
       </c>
       <c r="K97" t="n">
-        <v>44.61538461538462</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L97" t="n">
         <v>2883.8</v>
@@ -5226,7 +5248,7 @@
         <v>403</v>
       </c>
       <c r="K98" t="n">
-        <v>46.26865671641791</v>
+        <v>84</v>
       </c>
       <c r="L98" t="n">
         <v>2885.9</v>
@@ -5277,7 +5299,7 @@
         <v>405</v>
       </c>
       <c r="K99" t="n">
-        <v>47.82608695652174</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L99" t="n">
         <v>2888.2</v>
@@ -5328,7 +5350,7 @@
         <v>405</v>
       </c>
       <c r="K100" t="n">
-        <v>46.26865671641791</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L100" t="n">
         <v>2890.1</v>
@@ -5379,7 +5401,7 @@
         <v>406</v>
       </c>
       <c r="K101" t="n">
-        <v>42.85714285714285</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L101" t="n">
         <v>2892.2</v>
@@ -5430,7 +5452,7 @@
         <v>406</v>
       </c>
       <c r="K102" t="n">
-        <v>42.85714285714285</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L102" t="n">
         <v>2894.1</v>
@@ -5481,7 +5503,7 @@
         <v>412</v>
       </c>
       <c r="K103" t="n">
-        <v>47.82608695652174</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L103" t="n">
         <v>2896.4</v>
@@ -5532,7 +5554,7 @@
         <v>416</v>
       </c>
       <c r="K104" t="n">
-        <v>66.66666666666666</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L104" t="n">
         <v>2898.3</v>
@@ -5583,7 +5605,7 @@
         <v>420</v>
       </c>
       <c r="K105" t="n">
-        <v>57.14285714285714</v>
+        <v>60</v>
       </c>
       <c r="L105" t="n">
         <v>2899.8</v>
@@ -5634,7 +5656,7 @@
         <v>434</v>
       </c>
       <c r="K106" t="n">
-        <v>61.53846153846154</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L106" t="n">
         <v>2902.7</v>
@@ -5685,7 +5707,7 @@
         <v>436</v>
       </c>
       <c r="K107" t="n">
-        <v>49.25373134328358</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L107" t="n">
         <v>2905.5</v>
@@ -5736,7 +5758,7 @@
         <v>437</v>
       </c>
       <c r="K108" t="n">
-        <v>72.88135593220339</v>
+        <v>62.5</v>
       </c>
       <c r="L108" t="n">
         <v>2907.7</v>
@@ -5787,7 +5809,7 @@
         <v>439</v>
       </c>
       <c r="K109" t="n">
-        <v>73.77049180327869</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L109" t="n">
         <v>2909.9</v>
@@ -5838,7 +5860,7 @@
         <v>447</v>
       </c>
       <c r="K110" t="n">
-        <v>75.38461538461539</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="L110" t="n">
         <v>2912.9</v>
@@ -5889,7 +5911,7 @@
         <v>447</v>
       </c>
       <c r="K111" t="n">
-        <v>78.125</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="L111" t="n">
         <v>2915.8</v>
@@ -5940,7 +5962,7 @@
         <v>448</v>
       </c>
       <c r="K112" t="n">
-        <v>77.77777777777779</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L112" t="n">
         <v>2918.8</v>
@@ -5991,7 +6013,7 @@
         <v>454</v>
       </c>
       <c r="K113" t="n">
-        <v>79.1044776119403</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L113" t="n">
         <v>2921.8</v>
@@ -6042,7 +6064,7 @@
         <v>455</v>
       </c>
       <c r="K114" t="n">
-        <v>73.33333333333333</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="L114" t="n">
         <v>2924.3</v>
@@ -6093,7 +6115,7 @@
         <v>464</v>
       </c>
       <c r="K115" t="n">
-        <v>50.72463768115942</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
         <v>2926.3</v>
@@ -6144,7 +6166,7 @@
         <v>464</v>
       </c>
       <c r="K116" t="n">
-        <v>50.72463768115942</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L116" t="n">
         <v>2926.9</v>
@@ -6195,7 +6217,7 @@
         <v>466</v>
       </c>
       <c r="K117" t="n">
-        <v>54.28571428571428</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L117" t="n">
         <v>2927.9</v>
@@ -6246,7 +6268,7 @@
         <v>466</v>
       </c>
       <c r="K118" t="n">
-        <v>49.2063492063492</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L118" t="n">
         <v>2928.8</v>
@@ -6297,7 +6319,7 @@
         <v>471</v>
       </c>
       <c r="K119" t="n">
-        <v>51.51515151515152</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L119" t="n">
         <v>2930</v>
@@ -6348,7 +6370,7 @@
         <v>478</v>
       </c>
       <c r="K120" t="n">
-        <v>56.16438356164384</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L120" t="n">
         <v>2931.1</v>
@@ -6399,7 +6421,7 @@
         <v>481</v>
       </c>
       <c r="K121" t="n">
-        <v>57.33333333333334</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L121" t="n">
         <v>2932.5</v>
@@ -6450,7 +6472,7 @@
         <v>481</v>
       </c>
       <c r="K122" t="n">
-        <v>57.33333333333334</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L122" t="n">
         <v>2933.8</v>
@@ -6501,7 +6523,7 @@
         <v>481</v>
       </c>
       <c r="K123" t="n">
-        <v>53.62318840579711</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L123" t="n">
         <v>2934.5</v>
@@ -6552,7 +6574,7 @@
         <v>482</v>
       </c>
       <c r="K124" t="n">
-        <v>51.51515151515152</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
         <v>2935.4</v>
@@ -6603,7 +6625,7 @@
         <v>482</v>
       </c>
       <c r="K125" t="n">
-        <v>61.29032258064516</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>2937.2</v>
@@ -6654,7 +6676,7 @@
         <v>488</v>
       </c>
       <c r="K126" t="n">
-        <v>55.55555555555556</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>2939.6</v>
@@ -6705,7 +6727,7 @@
         <v>488</v>
       </c>
       <c r="K127" t="n">
-        <v>61.53846153846154</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>2941.8</v>
@@ -6756,7 +6778,7 @@
         <v>493</v>
       </c>
       <c r="K128" t="n">
-        <v>46.42857142857143</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L128" t="n">
         <v>2943.5</v>
@@ -6807,7 +6829,7 @@
         <v>498</v>
       </c>
       <c r="K129" t="n">
-        <v>49.15254237288136</v>
+        <v>50</v>
       </c>
       <c r="L129" t="n">
         <v>2945.2</v>
@@ -6858,7 +6880,7 @@
         <v>499</v>
       </c>
       <c r="K130" t="n">
-        <v>42.30769230769231</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L130" t="n">
         <v>2946.3</v>
@@ -6909,7 +6931,7 @@
         <v>500</v>
       </c>
       <c r="K131" t="n">
-        <v>39.62264150943396</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L131" t="n">
         <v>2947</v>
@@ -6960,7 +6982,7 @@
         <v>501</v>
       </c>
       <c r="K132" t="n">
-        <v>35.84905660377358</v>
+        <v>30</v>
       </c>
       <c r="L132" t="n">
         <v>2947.6</v>
@@ -7011,7 +7033,7 @@
         <v>503</v>
       </c>
       <c r="K133" t="n">
-        <v>22.44897959183674</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>2948</v>
@@ -7062,7 +7084,7 @@
         <v>503</v>
       </c>
       <c r="K134" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L134" t="n">
         <v>2948.3</v>
@@ -7113,7 +7135,7 @@
         <v>512</v>
       </c>
       <c r="K135" t="n">
-        <v>25</v>
+        <v>-50</v>
       </c>
       <c r="L135" t="n">
         <v>2947.7</v>
@@ -7164,7 +7186,7 @@
         <v>517</v>
       </c>
       <c r="K136" t="n">
-        <v>32.0754716981132</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L136" t="n">
         <v>2947</v>
@@ -7215,7 +7237,7 @@
         <v>518</v>
       </c>
       <c r="K137" t="n">
-        <v>30.76923076923077</v>
+        <v>-4</v>
       </c>
       <c r="L137" t="n">
         <v>2946.4</v>
@@ -7266,7 +7288,7 @@
         <v>519</v>
       </c>
       <c r="K138" t="n">
-        <v>28.30188679245283</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>2946.2</v>
@@ -7317,7 +7339,7 @@
         <v>525</v>
       </c>
       <c r="K139" t="n">
-        <v>7.407407407407407</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L139" t="n">
         <v>2944.9</v>
@@ -7368,7 +7390,7 @@
         <v>530</v>
       </c>
       <c r="K140" t="n">
-        <v>3.846153846153846</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L140" t="n">
         <v>2944</v>
@@ -7419,7 +7441,7 @@
         <v>530</v>
       </c>
       <c r="K141" t="n">
-        <v>-2.040816326530612</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L141" t="n">
         <v>2943.2</v>
@@ -7470,7 +7492,7 @@
         <v>530</v>
       </c>
       <c r="K142" t="n">
-        <v>-2.040816326530612</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L142" t="n">
         <v>2942.5</v>
@@ -7521,7 +7543,7 @@
         <v>530</v>
       </c>
       <c r="K143" t="n">
-        <v>-2.040816326530612</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L143" t="n">
         <v>2942</v>
@@ -7572,7 +7594,7 @@
         <v>532</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L144" t="n">
         <v>2941.7</v>
@@ -7623,7 +7645,7 @@
         <v>534</v>
       </c>
       <c r="K145" t="n">
-        <v>3.846153846153846</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L145" t="n">
         <v>2942.5</v>
@@ -7674,7 +7696,7 @@
         <v>536</v>
       </c>
       <c r="K146" t="n">
-        <v>-4.166666666666666</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L146" t="n">
         <v>2943</v>
@@ -7725,7 +7747,7 @@
         <v>536</v>
       </c>
       <c r="K147" t="n">
-        <v>-4.166666666666666</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L147" t="n">
         <v>2943.4</v>
@@ -7776,7 +7798,7 @@
         <v>538</v>
       </c>
       <c r="K148" t="n">
-        <v>2.222222222222222</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L148" t="n">
         <v>2943.7</v>
@@ -7827,7 +7849,7 @@
         <v>538</v>
       </c>
       <c r="K149" t="n">
-        <v>-10</v>
+        <v>50</v>
       </c>
       <c r="L149" t="n">
         <v>2944.6</v>
@@ -7878,7 +7900,7 @@
         <v>552</v>
       </c>
       <c r="K150" t="n">
-        <v>-35.84905660377358</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L150" t="n">
         <v>2943.6</v>
@@ -7929,7 +7951,7 @@
         <v>552</v>
       </c>
       <c r="K151" t="n">
-        <v>-34.61538461538461</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L151" t="n">
         <v>2942.6</v>
@@ -7980,7 +8002,7 @@
         <v>557</v>
       </c>
       <c r="K152" t="n">
-        <v>-21.42857142857143</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L152" t="n">
         <v>2942.1</v>
@@ -8031,7 +8053,7 @@
         <v>558</v>
       </c>
       <c r="K153" t="n">
-        <v>-20</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L153" t="n">
         <v>2941.5</v>
@@ -8082,7 +8104,7 @@
         <v>561</v>
       </c>
       <c r="K154" t="n">
-        <v>-24.13793103448276</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L154" t="n">
         <v>2940.4</v>
@@ -8133,7 +8155,7 @@
         <v>561</v>
       </c>
       <c r="K155" t="n">
-        <v>-10.20408163265306</v>
+        <v>-60</v>
       </c>
       <c r="L155" t="n">
         <v>2939.1</v>
@@ -8184,7 +8206,7 @@
         <v>564</v>
       </c>
       <c r="K156" t="n">
-        <v>-27.65957446808511</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L156" t="n">
         <v>2937.3</v>
@@ -8235,7 +8257,7 @@
         <v>596</v>
       </c>
       <c r="K157" t="n">
-        <v>-58.97435897435898</v>
+        <v>-82.75862068965517</v>
       </c>
       <c r="L157" t="n">
         <v>2932.3</v>
@@ -8286,7 +8308,7 @@
         <v>610</v>
       </c>
       <c r="K158" t="n">
-        <v>-34.06593406593407</v>
+        <v>-47.22222222222222</v>
       </c>
       <c r="L158" t="n">
         <v>2928.9</v>
@@ -8337,7 +8359,7 @@
         <v>611</v>
       </c>
       <c r="K159" t="n">
-        <v>-27.90697674418605</v>
+        <v>-32.20338983050847</v>
       </c>
       <c r="L159" t="n">
         <v>2925.6</v>
@@ -8388,7 +8410,7 @@
         <v>613</v>
       </c>
       <c r="K160" t="n">
-        <v>-37.34939759036144</v>
+        <v>-34.42622950819672</v>
       </c>
       <c r="L160" t="n">
         <v>2923.5</v>
@@ -8439,7 +8461,7 @@
         <v>623</v>
       </c>
       <c r="K161" t="n">
-        <v>-22.58064516129032</v>
+        <v>-24.24242424242424</v>
       </c>
       <c r="L161" t="n">
         <v>2922.4</v>
@@ -8490,7 +8512,7 @@
         <v>629</v>
       </c>
       <c r="K162" t="n">
-        <v>-15.15151515151515</v>
+        <v>-12.67605633802817</v>
       </c>
       <c r="L162" t="n">
         <v>2921.4</v>
@@ -8541,7 +8563,7 @@
         <v>632</v>
       </c>
       <c r="K163" t="n">
-        <v>-17.64705882352941</v>
+        <v>-12.67605633802817</v>
       </c>
       <c r="L163" t="n">
         <v>2920.2</v>
@@ -8592,7 +8614,7 @@
         <v>633</v>
       </c>
       <c r="K164" t="n">
-        <v>-20.79207920792079</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="L164" t="n">
         <v>2919.2</v>
@@ -8643,7 +8665,7 @@
         <v>651</v>
       </c>
       <c r="K165" t="n">
-        <v>-4.273504273504273</v>
+        <v>12.64367816091954</v>
       </c>
       <c r="L165" t="n">
         <v>2920</v>
@@ -8694,7 +8716,7 @@
         <v>665</v>
       </c>
       <c r="K166" t="n">
-        <v>-16.27906976744186</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="L166" t="n">
         <v>2919.7</v>
@@ -8745,7 +8767,7 @@
         <v>679</v>
       </c>
       <c r="K167" t="n">
-        <v>-4.895104895104895</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="L167" t="n">
         <v>2924</v>
@@ -8796,7 +8818,7 @@
         <v>681</v>
       </c>
       <c r="K168" t="n">
-        <v>-2.097902097902098</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L168" t="n">
         <v>2927.1</v>
@@ -8847,7 +8869,7 @@
         <v>681</v>
       </c>
       <c r="K169" t="n">
-        <v>-2.097902097902098</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L169" t="n">
         <v>2930.1</v>
@@ -8898,7 +8920,7 @@
         <v>681</v>
       </c>
       <c r="K170" t="n">
-        <v>8.527131782945736</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L170" t="n">
         <v>2933.3</v>
@@ -8949,7 +8971,7 @@
         <v>688</v>
       </c>
       <c r="K171" t="n">
-        <v>13.23529411764706</v>
+        <v>38.98305084745763</v>
       </c>
       <c r="L171" t="n">
         <v>2936.2</v>
@@ -9000,7 +9022,7 @@
         <v>689</v>
       </c>
       <c r="K172" t="n">
-        <v>9.090909090909092</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L172" t="n">
         <v>2938.4</v>
@@ -9051,7 +9073,7 @@
         <v>689</v>
       </c>
       <c r="K173" t="n">
-        <v>9.923664122137405</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="L173" t="n">
         <v>2940.9</v>
@@ -9102,7 +9124,7 @@
         <v>701</v>
       </c>
       <c r="K174" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L174" t="n">
         <v>2944.7</v>
@@ -9153,7 +9175,7 @@
         <v>702</v>
       </c>
       <c r="K175" t="n">
-        <v>19.14893617021277</v>
+        <v>89.18918918918919</v>
       </c>
       <c r="L175" t="n">
         <v>2946.6</v>
@@ -9204,7 +9226,7 @@
         <v>702</v>
       </c>
       <c r="K176" t="n">
-        <v>21.73913043478261</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L176" t="n">
         <v>2949.9</v>
@@ -9255,7 +9277,7 @@
         <v>704</v>
       </c>
       <c r="K177" t="n">
-        <v>59.25925925925925</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L177" t="n">
         <v>2952</v>
@@ -9306,7 +9328,7 @@
         <v>707</v>
       </c>
       <c r="K178" t="n">
-        <v>54.63917525773196</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L178" t="n">
         <v>2954.2</v>
@@ -9357,7 +9379,7 @@
         <v>708</v>
       </c>
       <c r="K179" t="n">
-        <v>52.57731958762887</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L179" t="n">
         <v>2956.3</v>
@@ -9408,7 +9430,7 @@
         <v>712</v>
       </c>
       <c r="K180" t="n">
-        <v>49.49494949494949</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L180" t="n">
         <v>2958</v>
@@ -9459,7 +9481,7 @@
         <v>719</v>
       </c>
       <c r="K181" t="n">
-        <v>33.33333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>2958.3</v>
@@ -9510,7 +9532,7 @@
         <v>725</v>
       </c>
       <c r="K182" t="n">
-        <v>33.33333333333333</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L182" t="n">
         <v>2959.3</v>
@@ -9561,7 +9583,7 @@
         <v>725</v>
       </c>
       <c r="K183" t="n">
-        <v>37.63440860215054</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L183" t="n">
         <v>2960.3</v>
@@ -9612,7 +9634,7 @@
         <v>732</v>
       </c>
       <c r="K184" t="n">
-        <v>29.29292929292929</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L184" t="n">
         <v>2959.4</v>
@@ -9663,7 +9685,7 @@
         <v>736</v>
       </c>
       <c r="K185" t="n">
-        <v>8.235294117647058</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L185" t="n">
         <v>2958.2</v>
@@ -9714,7 +9736,7 @@
         <v>744</v>
       </c>
       <c r="K186" t="n">
-        <v>36.70886075949367</v>
+        <v>-15</v>
       </c>
       <c r="L186" t="n">
         <v>2957.8</v>
@@ -9765,7 +9787,7 @@
         <v>747</v>
       </c>
       <c r="K187" t="n">
-        <v>26.47058823529412</v>
+        <v>-15</v>
       </c>
       <c r="L187" t="n">
         <v>2957.5</v>
@@ -9816,7 +9838,7 @@
         <v>750</v>
       </c>
       <c r="K188" t="n">
-        <v>18.84057971014493</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L188" t="n">
         <v>2956.6</v>
@@ -9867,7 +9889,7 @@
         <v>753</v>
       </c>
       <c r="K189" t="n">
-        <v>13.88888888888889</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L189" t="n">
         <v>2955.5</v>
@@ -9918,7 +9940,7 @@
         <v>779</v>
       </c>
       <c r="K190" t="n">
-        <v>-16.3265306122449</v>
+        <v>-43.33333333333334</v>
       </c>
       <c r="L190" t="n">
         <v>2952.2</v>
@@ -9969,7 +9991,7 @@
         <v>779</v>
       </c>
       <c r="K191" t="n">
-        <v>-25.27472527472527</v>
+        <v>-59.25925925925925</v>
       </c>
       <c r="L191" t="n">
         <v>2949.6</v>
@@ -10020,7 +10042,7 @@
         <v>784</v>
       </c>
       <c r="K192" t="n">
-        <v>-28.42105263157895</v>
+        <v>-62.71186440677966</v>
       </c>
       <c r="L192" t="n">
         <v>2945.9</v>
@@ -10071,7 +10093,7 @@
         <v>789</v>
       </c>
       <c r="K193" t="n">
-        <v>-22</v>
+        <v>-43.85964912280701</v>
       </c>
       <c r="L193" t="n">
         <v>2942.7</v>
@@ -10122,7 +10144,7 @@
         <v>795</v>
       </c>
       <c r="K194" t="n">
-        <v>-29.78723404255319</v>
+        <v>-25.42372881355932</v>
       </c>
       <c r="L194" t="n">
         <v>2940.8</v>
@@ -10173,7 +10195,7 @@
         <v>795</v>
       </c>
       <c r="K195" t="n">
-        <v>-29.03225806451613</v>
+        <v>-45.09803921568628</v>
       </c>
       <c r="L195" t="n">
         <v>2939.3</v>
@@ -10224,7 +10246,7 @@
         <v>812</v>
       </c>
       <c r="K196" t="n">
-        <v>-9.090909090909092</v>
+        <v>-13.84615384615385</v>
       </c>
       <c r="L196" t="n">
         <v>2938.7</v>
@@ -10275,7 +10297,7 @@
         <v>813</v>
       </c>
       <c r="K197" t="n">
-        <v>-11.92660550458716</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L197" t="n">
         <v>2937.7</v>
@@ -10326,7 +10348,7 @@
         <v>814</v>
       </c>
       <c r="K198" t="n">
-        <v>-15.88785046728972</v>
+        <v>-8.196721311475409</v>
       </c>
       <c r="L198" t="n">
         <v>2936.9</v>
@@ -10377,7 +10399,7 @@
         <v>815</v>
       </c>
       <c r="K199" t="n">
-        <v>-15.88785046728972</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L199" t="n">
         <v>2936.3</v>
@@ -10428,7 +10450,7 @@
         <v>816</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.53846153846154</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="L200" t="n">
         <v>2938.4</v>
@@ -10479,7 +10501,7 @@
         <v>816</v>
       </c>
       <c r="K201" t="n">
-        <v>-5.154639175257731</v>
+        <v>81.25</v>
       </c>
       <c r="L201" t="n">
         <v>2940.5</v>
@@ -10530,7 +10552,7 @@
         <v>831</v>
       </c>
       <c r="K202" t="n">
-        <v>-24.52830188679245</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L202" t="n">
         <v>2941.6</v>
@@ -10581,7 +10603,7 @@
         <v>832</v>
       </c>
       <c r="K203" t="n">
-        <v>-25.23364485981308</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L203" t="n">
         <v>2942.1</v>
@@ -10632,7 +10654,7 @@
         <v>845</v>
       </c>
       <c r="K204" t="n">
-        <v>-6.194690265486726</v>
+        <v>24</v>
       </c>
       <c r="L204" t="n">
         <v>2943.3</v>
@@ -10683,7 +10705,7 @@
         <v>847</v>
       </c>
       <c r="K205" t="n">
-        <v>-4.504504504504505</v>
+        <v>-20</v>
       </c>
       <c r="L205" t="n">
         <v>2944.3</v>
@@ -10734,7 +10756,7 @@
         <v>848</v>
       </c>
       <c r="K206" t="n">
-        <v>-11.53846153846154</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L206" t="n">
         <v>2943.7</v>
@@ -10785,7 +10807,7 @@
         <v>848</v>
       </c>
       <c r="K207" t="n">
-        <v>-14.85148514851485</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L207" t="n">
         <v>2943.2</v>
@@ -10836,7 +10858,7 @@
         <v>850</v>
       </c>
       <c r="K208" t="n">
-        <v>-10</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L208" t="n">
         <v>2943</v>
@@ -10887,7 +10909,7 @@
         <v>852</v>
       </c>
       <c r="K209" t="n">
-        <v>-5.05050505050505</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>2943.1</v>
@@ -10938,7 +10960,7 @@
         <v>857</v>
       </c>
       <c r="K210" t="n">
-        <v>33.33333333333333</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L210" t="n">
         <v>2943.6</v>
@@ -10989,7 +11011,7 @@
         <v>859</v>
       </c>
       <c r="K211" t="n">
-        <v>35</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L211" t="n">
         <v>2944.3</v>
@@ -11040,7 +11062,7 @@
         <v>861</v>
       </c>
       <c r="K212" t="n">
-        <v>40.25974025974026</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L212" t="n">
         <v>2946.3</v>
@@ -11091,7 +11113,7 @@
         <v>865</v>
       </c>
       <c r="K213" t="n">
-        <v>28.94736842105263</v>
+        <v>20</v>
       </c>
       <c r="L213" t="n">
         <v>2948</v>
@@ -11142,7 +11164,7 @@
         <v>865</v>
       </c>
       <c r="K214" t="n">
-        <v>22.85714285714286</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>2948.4</v>
@@ -11193,7 +11215,7 @@
         <v>866</v>
       </c>
       <c r="K215" t="n">
-        <v>23.94366197183098</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>2949.1</v>
@@ -11244,7 +11266,7 @@
         <v>867</v>
       </c>
       <c r="K216" t="n">
-        <v>-1.818181818181818</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L216" t="n">
         <v>2949.6</v>
@@ -11295,7 +11317,7 @@
         <v>873</v>
       </c>
       <c r="K217" t="n">
-        <v>-10</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L217" t="n">
         <v>2949.5</v>
@@ -11346,7 +11368,7 @@
         <v>875</v>
       </c>
       <c r="K218" t="n">
-        <v>-11.47540983606557</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L218" t="n">
         <v>2949</v>
@@ -11397,7 +11419,7 @@
         <v>876</v>
       </c>
       <c r="K219" t="n">
-        <v>-8.196721311475409</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L219" t="n">
         <v>2948.4</v>
@@ -11448,7 +11470,7 @@
         <v>878</v>
       </c>
       <c r="K220" t="n">
-        <v>-12.90322580645161</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L220" t="n">
         <v>2947.1</v>
@@ -11499,7 +11521,7 @@
         <v>885</v>
       </c>
       <c r="K221" t="n">
-        <v>-1.449275362318841</v>
+        <v>-25</v>
       </c>
       <c r="L221" t="n">
         <v>2946.3</v>
@@ -11550,7 +11572,7 @@
         <v>886</v>
       </c>
       <c r="K222" t="n">
-        <v>27.27272727272727</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L222" t="n">
         <v>2945.8</v>
@@ -11601,7 +11623,7 @@
         <v>887</v>
       </c>
       <c r="K223" t="n">
-        <v>30.90909090909091</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>2945.8</v>
@@ -11652,7 +11674,7 @@
         <v>887</v>
       </c>
       <c r="K224" t="n">
-        <v>9.523809523809524</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L224" t="n">
         <v>2945.8</v>
@@ -11703,7 +11725,7 @@
         <v>895</v>
       </c>
       <c r="K225" t="n">
-        <v>-4.166666666666666</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L225" t="n">
         <v>2944.9</v>
@@ -11754,7 +11776,7 @@
         <v>897</v>
       </c>
       <c r="K226" t="n">
-        <v>-10.20408163265306</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L226" t="n">
         <v>2943.9</v>
@@ -11805,7 +11827,7 @@
         <v>903</v>
       </c>
       <c r="K227" t="n">
-        <v>-20</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L227" t="n">
         <v>2942.9</v>
@@ -11856,7 +11878,7 @@
         <v>903</v>
       </c>
       <c r="K228" t="n">
-        <v>-24.52830188679245</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>2942.1</v>
@@ -11907,7 +11929,7 @@
         <v>907</v>
       </c>
       <c r="K229" t="n">
-        <v>-34.54545454545455</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L229" t="n">
         <v>2940.8</v>
@@ -11958,7 +11980,7 @@
         <v>916</v>
       </c>
       <c r="K230" t="n">
-        <v>-55.93220338983051</v>
+        <v>-87.09677419354838</v>
       </c>
       <c r="L230" t="n">
         <v>2938.8</v>
@@ -12009,7 +12031,7 @@
         <v>917</v>
       </c>
       <c r="K231" t="n">
-        <v>-58.62068965517241</v>
+        <v>-87.09677419354838</v>
       </c>
       <c r="L231" t="n">
         <v>2936.2</v>
@@ -12060,7 +12082,7 @@
         <v>929</v>
       </c>
       <c r="K232" t="n">
-        <v>-29.41176470588236</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L232" t="n">
         <v>2934.7</v>
@@ -12111,7 +12133,7 @@
         <v>942</v>
       </c>
       <c r="K233" t="n">
-        <v>-37.66233766233766</v>
+        <v>-52.72727272727272</v>
       </c>
       <c r="L233" t="n">
         <v>2931.8</v>
@@ -12162,7 +12184,7 @@
         <v>953</v>
       </c>
       <c r="K234" t="n">
-        <v>-45.45454545454545</v>
+        <v>-55.17241379310344</v>
       </c>
       <c r="L234" t="n">
         <v>2927.8</v>
@@ -12213,7 +12235,7 @@
         <v>961</v>
       </c>
       <c r="K235" t="n">
-        <v>-51.57894736842105</v>
+        <v>-59.375</v>
       </c>
       <c r="L235" t="n">
         <v>2923.8</v>
@@ -12264,7 +12286,7 @@
         <v>985</v>
       </c>
       <c r="K236" t="n">
-        <v>-20.33898305084746</v>
+        <v>-9.75609756097561</v>
       </c>
       <c r="L236" t="n">
         <v>2922.4</v>
@@ -12315,7 +12337,7 @@
         <v>1009</v>
       </c>
       <c r="K237" t="n">
-        <v>-30.88235294117647</v>
+        <v>-30.18867924528302</v>
       </c>
       <c r="L237" t="n">
         <v>2919.2</v>
@@ -12366,7 +12388,7 @@
         <v>1010</v>
       </c>
       <c r="K238" t="n">
-        <v>-30.37037037037037</v>
+        <v>-28.15533980582524</v>
       </c>
       <c r="L238" t="n">
         <v>2915.9</v>
@@ -12417,7 +12439,7 @@
         <v>1017</v>
       </c>
       <c r="K239" t="n">
-        <v>-24.82269503546099</v>
+        <v>-12.87128712871287</v>
       </c>
       <c r="L239" t="n">
         <v>2913.7</v>
@@ -12468,7 +12490,7 @@
         <v>1029</v>
       </c>
       <c r="K240" t="n">
-        <v>-13.90728476821192</v>
+        <v>-1.785714285714286</v>
       </c>
       <c r="L240" t="n">
         <v>2913.6</v>
@@ -12519,7 +12541,7 @@
         <v>1041</v>
       </c>
       <c r="K241" t="n">
-        <v>-10.25641025641026</v>
+        <v>-1.785714285714286</v>
       </c>
       <c r="L241" t="n">
         <v>2914.6</v>
@@ -12570,7 +12592,7 @@
         <v>1042</v>
       </c>
       <c r="K242" t="n">
-        <v>-11.53846153846154</v>
+        <v>10</v>
       </c>
       <c r="L242" t="n">
         <v>2914.3</v>
@@ -12621,7 +12643,7 @@
         <v>1052</v>
       </c>
       <c r="K243" t="n">
-        <v>-17.57575757575757</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L243" t="n">
         <v>2914.3</v>
@@ -12672,7 +12694,7 @@
         <v>1072</v>
       </c>
       <c r="K244" t="n">
-        <v>-4.864864864864865</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L244" t="n">
         <v>2917.4</v>
@@ -12723,7 +12745,7 @@
         <v>1073</v>
       </c>
       <c r="K245" t="n">
-        <v>-1.123595505617978</v>
+        <v>15.90909090909091</v>
       </c>
       <c r="L245" t="n">
         <v>2921.2</v>
@@ -12774,7 +12796,7 @@
         <v>1074</v>
       </c>
       <c r="K246" t="n">
-        <v>0.5649717514124294</v>
+        <v>60</v>
       </c>
       <c r="L246" t="n">
         <v>2922.7</v>
@@ -12825,7 +12847,7 @@
         <v>1079</v>
       </c>
       <c r="K247" t="n">
-        <v>6.818181818181817</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L247" t="n">
         <v>2927.1</v>
@@ -12876,7 +12898,7 @@
         <v>1083</v>
       </c>
       <c r="K248" t="n">
-        <v>4.444444444444445</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L248" t="n">
         <v>2931.2</v>
@@ -12927,7 +12949,7 @@
         <v>1084</v>
       </c>
       <c r="K249" t="n">
-        <v>7.344632768361582</v>
+        <v>41.81818181818181</v>
       </c>
       <c r="L249" t="n">
         <v>2934.7</v>
@@ -12978,7 +13000,7 @@
         <v>1092</v>
       </c>
       <c r="K250" t="n">
-        <v>17.04545454545454</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L250" t="n">
         <v>2937.8</v>
@@ -13029,7 +13051,7 @@
         <v>1092</v>
       </c>
       <c r="K251" t="n">
-        <v>16.57142857142857</v>
+        <v>40</v>
       </c>
       <c r="L251" t="n">
         <v>2939.7</v>
@@ -13080,7 +13102,7 @@
         <v>1093</v>
       </c>
       <c r="K252" t="n">
-        <v>10.97560975609756</v>
+        <v>75.60975609756098</v>
       </c>
       <c r="L252" t="n">
         <v>2941.8</v>
@@ -13131,7 +13153,7 @@
         <v>1098</v>
       </c>
       <c r="K253" t="n">
-        <v>16.66666666666666</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L253" t="n">
         <v>2944.4</v>
@@ -13182,7 +13204,7 @@
         <v>1098</v>
       </c>
       <c r="K254" t="n">
-        <v>25.51724137931035</v>
+        <v>28</v>
       </c>
       <c r="L254" t="n">
         <v>2945</v>
@@ -13233,7 +13255,7 @@
         <v>1105</v>
       </c>
       <c r="K255" t="n">
-        <v>36.11111111111111</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L255" t="n">
         <v>2946.4</v>
@@ -13284,7 +13306,7 @@
         <v>1107</v>
       </c>
       <c r="K256" t="n">
-        <v>24.59016393442623</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L256" t="n">
         <v>2947.9</v>
@@ -13335,7 +13357,7 @@
         <v>1108</v>
       </c>
       <c r="K257" t="n">
-        <v>55.55555555555556</v>
+        <v>60</v>
       </c>
       <c r="L257" t="n">
         <v>2949</v>
@@ -13386,7 +13408,7 @@
         <v>1111</v>
       </c>
       <c r="K258" t="n">
-        <v>58.41584158415841</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L258" t="n">
         <v>2950.8</v>
@@ -13437,7 +13459,7 @@
         <v>1115</v>
       </c>
       <c r="K259" t="n">
-        <v>57.14285714285714</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L259" t="n">
         <v>2952.9</v>
@@ -13488,7 +13510,7 @@
         <v>1117</v>
       </c>
       <c r="K260" t="n">
-        <v>52.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L260" t="n">
         <v>2954.4</v>
@@ -13539,7 +13561,7 @@
         <v>1119</v>
       </c>
       <c r="K261" t="n">
-        <v>41.02564102564102</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L261" t="n">
         <v>2955.7</v>
@@ -13590,7 +13612,7 @@
         <v>1120</v>
       </c>
       <c r="K262" t="n">
-        <v>43.58974358974359</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L262" t="n">
         <v>2957</v>
@@ -13641,7 +13663,7 @@
         <v>1121</v>
       </c>
       <c r="K263" t="n">
-        <v>62.31884057971014</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L263" t="n">
         <v>2958.7</v>
@@ -13692,7 +13714,7 @@
         <v>1123</v>
       </c>
       <c r="K264" t="n">
-        <v>49.01960784313725</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L264" t="n">
         <v>2960.6</v>
@@ -13743,7 +13765,7 @@
         <v>1125</v>
       </c>
       <c r="K265" t="n">
-        <v>46.15384615384615</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L265" t="n">
         <v>2961.6</v>
@@ -13794,7 +13816,7 @@
         <v>1125</v>
       </c>
       <c r="K266" t="n">
-        <v>45.09803921568628</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L266" t="n">
         <v>2962.4</v>
@@ -13845,7 +13867,7 @@
         <v>1132</v>
       </c>
       <c r="K267" t="n">
-        <v>47.16981132075472</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L267" t="n">
         <v>2963.8</v>
@@ -13896,7 +13918,7 @@
         <v>1133</v>
       </c>
       <c r="K268" t="n">
-        <v>60</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L268" t="n">
         <v>2965</v>
@@ -13947,7 +13969,7 @@
         <v>1133</v>
       </c>
       <c r="K269" t="n">
-        <v>59.18367346938776</v>
+        <v>37.5</v>
       </c>
       <c r="L269" t="n">
         <v>2965.8</v>
@@ -13998,7 +14020,7 @@
         <v>1133</v>
       </c>
       <c r="K270" t="n">
-        <v>51.21951219512195</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L270" t="n">
         <v>2966.4</v>
@@ -14049,7 +14071,7 @@
         <v>1134</v>
       </c>
       <c r="K271" t="n">
-        <v>47.61904761904761</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L271" t="n">
         <v>2967.1</v>
@@ -14100,7 +14122,7 @@
         <v>1134</v>
       </c>
       <c r="K272" t="n">
-        <v>46.34146341463415</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L272" t="n">
         <v>2967.7</v>
@@ -14151,7 +14173,7 @@
         <v>1134</v>
       </c>
       <c r="K273" t="n">
-        <v>66.66666666666666</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L273" t="n">
         <v>2968.4</v>
@@ -14202,7 +14224,7 @@
         <v>1137</v>
       </c>
       <c r="K274" t="n">
-        <v>69.23076923076923</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L274" t="n">
         <v>2969.2</v>
@@ -14253,7 +14275,7 @@
         <v>1140</v>
       </c>
       <c r="K275" t="n">
-        <v>65.71428571428571</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L275" t="n">
         <v>2970.5</v>
@@ -14304,7 +14326,7 @@
         <v>1142</v>
       </c>
       <c r="K276" t="n">
-        <v>65.71428571428571</v>
+        <v>80</v>
       </c>
       <c r="L276" t="n">
         <v>2972</v>
@@ -14355,7 +14377,7 @@
         <v>1151</v>
       </c>
       <c r="K277" t="n">
-        <v>72.09302325581395</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L277" t="n">
         <v>2973.7</v>
@@ -14406,7 +14428,7 @@
         <v>1153</v>
       </c>
       <c r="K278" t="n">
-        <v>61.90476190476191</v>
+        <v>70</v>
       </c>
       <c r="L278" t="n">
         <v>2975.1</v>
@@ -14457,7 +14479,7 @@
         <v>1160</v>
       </c>
       <c r="K279" t="n">
-        <v>33.33333333333333</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L279" t="n">
         <v>2975.8</v>
@@ -14508,7 +14530,7 @@
         <v>1160</v>
       </c>
       <c r="K280" t="n">
-        <v>30.23255813953488</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L280" t="n">
         <v>2976.5</v>
@@ -14559,7 +14581,7 @@
         <v>1165</v>
       </c>
       <c r="K281" t="n">
-        <v>43.47826086956522</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L281" t="n">
         <v>2977.8</v>
@@ -14610,7 +14632,7 @@
         <v>1168</v>
       </c>
       <c r="K282" t="n">
-        <v>33.33333333333333</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L282" t="n">
         <v>2978.8</v>
@@ -14661,7 +14683,7 @@
         <v>1177</v>
       </c>
       <c r="K283" t="n">
-        <v>46.42857142857143</v>
+        <v>40</v>
       </c>
       <c r="L283" t="n">
         <v>2980.7</v>
@@ -14712,7 +14734,7 @@
         <v>1179</v>
       </c>
       <c r="K284" t="n">
-        <v>46.42857142857143</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L284" t="n">
         <v>2982.5</v>
@@ -14763,7 +14785,7 @@
         <v>1197</v>
       </c>
       <c r="K285" t="n">
-        <v>13.88888888888889</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L285" t="n">
         <v>2982.2</v>
@@ -14814,7 +14836,7 @@
         <v>1207</v>
       </c>
       <c r="K286" t="n">
-        <v>24.39024390243902</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L286" t="n">
         <v>2982.7</v>
@@ -14865,7 +14887,7 @@
         <v>1207</v>
       </c>
       <c r="K287" t="n">
-        <v>17.33333333333334</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L287" t="n">
         <v>2982.3</v>
@@ -14916,7 +14938,7 @@
         <v>1212</v>
       </c>
       <c r="K288" t="n">
-        <v>8.860759493670885</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>2981.6</v>
@@ -14967,7 +14989,7 @@
         <v>1215</v>
       </c>
       <c r="K289" t="n">
-        <v>4.878048780487805</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L289" t="n">
         <v>2981.3</v>
@@ -15018,7 +15040,7 @@
         <v>1217</v>
       </c>
       <c r="K290" t="n">
-        <v>2.380952380952381</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L290" t="n">
         <v>2980.8</v>
@@ -15069,7 +15091,7 @@
         <v>1231</v>
       </c>
       <c r="K291" t="n">
-        <v>-11.34020618556701</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>2978.4</v>
@@ -15120,7 +15142,7 @@
         <v>1233</v>
       </c>
       <c r="K292" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L292" t="n">
         <v>2976.5</v>
@@ -15171,7 +15193,7 @@
         <v>1236</v>
       </c>
       <c r="K293" t="n">
-        <v>-11.76470588235294</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L293" t="n">
         <v>2973.4</v>
@@ -15222,7 +15244,7 @@
         <v>1246</v>
       </c>
       <c r="K294" t="n">
-        <v>-4.587155963302752</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L294" t="n">
         <v>2971.1</v>
@@ -15273,7 +15295,7 @@
         <v>1250</v>
       </c>
       <c r="K295" t="n">
-        <v>-3.636363636363636</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L295" t="n">
         <v>2971</v>
@@ -15324,7 +15346,7 @@
         <v>1250</v>
       </c>
       <c r="K296" t="n">
-        <v>-5.555555555555555</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L296" t="n">
         <v>2969.9</v>
@@ -15375,7 +15397,7 @@
         <v>1253</v>
       </c>
       <c r="K297" t="n">
-        <v>-17.64705882352941</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L297" t="n">
         <v>2968.5</v>
@@ -15426,7 +15448,7 @@
         <v>1259</v>
       </c>
       <c r="K298" t="n">
-        <v>-20.75471698113208</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L298" t="n">
         <v>2967</v>
@@ -15477,7 +15499,7 @@
         <v>1265</v>
       </c>
       <c r="K299" t="n">
-        <v>-8.571428571428571</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L299" t="n">
         <v>2966.4</v>
@@ -15528,7 +15550,7 @@
         <v>1266</v>
       </c>
       <c r="K300" t="n">
-        <v>-7.547169811320755</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L300" t="n">
         <v>2966.1</v>
@@ -15579,7 +15601,7 @@
         <v>1266</v>
       </c>
       <c r="K301" t="n">
-        <v>-12.87128712871287</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L301" t="n">
         <v>2967.2</v>
@@ -15630,7 +15652,7 @@
         <v>1266</v>
       </c>
       <c r="K302" t="n">
-        <v>-10.20408163265306</v>
+        <v>40</v>
       </c>
       <c r="L302" t="n">
         <v>2968.1</v>
@@ -15681,7 +15703,7 @@
         <v>1266</v>
       </c>
       <c r="K303" t="n">
-        <v>-21.34831460674157</v>
+        <v>10</v>
       </c>
       <c r="L303" t="n">
         <v>2969.3</v>
@@ -15732,7 +15754,7 @@
         <v>1266</v>
       </c>
       <c r="K304" t="n">
-        <v>-24.13793103448276</v>
+        <v>-12.5</v>
       </c>
       <c r="L304" t="n">
         <v>2969.5</v>
@@ -15783,7 +15805,7 @@
         <v>1267</v>
       </c>
       <c r="K305" t="n">
-        <v>-2.857142857142857</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L305" t="n">
         <v>2969.4</v>
@@ -15834,7 +15856,7 @@
         <v>1269</v>
       </c>
       <c r="K306" t="n">
-        <v>-16.12903225806452</v>
+        <v>25</v>
       </c>
       <c r="L306" t="n">
         <v>2969.5</v>
@@ -15885,7 +15907,7 @@
         <v>1275</v>
       </c>
       <c r="K307" t="n">
-        <v>-23.52941176470588</v>
+        <v>25</v>
       </c>
       <c r="L307" t="n">
         <v>2969.3</v>
@@ -15936,7 +15958,7 @@
         <v>1285</v>
       </c>
       <c r="K308" t="n">
-        <v>-1.36986301369863</v>
+        <v>40</v>
       </c>
       <c r="L308" t="n">
         <v>2970.7</v>
@@ -15987,7 +16009,7 @@
         <v>1291</v>
       </c>
       <c r="K309" t="n">
-        <v>10.52631578947368</v>
+        <v>52</v>
       </c>
       <c r="L309" t="n">
         <v>2972.1</v>
@@ -16038,7 +16060,7 @@
         <v>1294</v>
       </c>
       <c r="K310" t="n">
-        <v>9.090909090909092</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L310" t="n">
         <v>2973.1</v>
@@ -16089,7 +16111,7 @@
         <v>1295</v>
       </c>
       <c r="K311" t="n">
-        <v>31.25</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L311" t="n">
         <v>2974</v>
@@ -16140,7 +16162,7 @@
         <v>1316</v>
       </c>
       <c r="K312" t="n">
-        <v>46.98795180722892</v>
+        <v>60</v>
       </c>
       <c r="L312" t="n">
         <v>2977</v>
@@ -16191,7 +16213,7 @@
         <v>1317</v>
       </c>
       <c r="K313" t="n">
-        <v>53.08641975308642</v>
+        <v>60.78431372549019</v>
       </c>
       <c r="L313" t="n">
         <v>2980.1</v>
@@ -16242,7 +16264,7 @@
         <v>1326</v>
       </c>
       <c r="K314" t="n">
-        <v>52.5</v>
+        <v>66.10169491525424</v>
       </c>
       <c r="L314" t="n">
         <v>2984.1</v>
@@ -16293,7 +16315,7 @@
         <v>1330</v>
       </c>
       <c r="K315" t="n">
-        <v>52.5</v>
+        <v>67.21311475409836</v>
       </c>
       <c r="L315" t="n">
         <v>2988.4</v>
@@ -16344,7 +16366,7 @@
         <v>1335</v>
       </c>
       <c r="K316" t="n">
-        <v>55.29411764705883</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L316" t="n">
         <v>2993</v>
@@ -16395,7 +16417,7 @@
         <v>1349</v>
       </c>
       <c r="K317" t="n">
-        <v>66.66666666666666</v>
+        <v>87.5</v>
       </c>
       <c r="L317" t="n">
         <v>2999.6</v>
@@ -16446,7 +16468,7 @@
         <v>1352</v>
       </c>
       <c r="K318" t="n">
-        <v>72.04301075268818</v>
+        <v>77.04918032786885</v>
       </c>
       <c r="L318" t="n">
         <v>3004.9</v>
@@ -16497,7 +16519,7 @@
         <v>1372</v>
       </c>
       <c r="K319" t="n">
-        <v>75.70093457943925</v>
+        <v>89.74358974358975</v>
       </c>
       <c r="L319" t="n">
         <v>3011.6</v>
@@ -16548,7 +16570,7 @@
         <v>1372</v>
       </c>
       <c r="K320" t="n">
-        <v>75.47169811320755</v>
+        <v>92.20779220779221</v>
       </c>
       <c r="L320" t="n">
         <v>3018.6</v>
@@ -16599,7 +16621,7 @@
         <v>1373</v>
       </c>
       <c r="K321" t="n">
-        <v>75.70093457943925</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L321" t="n">
         <v>3025.8</v>
@@ -16650,7 +16672,7 @@
         <v>1385</v>
       </c>
       <c r="K322" t="n">
-        <v>78.15126050420169</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="L322" t="n">
         <v>3032.1</v>
@@ -16701,7 +16723,7 @@
         <v>1436</v>
       </c>
       <c r="K323" t="n">
-        <v>24.70588235294118</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L323" t="n">
         <v>3033.2</v>
@@ -16752,7 +16774,7 @@
         <v>1463</v>
       </c>
       <c r="K324" t="n">
-        <v>35.0253807106599</v>
+        <v>18.79699248120301</v>
       </c>
       <c r="L324" t="n">
         <v>3036.1</v>
@@ -16803,7 +16825,7 @@
         <v>1463</v>
       </c>
       <c r="K325" t="n">
-        <v>34.69387755102041</v>
+        <v>15.625</v>
       </c>
       <c r="L325" t="n">
         <v>3038.6</v>
@@ -16854,7 +16876,7 @@
         <v>1463</v>
       </c>
       <c r="K326" t="n">
-        <v>34.02061855670103</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L326" t="n">
         <v>3040.6</v>
@@ -16905,7 +16927,7 @@
         <v>1464</v>
       </c>
       <c r="K327" t="n">
-        <v>38.62433862433862</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="L327" t="n">
         <v>3041.3</v>
@@ -16956,7 +16978,7 @@
         <v>1465</v>
       </c>
       <c r="K328" t="n">
-        <v>35.55555555555556</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L328" t="n">
         <v>3042.4</v>
@@ -17007,7 +17029,7 @@
         <v>1481</v>
       </c>
       <c r="K329" t="n">
-        <v>22.10526315789474</v>
+        <v>-22.93577981651376</v>
       </c>
       <c r="L329" t="n">
         <v>3039.9</v>
@@ -17058,7 +17080,7 @@
         <v>1491</v>
       </c>
       <c r="K330" t="n">
-        <v>27.91878172588833</v>
+        <v>-13.5593220338983</v>
       </c>
       <c r="L330" t="n">
         <v>3038.4</v>
@@ -17109,7 +17131,7 @@
         <v>1492</v>
       </c>
       <c r="K331" t="n">
-        <v>28.93401015228426</v>
+        <v>-25.23364485981308</v>
       </c>
       <c r="L331" t="n">
         <v>3036.9</v>
@@ -17160,7 +17182,7 @@
         <v>1492</v>
       </c>
       <c r="K332" t="n">
-        <v>20.45454545454546</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L332" t="n">
         <v>3034.2</v>
@@ -17211,7 +17233,7 @@
         <v>1494</v>
       </c>
       <c r="K333" t="n">
-        <v>20.90395480225989</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L333" t="n">
         <v>3036.8</v>
@@ -17262,7 +17284,7 @@
         <v>1496</v>
       </c>
       <c r="K334" t="n">
-        <v>15.29411764705882</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L334" t="n">
         <v>3036.5</v>
@@ -17313,7 +17335,7 @@
         <v>1498</v>
       </c>
       <c r="K335" t="n">
-        <v>14.28571428571428</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L335" t="n">
         <v>3036.4</v>
@@ -17364,7 +17386,7 @@
         <v>1504</v>
       </c>
       <c r="K336" t="n">
-        <v>14.79289940828402</v>
+        <v>10</v>
       </c>
       <c r="L336" t="n">
         <v>3036.9</v>
@@ -17415,7 +17437,7 @@
         <v>1518</v>
       </c>
       <c r="K337" t="n">
-        <v>14.79289940828402</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L337" t="n">
         <v>3038.7</v>
@@ -17466,7 +17488,7 @@
         <v>1520</v>
       </c>
       <c r="K338" t="n">
-        <v>17.85714285714286</v>
+        <v>89.74358974358975</v>
       </c>
       <c r="L338" t="n">
         <v>3040.6</v>
@@ -17517,7 +17539,7 @@
         <v>1520</v>
       </c>
       <c r="K339" t="n">
-        <v>6.756756756756757</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L339" t="n">
         <v>3044.1</v>
@@ -17568,7 +17590,7 @@
         <v>1526</v>
       </c>
       <c r="K340" t="n">
-        <v>10.38961038961039</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L340" t="n">
         <v>3047.2</v>
@@ -17619,7 +17641,7 @@
         <v>1532</v>
       </c>
       <c r="K341" t="n">
-        <v>13.20754716981132</v>
+        <v>90</v>
       </c>
       <c r="L341" t="n">
         <v>3050.8</v>
@@ -17670,7 +17692,7 @@
         <v>1535</v>
       </c>
       <c r="K342" t="n">
-        <v>8</v>
+        <v>90.2439024390244</v>
       </c>
       <c r="L342" t="n">
         <v>3054.7</v>
@@ -17721,7 +17743,7 @@
         <v>1578</v>
       </c>
       <c r="K343" t="n">
-        <v>14.08450704225352</v>
+        <v>-4.878048780487805</v>
       </c>
       <c r="L343" t="n">
         <v>3054.1</v>
@@ -17772,7 +17794,7 @@
         <v>1586</v>
       </c>
       <c r="K344" t="n">
-        <v>0.8130081300813009</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="L344" t="n">
         <v>3054.5</v>
@@ -17823,7 +17845,7 @@
         <v>1586</v>
       </c>
       <c r="K345" t="n">
-        <v>0.8130081300813009</v>
+        <v>-4.878048780487805</v>
       </c>
       <c r="L345" t="n">
         <v>3054.7</v>
@@ -17874,7 +17896,7 @@
         <v>1603</v>
       </c>
       <c r="K346" t="n">
-        <v>12.85714285714286</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="L346" t="n">
         <v>3056</v>
@@ -17925,7 +17947,7 @@
         <v>1604</v>
       </c>
       <c r="K347" t="n">
-        <v>12.85714285714286</v>
+        <v>-2.380952380952381</v>
       </c>
       <c r="L347" t="n">
         <v>3056</v>
@@ -17976,7 +17998,7 @@
         <v>1615</v>
       </c>
       <c r="K348" t="n">
-        <v>18.66666666666667</v>
+        <v>9.473684210526317</v>
       </c>
       <c r="L348" t="n">
         <v>3056.9</v>
@@ -18027,7 +18049,7 @@
         <v>1624</v>
       </c>
       <c r="K349" t="n">
-        <v>37.06293706293706</v>
+        <v>12.24489795918367</v>
       </c>
       <c r="L349" t="n">
         <v>3058.7</v>
@@ -18078,7 +18100,7 @@
         <v>1636</v>
       </c>
       <c r="K350" t="n">
-        <v>37.93103448275862</v>
+        <v>17.30769230769231</v>
       </c>
       <c r="L350" t="n">
         <v>3061.1</v>
@@ -18129,7 +18151,7 @@
         <v>1654</v>
       </c>
       <c r="K351" t="n">
-        <v>44.44444444444444</v>
+        <v>27.73109243697479</v>
       </c>
       <c r="L351" t="n">
         <v>3064.7</v>
@@ -18180,7 +18202,7 @@
         <v>1662</v>
       </c>
       <c r="K352" t="n">
-        <v>37.64705882352941</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L352" t="n">
         <v>3067.2</v>
@@ -18231,7 +18253,7 @@
         <v>1667</v>
       </c>
       <c r="K353" t="n">
-        <v>38.72832369942196</v>
+        <v>80.24691358024691</v>
       </c>
       <c r="L353" t="n">
         <v>3074.5</v>
@@ -18282,7 +18304,7 @@
         <v>1673</v>
       </c>
       <c r="K354" t="n">
-        <v>42.3728813559322</v>
+        <v>81.60919540229885</v>
       </c>
       <c r="L354" t="n">
         <v>3081.6</v>
@@ -18333,7 +18355,7 @@
         <v>1680</v>
       </c>
       <c r="K355" t="n">
-        <v>36.26373626373626</v>
+        <v>61.03896103896103</v>
       </c>
       <c r="L355" t="n">
         <v>3088</v>
@@ -18384,7 +18406,7 @@
         <v>1687</v>
       </c>
       <c r="K356" t="n">
-        <v>36.6120218579235</v>
+        <v>63.85542168674698</v>
       </c>
       <c r="L356" t="n">
         <v>3093.4</v>
@@ -18435,7 +18457,7 @@
         <v>1697</v>
       </c>
       <c r="K357" t="n">
-        <v>24.02234636871508</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="L357" t="n">
         <v>3097.7</v>
@@ -18486,7 +18508,7 @@
         <v>1708</v>
       </c>
       <c r="K358" t="n">
-        <v>27.65957446808511</v>
+        <v>40.47619047619047</v>
       </c>
       <c r="L358" t="n">
         <v>3102</v>
@@ -18537,7 +18559,7 @@
         <v>1720</v>
       </c>
       <c r="K359" t="n">
-        <v>20</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="L359" t="n">
         <v>3104.2</v>
@@ -18588,7 +18610,7 @@
         <v>1733</v>
       </c>
       <c r="K360" t="n">
-        <v>10.14492753623188</v>
+        <v>-26.58227848101265</v>
       </c>
       <c r="L360" t="n">
         <v>3103.9</v>
@@ -18639,7 +18661,7 @@
         <v>1740</v>
       </c>
       <c r="K361" t="n">
-        <v>3.846153846153846</v>
+        <v>-25.64102564102564</v>
       </c>
       <c r="L361" t="n">
         <v>3101.1</v>
@@ -18690,7 +18712,7 @@
         <v>1753</v>
       </c>
       <c r="K362" t="n">
-        <v>8.256880733944955</v>
+        <v>-13.95348837209302</v>
       </c>
       <c r="L362" t="n">
         <v>3100.4</v>
@@ -18741,7 +18763,7 @@
         <v>1772</v>
       </c>
       <c r="K363" t="n">
-        <v>21.64948453608248</v>
+        <v>-37.37373737373738</v>
       </c>
       <c r="L363" t="n">
         <v>3097.3</v>
@@ -18792,7 +18814,7 @@
         <v>1789</v>
       </c>
       <c r="K364" t="n">
-        <v>25.12315270935961</v>
+        <v>-11.92660550458716</v>
       </c>
       <c r="L364" t="n">
         <v>3095.3</v>
@@ -18843,7 +18865,7 @@
         <v>1789</v>
       </c>
       <c r="K365" t="n">
-        <v>25.12315270935961</v>
+        <v>-19.6078431372549</v>
       </c>
       <c r="L365" t="n">
         <v>3094</v>
@@ -18894,7 +18916,7 @@
         <v>1789</v>
       </c>
       <c r="K366" t="n">
-        <v>18.27956989247312</v>
+        <v>-10.8695652173913</v>
       </c>
       <c r="L366" t="n">
         <v>3092</v>
@@ -18945,7 +18967,7 @@
         <v>1797</v>
       </c>
       <c r="K367" t="n">
-        <v>21.24352331606218</v>
+        <v>-14.60674157303371</v>
       </c>
       <c r="L367" t="n">
         <v>3091.8</v>
@@ -18996,7 +19018,7 @@
         <v>1802</v>
       </c>
       <c r="K368" t="n">
-        <v>13.36898395721925</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L368" t="n">
         <v>3090</v>
@@ -19047,7 +19069,7 @@
         <v>1818</v>
       </c>
       <c r="K369" t="n">
-        <v>16.49484536082474</v>
+        <v>27.05882352941176</v>
       </c>
       <c r="L369" t="n">
         <v>3091</v>
@@ -19098,7 +19120,7 @@
         <v>1827</v>
       </c>
       <c r="K370" t="n">
-        <v>5.759162303664922</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L370" t="n">
         <v>3092.4</v>
@@ -19149,7 +19171,7 @@
         <v>1828</v>
       </c>
       <c r="K371" t="n">
-        <v>-4.597701149425287</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="L371" t="n">
         <v>3094.4</v>
@@ -19200,7 +19222,7 @@
         <v>1829</v>
       </c>
       <c r="K372" t="n">
-        <v>0.5988023952095809</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L372" t="n">
         <v>3095.2</v>
@@ -19251,7 +19273,7 @@
         <v>1830</v>
       </c>
       <c r="K373" t="n">
-        <v>-1.840490797546012</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L373" t="n">
         <v>3098</v>
@@ -19302,7 +19324,7 @@
         <v>1842</v>
       </c>
       <c r="K374" t="n">
-        <v>-12.42603550295858</v>
+        <v>-1.886792452830189</v>
       </c>
       <c r="L374" t="n">
         <v>3097.9</v>
@@ -19353,7 +19375,7 @@
         <v>1843</v>
       </c>
       <c r="K375" t="n">
-        <v>-9.202453987730062</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L375" t="n">
         <v>3097.7</v>
@@ -19404,7 +19426,7 @@
         <v>1844</v>
       </c>
       <c r="K376" t="n">
-        <v>-13.37579617834395</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L376" t="n">
         <v>3097.6</v>
@@ -19455,7 +19477,7 @@
         <v>1855</v>
       </c>
       <c r="K377" t="n">
-        <v>-13.92405063291139</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L377" t="n">
         <v>3095.6</v>
@@ -19506,7 +19528,7 @@
         <v>1859</v>
       </c>
       <c r="K378" t="n">
-        <v>-19.20529801324503</v>
+        <v>-65.85365853658537</v>
       </c>
       <c r="L378" t="n">
         <v>3094.5</v>
@@ -19557,7 +19579,7 @@
         <v>1873</v>
       </c>
       <c r="K379" t="n">
-        <v>-20.26143790849673</v>
+        <v>-69.56521739130434</v>
       </c>
       <c r="L379" t="n">
         <v>3090.4</v>
@@ -19608,7 +19630,7 @@
         <v>1884</v>
       </c>
       <c r="K380" t="n">
-        <v>-4.635761589403973</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L380" t="n">
         <v>3088.3</v>
@@ -19659,7 +19681,7 @@
         <v>1884</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-38.18181818181819</v>
       </c>
       <c r="L381" t="n">
         <v>3086.3</v>
@@ -19710,7 +19732,7 @@
         <v>1899</v>
       </c>
       <c r="K382" t="n">
-        <v>-19.17808219178082</v>
+        <v>-53.62318840579711</v>
       </c>
       <c r="L382" t="n">
         <v>3082.7</v>
@@ -19761,7 +19783,7 @@
         <v>1902</v>
       </c>
       <c r="K383" t="n">
-        <v>-4.615384615384616</v>
+        <v>-36.66666666666666</v>
       </c>
       <c r="L383" t="n">
         <v>3079.3</v>
@@ -19812,7 +19834,7 @@
         <v>1904</v>
       </c>
       <c r="K384" t="n">
-        <v>-21.73913043478261</v>
+        <v>-37.70491803278689</v>
       </c>
       <c r="L384" t="n">
         <v>3076.9</v>
@@ -19863,7 +19885,7 @@
         <v>1919</v>
       </c>
       <c r="K385" t="n">
-        <v>-7.692307692307693</v>
+        <v>-12</v>
       </c>
       <c r="L385" t="n">
         <v>3076.1</v>
@@ -19914,7 +19936,7 @@
         <v>1928</v>
       </c>
       <c r="K386" t="n">
-        <v>-13.66906474820144</v>
+        <v>-9.58904109589041</v>
       </c>
       <c r="L386" t="n">
         <v>3074.3</v>
@@ -19965,7 +19987,7 @@
         <v>1929</v>
       </c>
       <c r="K387" t="n">
-        <v>-21.21212121212121</v>
+        <v>-17.14285714285714</v>
       </c>
       <c r="L387" t="n">
         <v>3073.5</v>
@@ -20016,7 +20038,7 @@
         <v>1929</v>
       </c>
       <c r="K388" t="n">
-        <v>-18.11023622047244</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L388" t="n">
         <v>3072.3</v>
@@ -20067,7 +20089,7 @@
         <v>1940</v>
       </c>
       <c r="K389" t="n">
-        <v>-40.98360655737705</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L389" t="n">
         <v>3071.4</v>
@@ -20118,7 +20140,7 @@
         <v>1940</v>
       </c>
       <c r="K390" t="n">
-        <v>-36.28318584070797</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L390" t="n">
         <v>3069.4</v>
@@ -20169,7 +20191,7 @@
         <v>1945</v>
       </c>
       <c r="K391" t="n">
-        <v>-29.91452991452991</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>3067.9</v>
@@ -20220,7 +20242,7 @@
         <v>1958</v>
       </c>
       <c r="K392" t="n">
-        <v>-17.82945736434108</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="L392" t="n">
         <v>3069.2</v>
@@ -20271,7 +20293,7 @@
         <v>1962</v>
       </c>
       <c r="K393" t="n">
-        <v>-21.21212121212121</v>
+        <v>13.79310344827586</v>
       </c>
       <c r="L393" t="n">
         <v>3069.8</v>
@@ -20322,7 +20344,7 @@
         <v>1998</v>
       </c>
       <c r="K394" t="n">
-        <v>12.82051282051282</v>
+        <v>36.70886075949367</v>
       </c>
       <c r="L394" t="n">
         <v>3074.2</v>
@@ -20373,7 +20395,7 @@
         <v>2012</v>
       </c>
       <c r="K395" t="n">
-        <v>4.142011834319527</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L395" t="n">
         <v>3075.7</v>
@@ -20424,7 +20446,7 @@
         <v>2012</v>
       </c>
       <c r="K396" t="n">
-        <v>3.571428571428571</v>
+        <v>30.12048192771084</v>
       </c>
       <c r="L396" t="n">
         <v>3078.1</v>
@@ -20475,7 +20497,7 @@
         <v>2028</v>
       </c>
       <c r="K397" t="n">
-        <v>0.5780346820809248</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L397" t="n">
         <v>3079</v>
@@ -20526,7 +20548,7 @@
         <v>2034</v>
       </c>
       <c r="K398" t="n">
-        <v>1.714285714285714</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L398" t="n">
         <v>3080.5</v>
@@ -20577,7 +20599,7 @@
         <v>2038</v>
       </c>
       <c r="K399" t="n">
-        <v>7.878787878787878</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L399" t="n">
         <v>3082.7</v>
@@ -20628,7 +20650,7 @@
         <v>2038</v>
       </c>
       <c r="K400" t="n">
-        <v>1.298701298701299</v>
+        <v>18.27956989247312</v>
       </c>
       <c r="L400" t="n">
         <v>3084.9</v>
@@ -20679,7 +20701,7 @@
         <v>2040</v>
       </c>
       <c r="K401" t="n">
-        <v>2.564102564102564</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L401" t="n">
         <v>3086.8</v>
@@ -20730,7 +20752,7 @@
         <v>2044</v>
       </c>
       <c r="K402" t="n">
-        <v>10.3448275862069</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L402" t="n">
         <v>3087</v>
@@ -20781,7 +20803,7 @@
         <v>2051</v>
       </c>
       <c r="K403" t="n">
-        <v>3.355704697986577</v>
+        <v>-69.81132075471697</v>
       </c>
       <c r="L403" t="n">
         <v>3086.9</v>
@@ -20832,7 +20854,7 @@
         <v>2053</v>
       </c>
       <c r="K404" t="n">
-        <v>6.04026845637584</v>
+        <v>-51.21951219512195</v>
       </c>
       <c r="L404" t="n">
         <v>3083.4</v>
@@ -20883,7 +20905,7 @@
         <v>2062</v>
       </c>
       <c r="K405" t="n">
-        <v>-10.48951048951049</v>
+        <v>-60</v>
       </c>
       <c r="L405" t="n">
         <v>3080.4</v>
@@ -20934,7 +20956,7 @@
         <v>2062</v>
       </c>
       <c r="K406" t="n">
-        <v>-4.477611940298507</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L406" t="n">
         <v>3077.4</v>
@@ -20985,7 +21007,7 @@
         <v>2067</v>
       </c>
       <c r="K407" t="n">
-        <v>-7.246376811594203</v>
+        <v>-75.75757575757575</v>
       </c>
       <c r="L407" t="n">
         <v>3075.5</v>
@@ -21036,7 +21058,7 @@
         <v>2077</v>
       </c>
       <c r="K408" t="n">
-        <v>-13.51351351351351</v>
+        <v>-79.48717948717949</v>
       </c>
       <c r="L408" t="n">
         <v>3072</v>
@@ -21087,7 +21109,7 @@
         <v>2092</v>
       </c>
       <c r="K409" t="n">
-        <v>3.947368421052631</v>
+        <v>-29.62962962962963</v>
       </c>
       <c r="L409" t="n">
         <v>3070.4</v>
@@ -21138,7 +21160,7 @@
         <v>2092</v>
       </c>
       <c r="K410" t="n">
-        <v>3.947368421052631</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L410" t="n">
         <v>3068.8</v>
@@ -21189,7 +21211,7 @@
         <v>2092</v>
       </c>
       <c r="K411" t="n">
-        <v>0.6802721088435374</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L411" t="n">
         <v>3067</v>
@@ -21240,7 +21262,7 @@
         <v>2092</v>
       </c>
       <c r="K412" t="n">
-        <v>-8.955223880597014</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L412" t="n">
         <v>3065.6</v>
@@ -21291,7 +21313,7 @@
         <v>2105</v>
       </c>
       <c r="K413" t="n">
-        <v>-14.68531468531468</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L413" t="n">
         <v>3063.6</v>
@@ -21342,7 +21364,7 @@
         <v>2105</v>
       </c>
       <c r="K414" t="n">
-        <v>-53.27102803738318</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L414" t="n">
         <v>3061.4</v>
@@ -21393,7 +21415,7 @@
         <v>2116</v>
       </c>
       <c r="K415" t="n">
-        <v>-30.76923076923077</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L415" t="n">
         <v>3061.2</v>
@@ -21444,7 +21466,7 @@
         <v>2126</v>
       </c>
       <c r="K416" t="n">
-        <v>-36.84210526315789</v>
+        <v>-11.86440677966102</v>
       </c>
       <c r="L416" t="n">
         <v>3060</v>
@@ -21495,7 +21517,7 @@
         <v>2140</v>
       </c>
       <c r="K417" t="n">
-        <v>-10.71428571428571</v>
+        <v>26.98412698412698</v>
       </c>
       <c r="L417" t="n">
         <v>3060.7</v>
@@ -21546,7 +21568,7 @@
         <v>2149</v>
       </c>
       <c r="K418" t="n">
-        <v>-7.82608695652174</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L418" t="n">
         <v>3063.3</v>
@@ -21597,7 +21619,7 @@
         <v>2166</v>
       </c>
       <c r="K419" t="n">
-        <v>9.375</v>
+        <v>37.83783783783784</v>
       </c>
       <c r="L419" t="n">
         <v>3066.1</v>
@@ -21648,7 +21670,7 @@
         <v>2168</v>
       </c>
       <c r="K420" t="n">
-        <v>7.692307692307693</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="L420" t="n">
         <v>3068.7</v>
@@ -21699,7 +21721,7 @@
         <v>2188</v>
       </c>
       <c r="K421" t="n">
-        <v>-8.108108108108109</v>
+        <v>6.25</v>
       </c>
       <c r="L421" t="n">
         <v>3069.3</v>
@@ -21750,7 +21772,7 @@
         <v>2194</v>
       </c>
       <c r="K422" t="n">
-        <v>-1.333333333333333</v>
+        <v>28.08988764044944</v>
       </c>
       <c r="L422" t="n">
         <v>3070.5</v>
@@ -21801,7 +21823,7 @@
         <v>2205</v>
       </c>
       <c r="K423" t="n">
-        <v>10.38961038961039</v>
+        <v>36</v>
       </c>
       <c r="L423" t="n">
         <v>3074.1</v>
@@ -21852,7 +21874,7 @@
         <v>2208</v>
       </c>
       <c r="K424" t="n">
-        <v>10.96774193548387</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L424" t="n">
         <v>3078</v>
@@ -21903,7 +21925,7 @@
         <v>2210</v>
       </c>
       <c r="K425" t="n">
-        <v>16.21621621621622</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L425" t="n">
         <v>3080.6</v>
@@ -21954,7 +21976,7 @@
         <v>2210</v>
       </c>
       <c r="K426" t="n">
-        <v>16.21621621621622</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L426" t="n">
         <v>3084.2</v>
@@ -22005,7 +22027,7 @@
         <v>2210</v>
       </c>
       <c r="K427" t="n">
-        <v>20.27972027972028</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="L427" t="n">
         <v>3086.4</v>
@@ -22056,7 +22078,7 @@
         <v>2216</v>
       </c>
       <c r="K428" t="n">
-        <v>32.37410071942446</v>
+        <v>4</v>
       </c>
       <c r="L428" t="n">
         <v>3088.3</v>
@@ -22107,7 +22129,7 @@
         <v>2220</v>
       </c>
       <c r="K429" t="n">
-        <v>20.3125</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>3088.1</v>
@@ -22158,7 +22180,7 @@
         <v>2226</v>
       </c>
       <c r="K430" t="n">
-        <v>23.88059701492537</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L430" t="n">
         <v>3088.7</v>
@@ -22209,7 +22231,7 @@
         <v>2228</v>
       </c>
       <c r="K431" t="n">
-        <v>25</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L431" t="n">
         <v>3091.5</v>
@@ -22260,7 +22282,7 @@
         <v>2236</v>
       </c>
       <c r="K432" t="n">
-        <v>29.16666666666667</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L432" t="n">
         <v>3094.5</v>
@@ -22311,7 +22333,7 @@
         <v>2237</v>
       </c>
       <c r="K433" t="n">
-        <v>42.42424242424242</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L433" t="n">
         <v>3096.5</v>
@@ -22362,7 +22384,7 @@
         <v>2238</v>
       </c>
       <c r="K434" t="n">
-        <v>41.35338345864661</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L434" t="n">
         <v>3098.1</v>
@@ -22413,7 +22435,7 @@
         <v>2238</v>
       </c>
       <c r="K435" t="n">
-        <v>36.0655737704918</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L435" t="n">
         <v>3099.9</v>
@@ -22464,7 +22486,7 @@
         <v>2249</v>
       </c>
       <c r="K436" t="n">
-        <v>34.95934959349594</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L436" t="n">
         <v>3100.6</v>
@@ -22515,7 +22537,7 @@
         <v>2254</v>
       </c>
       <c r="K437" t="n">
-        <v>29.82456140350877</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L437" t="n">
         <v>3101.8</v>
@@ -22566,7 +22588,7 @@
         <v>2267</v>
       </c>
       <c r="K438" t="n">
-        <v>32.20338983050847</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L438" t="n">
         <v>3103.7</v>
@@ -22617,7 +22639,7 @@
         <v>2275</v>
       </c>
       <c r="K439" t="n">
-        <v>11.92660550458716</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="L439" t="n">
         <v>3105.2</v>
@@ -22668,7 +22690,7 @@
         <v>2283</v>
       </c>
       <c r="K440" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L440" t="n">
         <v>3106.9</v>
@@ -22719,7 +22741,7 @@
         <v>2288</v>
       </c>
       <c r="K441" t="n">
-        <v>48</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L441" t="n">
         <v>3108.9</v>
@@ -22770,7 +22792,7 @@
         <v>2295</v>
       </c>
       <c r="K442" t="n">
-        <v>34.65346534653465</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L442" t="n">
         <v>3109.4</v>
@@ -22821,7 +22843,7 @@
         <v>2307</v>
       </c>
       <c r="K443" t="n">
-        <v>11.76470588235294</v>
+        <v>-10.14492753623188</v>
       </c>
       <c r="L443" t="n">
         <v>3108.6</v>
@@ -22872,7 +22894,7 @@
         <v>2307</v>
       </c>
       <c r="K444" t="n">
-        <v>9.090909090909092</v>
+        <v>-10.14492753623188</v>
       </c>
       <c r="L444" t="n">
         <v>3107.9</v>
@@ -22923,7 +22945,7 @@
         <v>2308</v>
       </c>
       <c r="K445" t="n">
-        <v>10.20408163265306</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L445" t="n">
         <v>3107.1</v>
@@ -22974,7 +22996,7 @@
         <v>2316</v>
       </c>
       <c r="K446" t="n">
-        <v>1.886792452830189</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L446" t="n">
         <v>3106.6</v>
@@ -23025,7 +23047,7 @@
         <v>2322</v>
       </c>
       <c r="K447" t="n">
-        <v>-3.571428571428571</v>
+        <v>-52.72727272727272</v>
       </c>
       <c r="L447" t="n">
         <v>3105</v>
@@ -23076,7 +23098,7 @@
         <v>2328</v>
       </c>
       <c r="K448" t="n">
-        <v>-3.571428571428571</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L448" t="n">
         <v>3102.7</v>
@@ -23127,7 +23149,7 @@
         <v>2336</v>
       </c>
       <c r="K449" t="n">
-        <v>6.896551724137931</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L449" t="n">
         <v>3102</v>
@@ -23178,7 +23200,7 @@
         <v>2336</v>
       </c>
       <c r="K450" t="n">
-        <v>1.818181818181818</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L450" t="n">
         <v>3100.5</v>
@@ -23229,7 +23251,7 @@
         <v>2337</v>
       </c>
       <c r="K451" t="n">
-        <v>-0.9174311926605505</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L451" t="n">
         <v>3098.4</v>
@@ -23280,7 +23302,7 @@
         <v>2337</v>
       </c>
       <c r="K452" t="n">
-        <v>-8.91089108910891</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L452" t="n">
         <v>3097</v>
@@ -23331,7 +23353,7 @@
         <v>2338</v>
       </c>
       <c r="K453" t="n">
-        <v>-8.91089108910891</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L453" t="n">
         <v>3096.9</v>
@@ -23382,7 +23404,7 @@
         <v>2338</v>
       </c>
       <c r="K454" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>3096.8</v>
@@ -23433,7 +23455,7 @@
         <v>2356</v>
       </c>
       <c r="K455" t="n">
-        <v>8.474576271186439</v>
+        <v>65</v>
       </c>
       <c r="L455" t="n">
         <v>3098.6</v>
@@ -23484,7 +23506,7 @@
         <v>2358</v>
       </c>
       <c r="K456" t="n">
-        <v>21.10091743119266</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="L456" t="n">
         <v>3101.4</v>
@@ -23535,7 +23557,7 @@
         <v>2358</v>
       </c>
       <c r="K457" t="n">
-        <v>17.30769230769231</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L457" t="n">
         <v>3104.8</v>
@@ -23586,7 +23608,7 @@
         <v>2360</v>
       </c>
       <c r="K458" t="n">
-        <v>7.526881720430108</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="L458" t="n">
         <v>3107.8</v>
@@ -23637,7 +23659,7 @@
         <v>2375</v>
       </c>
       <c r="K459" t="n">
-        <v>0</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L459" t="n">
         <v>3108.5</v>
@@ -23688,7 +23710,7 @@
         <v>2386</v>
       </c>
       <c r="K460" t="n">
-        <v>2.912621359223301</v>
+        <v>38.77551020408163</v>
       </c>
       <c r="L460" t="n">
         <v>3110.3</v>
@@ -23739,7 +23761,7 @@
         <v>2387</v>
       </c>
       <c r="K461" t="n">
-        <v>-1.01010101010101</v>
+        <v>40</v>
       </c>
       <c r="L461" t="n">
         <v>3112.3</v>
@@ -23790,7 +23812,7 @@
         <v>2389</v>
       </c>
       <c r="K462" t="n">
-        <v>8.51063829787234</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L462" t="n">
         <v>3114.5</v>
@@ -23841,7 +23863,7 @@
         <v>2394</v>
       </c>
       <c r="K463" t="n">
-        <v>28.73563218390805</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="L463" t="n">
         <v>3117.1</v>
@@ -23892,7 +23914,7 @@
         <v>2405</v>
       </c>
       <c r="K464" t="n">
-        <v>36.73469387755102</v>
+        <v>38.77551020408163</v>
       </c>
       <c r="L464" t="n">
         <v>3120.8</v>
@@ -23994,7 +24016,7 @@
         <v>2418</v>
       </c>
       <c r="K466" t="n">
-        <v>56.86274509803921</v>
+        <v>50</v>
       </c>
       <c r="L466" t="n">
         <v>3126</v>
@@ -24045,7 +24067,7 @@
         <v>2421</v>
       </c>
       <c r="K467" t="n">
-        <v>61.61616161616161</v>
+        <v>40.98360655737705</v>
       </c>
       <c r="L467" t="n">
         <v>3128.7</v>
@@ -24096,7 +24118,7 @@
         <v>2428</v>
       </c>
       <c r="K468" t="n">
-        <v>48</v>
+        <v>62.26415094339622</v>
       </c>
       <c r="L468" t="n">
         <v>3130.5</v>
@@ -24147,7 +24169,7 @@
         <v>2428</v>
       </c>
       <c r="K469" t="n">
-        <v>43.47826086956522</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L469" t="n">
         <v>3133.8</v>
@@ -24198,7 +24220,7 @@
         <v>2441</v>
       </c>
       <c r="K470" t="n">
-        <v>50.47619047619047</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L470" t="n">
         <v>3137.3</v>
@@ -24249,7 +24271,7 @@
         <v>2449</v>
       </c>
       <c r="K471" t="n">
-        <v>41.07142857142857</v>
+        <v>40</v>
       </c>
       <c r="L471" t="n">
         <v>3139.9</v>
@@ -24300,7 +24322,7 @@
         <v>2455</v>
       </c>
       <c r="K472" t="n">
-        <v>44.06779661016949</v>
+        <v>40.98360655737705</v>
       </c>
       <c r="L472" t="n">
         <v>3142.9</v>
@@ -24351,7 +24373,7 @@
         <v>2455</v>
       </c>
       <c r="K473" t="n">
-        <v>43.58974358974359</v>
+        <v>28</v>
       </c>
       <c r="L473" t="n">
         <v>3145.4</v>
@@ -24402,7 +24424,7 @@
         <v>2463</v>
       </c>
       <c r="K474" t="n">
-        <v>47.2</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="L474" t="n">
         <v>3147.6</v>
@@ -24453,7 +24475,7 @@
         <v>2469</v>
       </c>
       <c r="K475" t="n">
-        <v>30.97345132743363</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L475" t="n">
         <v>3148.9</v>
@@ -24504,7 +24526,7 @@
         <v>2486</v>
       </c>
       <c r="K476" t="n">
-        <v>12.5</v>
+        <v>-16.92307692307692</v>
       </c>
       <c r="L476" t="n">
         <v>3147.5</v>
@@ -24555,7 +24577,7 @@
         <v>2508</v>
       </c>
       <c r="K477" t="n">
-        <v>-4</v>
+        <v>-32.5</v>
       </c>
       <c r="L477" t="n">
         <v>3144.2</v>
@@ -24606,7 +24628,7 @@
         <v>2510</v>
       </c>
       <c r="K478" t="n">
-        <v>-6.666666666666667</v>
+        <v>-34.14634146341464</v>
       </c>
       <c r="L478" t="n">
         <v>3141.4</v>
@@ -24657,7 +24679,7 @@
         <v>2519</v>
       </c>
       <c r="K479" t="n">
-        <v>9.722222222222223</v>
+        <v>-41.02564102564102</v>
       </c>
       <c r="L479" t="n">
         <v>3139.5</v>
@@ -24708,7 +24730,7 @@
         <v>2524</v>
       </c>
       <c r="K480" t="n">
-        <v>5.797101449275362</v>
+        <v>-25.33333333333334</v>
       </c>
       <c r="L480" t="n">
         <v>3136.8</v>
@@ -24759,7 +24781,7 @@
         <v>2524</v>
       </c>
       <c r="K481" t="n">
-        <v>5.109489051094891</v>
+        <v>-36.23188405797102</v>
       </c>
       <c r="L481" t="n">
         <v>3134.9</v>
@@ -24810,7 +24832,7 @@
         <v>2528</v>
       </c>
       <c r="K482" t="n">
-        <v>6.474820143884892</v>
+        <v>-28.76712328767123</v>
       </c>
       <c r="L482" t="n">
         <v>3132.8</v>
@@ -24861,7 +24883,7 @@
         <v>2530</v>
       </c>
       <c r="K483" t="n">
-        <v>4.411764705882353</v>
+        <v>-40.29850746268657</v>
       </c>
       <c r="L483" t="n">
         <v>3130.9</v>
@@ -24912,7 +24934,7 @@
         <v>2533</v>
       </c>
       <c r="K484" t="n">
-        <v>-1.5625</v>
+        <v>-28.125</v>
       </c>
       <c r="L484" t="n">
         <v>3128.5</v>
@@ -24963,7 +24985,7 @@
         <v>2534</v>
       </c>
       <c r="K485" t="n">
-        <v>-4.761904761904762</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L485" t="n">
         <v>3126.6</v>
@@ -25014,7 +25036,7 @@
         <v>2536</v>
       </c>
       <c r="K486" t="n">
-        <v>-15.25423728813559</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L486" t="n">
         <v>3126.2</v>
@@ -25065,7 +25087,7 @@
         <v>2543</v>
       </c>
       <c r="K487" t="n">
-        <v>-6.557377049180328</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L487" t="n">
         <v>3128.7</v>
@@ -25116,7 +25138,7 @@
         <v>2544</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="L488" t="n">
         <v>3131.5</v>
@@ -25167,7 +25189,7 @@
         <v>2549</v>
       </c>
       <c r="K489" t="n">
-        <v>-4.132231404958678</v>
+        <v>36</v>
       </c>
       <c r="L489" t="n">
         <v>3132.9</v>
@@ -25218,7 +25240,7 @@
         <v>2554</v>
       </c>
       <c r="K490" t="n">
-        <v>-20.35398230088496</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>3133.3</v>
@@ -25269,7 +25291,7 @@
         <v>2559</v>
       </c>
       <c r="K491" t="n">
-        <v>-18.18181818181818</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L491" t="n">
         <v>3133.2</v>
@@ -25320,7 +25342,7 @@
         <v>2562</v>
       </c>
       <c r="K492" t="n">
-        <v>-21.49532710280374</v>
+        <v>-12.5</v>
       </c>
       <c r="L492" t="n">
         <v>3133</v>
@@ -25371,7 +25393,7 @@
         <v>2563</v>
       </c>
       <c r="K493" t="n">
-        <v>-20.37037037037037</v>
+        <v>-20</v>
       </c>
       <c r="L493" t="n">
         <v>3132.7</v>
@@ -25422,7 +25444,7 @@
         <v>2572</v>
       </c>
       <c r="K494" t="n">
-        <v>-35.77981651376147</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L494" t="n">
         <v>3131.2</v>
@@ -25473,7 +25495,7 @@
         <v>2574</v>
       </c>
       <c r="K495" t="n">
-        <v>-33.33333333333333</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L495" t="n">
         <v>3129.6</v>
@@ -25524,7 +25546,7 @@
         <v>2575</v>
       </c>
       <c r="K496" t="n">
-        <v>-21.34831460674157</v>
+        <v>-68.75</v>
       </c>
       <c r="L496" t="n">
         <v>3128.1</v>
@@ -25575,7 +25597,7 @@
         <v>2575</v>
       </c>
       <c r="K497" t="n">
-        <v>4.477611940298507</v>
+        <v>-74.19354838709677</v>
       </c>
       <c r="L497" t="n">
         <v>3125.9</v>
@@ -25626,7 +25648,7 @@
         <v>2575</v>
       </c>
       <c r="K498" t="n">
-        <v>7.692307692307693</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L498" t="n">
         <v>3123.6</v>
@@ -25677,7 +25699,7 @@
         <v>2575</v>
       </c>
       <c r="K499" t="n">
-        <v>-7.142857142857142</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L499" t="n">
         <v>3121.8</v>
@@ -25728,7 +25750,7 @@
         <v>2582</v>
       </c>
       <c r="K500" t="n">
-        <v>-27.58620689655172</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L500" t="n">
         <v>3119.8</v>
@@ -25779,7 +25801,7 @@
         <v>2582</v>
       </c>
       <c r="K501" t="n">
-        <v>-27.58620689655172</v>
+        <v>-90</v>
       </c>
       <c r="L501" t="n">
         <v>3118.3</v>
@@ -25830,7 +25852,7 @@
         <v>2588</v>
       </c>
       <c r="K502" t="n">
-        <v>-43.33333333333334</v>
+        <v>-100</v>
       </c>
       <c r="L502" t="n">
         <v>3115.9</v>
@@ -25881,7 +25903,7 @@
         <v>2593</v>
       </c>
       <c r="K503" t="n">
-        <v>-36.50793650793651</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L503" t="n">
         <v>3113.9</v>
@@ -25932,7 +25954,7 @@
         <v>2597</v>
       </c>
       <c r="K504" t="n">
-        <v>-34.375</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L504" t="n">
         <v>3113.2</v>
@@ -25983,7 +26005,7 @@
         <v>2601</v>
       </c>
       <c r="K505" t="n">
-        <v>-25.37313432835821</v>
+        <v>0</v>
       </c>
       <c r="L505" t="n">
         <v>3113.1</v>
@@ -26034,7 +26056,7 @@
         <v>2621</v>
       </c>
       <c r="K506" t="n">
-        <v>5.88235294117647</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L506" t="n">
         <v>3115.1</v>
@@ -26085,7 +26107,7 @@
         <v>2627</v>
       </c>
       <c r="K507" t="n">
-        <v>-9.523809523809524</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="L507" t="n">
         <v>3116.5</v>
@@ -26136,7 +26158,7 @@
         <v>2636</v>
       </c>
       <c r="K508" t="n">
-        <v>-19.56521739130435</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="L508" t="n">
         <v>3117</v>
@@ -26187,7 +26209,7 @@
         <v>2642</v>
       </c>
       <c r="K509" t="n">
-        <v>-7.526881720430108</v>
+        <v>30</v>
       </c>
       <c r="L509" t="n">
         <v>3118.1</v>
@@ -26238,7 +26260,7 @@
         <v>2648</v>
       </c>
       <c r="K510" t="n">
-        <v>4.25531914893617</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L510" t="n">
         <v>3120.5</v>
@@ -26289,7 +26311,7 @@
         <v>2654</v>
       </c>
       <c r="K511" t="n">
-        <v>3.157894736842105</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L511" t="n">
         <v>3122.3</v>
@@ -26340,7 +26362,7 @@
         <v>2654</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>31.14754098360656</v>
       </c>
       <c r="L512" t="n">
         <v>3124.7</v>
@@ -26391,7 +26413,7 @@
         <v>2660</v>
       </c>
       <c r="K513" t="n">
-        <v>5.154639175257731</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L513" t="n">
         <v>3127.2</v>
@@ -26442,7 +26464,7 @@
         <v>2682</v>
       </c>
       <c r="K514" t="n">
-        <v>-7.272727272727272</v>
+        <v>-6.172839506172839</v>
       </c>
       <c r="L514" t="n">
         <v>3127.1</v>
@@ -26493,7 +26515,7 @@
         <v>2682</v>
       </c>
       <c r="K515" t="n">
-        <v>-5.555555555555555</v>
+        <v>-40.98360655737705</v>
       </c>
       <c r="L515" t="n">
         <v>3126.6</v>
@@ -26544,7 +26566,7 @@
         <v>2682</v>
       </c>
       <c r="K516" t="n">
-        <v>-4.672897196261682</v>
+        <v>-34.54545454545455</v>
       </c>
       <c r="L516" t="n">
         <v>3124.1</v>
@@ -26595,7 +26617,7 @@
         <v>2690</v>
       </c>
       <c r="K517" t="n">
-        <v>2.608695652173913</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L517" t="n">
         <v>3123</v>
@@ -26646,7 +26668,7 @@
         <v>2698</v>
       </c>
       <c r="K518" t="n">
-        <v>-4.065040650406504</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L518" t="n">
         <v>3122</v>
@@ -26697,7 +26719,7 @@
         <v>2705</v>
       </c>
       <c r="K519" t="n">
-        <v>-9.230769230769232</v>
+        <v>-50.87719298245614</v>
       </c>
       <c r="L519" t="n">
         <v>3119.7</v>
@@ -26748,7 +26770,7 @@
         <v>2715</v>
       </c>
       <c r="K520" t="n">
-        <v>-11.2781954887218</v>
+        <v>-54.09836065573771</v>
       </c>
       <c r="L520" t="n">
         <v>3115.8</v>
@@ -26799,7 +26821,7 @@
         <v>2721</v>
       </c>
       <c r="K521" t="n">
-        <v>-15.10791366906475</v>
+        <v>-58.2089552238806</v>
       </c>
       <c r="L521" t="n">
         <v>3111.9</v>
@@ -26850,7 +26872,7 @@
         <v>2728</v>
       </c>
       <c r="K522" t="n">
-        <v>-15.71428571428571</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L522" t="n">
         <v>3107.3</v>
@@ -26901,7 +26923,7 @@
         <v>2732</v>
       </c>
       <c r="K523" t="n">
-        <v>-22.30215827338129</v>
+        <v>-68</v>
       </c>
       <c r="L523" t="n">
         <v>3101.7</v>
@@ -26952,7 +26974,7 @@
         <v>2747</v>
       </c>
       <c r="K524" t="n">
-        <v>-13.33333333333333</v>
+        <v>-29.23076923076923</v>
       </c>
       <c r="L524" t="n">
         <v>3099.8</v>
@@ -27003,7 +27025,7 @@
         <v>2758</v>
       </c>
       <c r="K525" t="n">
-        <v>-22.29299363057325</v>
+        <v>-39.47368421052632</v>
       </c>
       <c r="L525" t="n">
         <v>3096.8</v>
@@ -27054,7 +27076,7 @@
         <v>2764</v>
       </c>
       <c r="K526" t="n">
-        <v>-42.65734265734265</v>
+        <v>-59.45945945945946</v>
       </c>
       <c r="L526" t="n">
         <v>3093.2</v>
@@ -27105,7 +27127,7 @@
         <v>2781</v>
       </c>
       <c r="K527" t="n">
-        <v>-24.67532467532467</v>
+        <v>-22.89156626506024</v>
       </c>
       <c r="L527" t="n">
         <v>3090.5</v>
@@ -27156,7 +27178,7 @@
         <v>2782</v>
       </c>
       <c r="K528" t="n">
-        <v>-19.17808219178082</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L528" t="n">
         <v>3088.7</v>
@@ -27207,7 +27229,7 @@
         <v>2782</v>
       </c>
       <c r="K529" t="n">
-        <v>-24.28571428571428</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L529" t="n">
         <v>3087.6</v>
@@ -27258,7 +27280,7 @@
         <v>2791</v>
       </c>
       <c r="K530" t="n">
-        <v>-21.67832167832168</v>
+        <v>20</v>
       </c>
       <c r="L530" t="n">
         <v>3088.4</v>
@@ -27309,7 +27331,7 @@
         <v>2796</v>
       </c>
       <c r="K531" t="n">
-        <v>-14.08450704225352</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="L531" t="n">
         <v>3090.3</v>
@@ -27360,7 +27382,7 @@
         <v>2801</v>
       </c>
       <c r="K532" t="n">
-        <v>-10.20408163265306</v>
+        <v>50.72463768115942</v>
       </c>
       <c r="L532" t="n">
         <v>3093.4</v>
@@ -27411,7 +27433,7 @@
         <v>2801</v>
       </c>
       <c r="K533" t="n">
-        <v>-14.8936170212766</v>
+        <v>37.03703703703704</v>
       </c>
       <c r="L533" t="n">
         <v>3096.9</v>
@@ -27462,7 +27484,7 @@
         <v>2814</v>
       </c>
       <c r="K534" t="n">
-        <v>-9.090909090909092</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="L534" t="n">
         <v>3097.6</v>
@@ -27513,7 +27535,7 @@
         <v>2831</v>
       </c>
       <c r="K535" t="n">
-        <v>-19.46308724832215</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="L535" t="n">
         <v>3097.7</v>
@@ -27564,7 +27586,7 @@
         <v>2831</v>
       </c>
       <c r="K536" t="n">
-        <v>-19.46308724832215</v>
+        <v>-20</v>
       </c>
       <c r="L536" t="n">
         <v>3098.4</v>
@@ -27615,7 +27637,7 @@
         <v>2834</v>
       </c>
       <c r="K537" t="n">
-        <v>-27.77777777777778</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L537" t="n">
         <v>3097.1</v>
@@ -27666,7 +27688,7 @@
         <v>2835</v>
       </c>
       <c r="K538" t="n">
-        <v>-22.62773722627737</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L538" t="n">
         <v>3095.8</v>
@@ -27717,7 +27739,7 @@
         <v>2844</v>
       </c>
       <c r="K539" t="n">
-        <v>-10.79136690647482</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L539" t="n">
         <v>3095.4</v>
@@ -27768,7 +27790,7 @@
         <v>2859</v>
       </c>
       <c r="K540" t="n">
-        <v>-13.88888888888889</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L540" t="n">
         <v>3092.6</v>
@@ -27819,7 +27841,7 @@
         <v>2861</v>
       </c>
       <c r="K541" t="n">
-        <v>-8.571428571428571</v>
+        <v>-60</v>
       </c>
       <c r="L541" t="n">
         <v>3089.5</v>
@@ -27870,7 +27892,7 @@
         <v>2864</v>
       </c>
       <c r="K542" t="n">
-        <v>-5.88235294117647</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L542" t="n">
         <v>3085.6</v>
@@ -27921,7 +27943,7 @@
         <v>2875</v>
       </c>
       <c r="K543" t="n">
-        <v>4.895104895104895</v>
+        <v>-24.59016393442623</v>
       </c>
       <c r="L543" t="n">
         <v>3082.8</v>
@@ -27972,7 +27994,7 @@
         <v>2883</v>
       </c>
       <c r="K544" t="n">
-        <v>-11.76470588235294</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L544" t="n">
         <v>3080.5</v>
@@ -28023,7 +28045,7 @@
         <v>2887</v>
       </c>
       <c r="K545" t="n">
-        <v>-0.7751937984496124</v>
+        <v>-3.571428571428571</v>
       </c>
       <c r="L545" t="n">
         <v>3080.3</v>
@@ -28074,7 +28096,7 @@
         <v>2898</v>
       </c>
       <c r="K546" t="n">
-        <v>-4.477611940298507</v>
+        <v>-15.625</v>
       </c>
       <c r="L546" t="n">
         <v>3079</v>
@@ -28125,7 +28147,7 @@
         <v>2911</v>
       </c>
       <c r="K547" t="n">
-        <v>-27.69230769230769</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L547" t="n">
         <v>3076.7</v>
@@ -28176,7 +28198,7 @@
         <v>2914</v>
       </c>
       <c r="K548" t="n">
-        <v>-30.3030303030303</v>
+        <v>-51.42857142857142</v>
       </c>
       <c r="L548" t="n">
         <v>3074</v>
@@ -28227,7 +28249,7 @@
         <v>2918</v>
       </c>
       <c r="K549" t="n">
-        <v>-26.47058823529412</v>
+        <v>-28.8135593220339</v>
       </c>
       <c r="L549" t="n">
         <v>3070.8</v>
@@ -28278,7 +28300,7 @@
         <v>2919</v>
       </c>
       <c r="K550" t="n">
-        <v>-35.9375</v>
+        <v>-34.48275862068966</v>
       </c>
       <c r="L550" t="n">
         <v>3069</v>
@@ -28329,7 +28351,7 @@
         <v>2939</v>
       </c>
       <c r="K551" t="n">
-        <v>-21.67832167832168</v>
+        <v>4</v>
       </c>
       <c r="L551" t="n">
         <v>3069</v>
@@ -28380,7 +28402,7 @@
         <v>2947</v>
       </c>
       <c r="K552" t="n">
-        <v>-30.13698630136986</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L552" t="n">
         <v>3068.5</v>
@@ -28431,7 +28453,7 @@
         <v>2948</v>
       </c>
       <c r="K553" t="n">
-        <v>-30.61224489795918</v>
+        <v>-13.84615384615385</v>
       </c>
       <c r="L553" t="n">
         <v>3066.8</v>
@@ -28482,7 +28504,7 @@
         <v>2951</v>
       </c>
       <c r="K554" t="n">
-        <v>-25.54744525547445</v>
+        <v>-25</v>
       </c>
       <c r="L554" t="n">
         <v>3065.6</v>
@@ -28533,7 +28555,7 @@
         <v>2951</v>
       </c>
       <c r="K555" t="n">
-        <v>-15</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L555" t="n">
         <v>3064</v>
@@ -28584,7 +28606,7 @@
         <v>2951</v>
       </c>
       <c r="K556" t="n">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="L556" t="n">
         <v>3063.5</v>
@@ -28635,7 +28657,7 @@
         <v>2953</v>
       </c>
       <c r="K557" t="n">
-        <v>-10.92436974789916</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L557" t="n">
         <v>3064.5</v>
@@ -28686,7 +28708,7 @@
         <v>2955</v>
       </c>
       <c r="K558" t="n">
-        <v>-10</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L558" t="n">
         <v>3066</v>
@@ -28737,7 +28759,7 @@
         <v>2956</v>
       </c>
       <c r="K559" t="n">
-        <v>-17.85714285714286</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L559" t="n">
         <v>3067.2</v>
@@ -28788,7 +28810,7 @@
         <v>2960</v>
       </c>
       <c r="K560" t="n">
-        <v>-8.91089108910891</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L560" t="n">
         <v>3068.1</v>
@@ -28839,7 +28861,7 @@
         <v>2979</v>
       </c>
       <c r="K561" t="n">
-        <v>6.779661016949152</v>
+        <v>50</v>
       </c>
       <c r="L561" t="n">
         <v>3068.9</v>
@@ -28890,7 +28912,7 @@
         <v>3004</v>
       </c>
       <c r="K562" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L562" t="n">
         <v>3068</v>
@@ -28941,7 +28963,7 @@
         <v>3017</v>
       </c>
       <c r="K563" t="n">
-        <v>-8.450704225352112</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="L563" t="n">
         <v>3068.5</v>
@@ -28992,7 +29014,7 @@
         <v>3018</v>
       </c>
       <c r="K564" t="n">
-        <v>-3.703703703703703</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="L564" t="n">
         <v>3069.2</v>
@@ -29043,7 +29065,7 @@
         <v>3019</v>
       </c>
       <c r="K565" t="n">
-        <v>-7.575757575757576</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="L565" t="n">
         <v>3069.8</v>
@@ -29094,7 +29116,7 @@
         <v>3024</v>
       </c>
       <c r="K566" t="n">
-        <v>-3.174603174603174</v>
+        <v>-1.408450704225352</v>
       </c>
       <c r="L566" t="n">
         <v>3069.9</v>
@@ -29145,7 +29167,7 @@
         <v>3029</v>
       </c>
       <c r="K567" t="n">
-        <v>11.86440677966102</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L567" t="n">
         <v>3070.3</v>
@@ -29196,7 +29218,7 @@
         <v>3030</v>
       </c>
       <c r="K568" t="n">
-        <v>13.79310344827586</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>3070.4</v>
@@ -29247,7 +29269,7 @@
         <v>3039</v>
       </c>
       <c r="K569" t="n">
-        <v>2.479338842975207</v>
+        <v>-6.329113924050633</v>
       </c>
       <c r="L569" t="n">
         <v>3069.5</v>
@@ -29298,7 +29320,7 @@
         <v>3040</v>
       </c>
       <c r="K570" t="n">
-        <v>2.479338842975207</v>
+        <v>-40.98360655737705</v>
       </c>
       <c r="L570" t="n">
         <v>3068.9</v>
@@ -29349,7 +29371,7 @@
         <v>3045</v>
       </c>
       <c r="K571" t="n">
-        <v>-11.32075471698113</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L571" t="n">
         <v>3066.9</v>
@@ -29400,7 +29422,7 @@
         <v>3049</v>
       </c>
       <c r="K572" t="n">
-        <v>-7.84313725490196</v>
+        <v>-37.5</v>
       </c>
       <c r="L572" t="n">
         <v>3067</v>
@@ -29451,7 +29473,7 @@
         <v>3060</v>
       </c>
       <c r="K573" t="n">
-        <v>3.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>3066.9</v>
@@ -29502,7 +29524,7 @@
         <v>3061</v>
       </c>
       <c r="K574" t="n">
-        <v>7.272727272727272</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L574" t="n">
         <v>3067</v>
@@ -29553,7 +29575,7 @@
         <v>3064</v>
       </c>
       <c r="K575" t="n">
-        <v>9.734513274336283</v>
+        <v>25</v>
       </c>
       <c r="L575" t="n">
         <v>3067.5</v>
@@ -29604,7 +29626,7 @@
         <v>3077</v>
       </c>
       <c r="K576" t="n">
-        <v>19.04761904761905</v>
+        <v>37.5</v>
       </c>
       <c r="L576" t="n">
         <v>3069.8</v>
@@ -29655,7 +29677,7 @@
         <v>3085</v>
       </c>
       <c r="K577" t="n">
-        <v>10.60606060606061</v>
+        <v>20</v>
       </c>
       <c r="L577" t="n">
         <v>3070.8</v>
@@ -29706,7 +29728,7 @@
         <v>3090</v>
       </c>
       <c r="K578" t="n">
-        <v>5.185185185185185</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L578" t="n">
         <v>3071.4</v>
@@ -29757,7 +29779,7 @@
         <v>3090</v>
       </c>
       <c r="K579" t="n">
-        <v>4.477611940298507</v>
+        <v>32</v>
       </c>
       <c r="L579" t="n">
         <v>3072.9</v>
@@ -29808,7 +29830,7 @@
         <v>3091</v>
       </c>
       <c r="K580" t="n">
-        <v>8.396946564885496</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L580" t="n">
         <v>3074.6</v>
@@ -29859,7 +29881,7 @@
         <v>3096</v>
       </c>
       <c r="K581" t="n">
-        <v>-2.564102564102564</v>
+        <v>44.68085106382978</v>
       </c>
       <c r="L581" t="n">
         <v>3076.3</v>
@@ -29910,7 +29932,7 @@
         <v>3096</v>
       </c>
       <c r="K582" t="n">
-        <v>23.91304347826087</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L582" t="n">
         <v>3078.4</v>
@@ -29961,7 +29983,7 @@
         <v>3106</v>
       </c>
       <c r="K583" t="n">
-        <v>-1.123595505617978</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L583" t="n">
         <v>3078.4</v>
@@ -30012,7 +30034,7 @@
         <v>3117</v>
       </c>
       <c r="K584" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.30188679245283</v>
       </c>
       <c r="L584" t="n">
         <v>3077.2</v>
@@ -30063,7 +30085,7 @@
         <v>3120</v>
       </c>
       <c r="K585" t="n">
-        <v>-12.87128712871287</v>
+        <v>-72.09302325581395</v>
       </c>
       <c r="L585" t="n">
         <v>3075.4</v>
@@ -30114,7 +30136,7 @@
         <v>3140</v>
       </c>
       <c r="K586" t="n">
-        <v>10.3448275862069</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L586" t="n">
         <v>3074.3</v>
@@ -30165,7 +30187,7 @@
         <v>3140</v>
       </c>
       <c r="K587" t="n">
-        <v>6.306306306306306</v>
+        <v>4</v>
       </c>
       <c r="L587" t="n">
         <v>3074</v>
@@ -30216,7 +30238,7 @@
         <v>3141</v>
       </c>
       <c r="K588" t="n">
-        <v>6.306306306306306</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L588" t="n">
         <v>3074.1</v>
@@ -30267,7 +30289,7 @@
         <v>3142</v>
       </c>
       <c r="K589" t="n">
-        <v>14.5631067961165</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L589" t="n">
         <v>3074.1</v>
@@ -30318,7 +30340,7 @@
         <v>3142</v>
       </c>
       <c r="K590" t="n">
-        <v>15.68627450980392</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L590" t="n">
         <v>3074</v>
@@ -30369,7 +30391,7 @@
         <v>3142</v>
       </c>
       <c r="K591" t="n">
-        <v>11.34020618556701</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L591" t="n">
         <v>3073.4</v>
@@ -30420,7 +30442,7 @@
         <v>3143</v>
       </c>
       <c r="K592" t="n">
-        <v>14.8936170212766</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L592" t="n">
         <v>3072.7</v>
@@ -30471,7 +30493,7 @@
         <v>3143</v>
       </c>
       <c r="K593" t="n">
-        <v>3.614457831325301</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L593" t="n">
         <v>3073</v>
@@ -30522,7 +30544,7 @@
         <v>3149</v>
       </c>
       <c r="K594" t="n">
-        <v>-4.545454545454546</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L594" t="n">
         <v>3073.8</v>
@@ -30573,7 +30595,7 @@
         <v>3155</v>
       </c>
       <c r="K595" t="n">
-        <v>-1.098901098901099</v>
+        <v>-20</v>
       </c>
       <c r="L595" t="n">
         <v>3075.5</v>
@@ -30624,7 +30646,7 @@
         <v>3165</v>
       </c>
       <c r="K596" t="n">
-        <v>-4.545454545454546</v>
+        <v>28</v>
       </c>
       <c r="L596" t="n">
         <v>3076.2</v>
@@ -30675,7 +30697,7 @@
         <v>3171</v>
       </c>
       <c r="K597" t="n">
-        <v>-2.325581395348837</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L597" t="n">
         <v>3076.3</v>
@@ -30726,7 +30748,7 @@
         <v>3179</v>
       </c>
       <c r="K598" t="n">
-        <v>12.35955056179775</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L598" t="n">
         <v>3077.3</v>
@@ -30777,7 +30799,7 @@
         <v>3181</v>
       </c>
       <c r="K599" t="n">
-        <v>9.890109890109891</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L599" t="n">
         <v>3078.2</v>
@@ -30828,7 +30850,7 @@
         <v>3181</v>
       </c>
       <c r="K600" t="n">
-        <v>8.888888888888889</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L600" t="n">
         <v>3079.1</v>
@@ -30879,7 +30901,7 @@
         <v>3186</v>
       </c>
       <c r="K601" t="n">
-        <v>-2.222222222222222</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L601" t="n">
         <v>3079.5</v>
@@ -30930,7 +30952,7 @@
         <v>3186</v>
       </c>
       <c r="K602" t="n">
-        <v>-2.222222222222222</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L602" t="n">
         <v>3080</v>
@@ -30981,7 +31003,7 @@
         <v>3188</v>
       </c>
       <c r="K603" t="n">
-        <v>7.317073170731707</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L603" t="n">
         <v>3080.3</v>
@@ -31032,7 +31054,7 @@
         <v>3198</v>
       </c>
       <c r="K604" t="n">
-        <v>8.641975308641975</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L604" t="n">
         <v>3080.2</v>
@@ -31083,7 +31105,7 @@
         <v>3204</v>
       </c>
       <c r="K605" t="n">
-        <v>19.04761904761905</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L605" t="n">
         <v>3080.1</v>
@@ -31134,7 +31156,7 @@
         <v>3218</v>
       </c>
       <c r="K606" t="n">
-        <v>-23.07692307692308</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L606" t="n">
         <v>3077.6</v>
@@ -31185,7 +31207,7 @@
         <v>3220</v>
       </c>
       <c r="K607" t="n">
-        <v>-20</v>
+        <v>-60.97560975609756</v>
       </c>
       <c r="L607" t="n">
         <v>3075.9</v>
@@ -31236,7 +31258,7 @@
         <v>3233</v>
       </c>
       <c r="K608" t="n">
-        <v>-2.173913043478261</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L608" t="n">
         <v>3074.7</v>
@@ -31287,7 +31309,7 @@
         <v>3236</v>
       </c>
       <c r="K609" t="n">
-        <v>2.127659574468085</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L609" t="n">
         <v>3074</v>
@@ -31338,7 +31360,7 @@
         <v>3236</v>
       </c>
       <c r="K610" t="n">
-        <v>2.127659574468085</v>
+        <v>-4</v>
       </c>
       <c r="L610" t="n">
         <v>3073.3</v>
@@ -31389,7 +31411,7 @@
         <v>3238</v>
       </c>
       <c r="K611" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L611" t="n">
         <v>3072.9</v>
@@ -31440,7 +31462,7 @@
         <v>3245</v>
       </c>
       <c r="K612" t="n">
-        <v>7.84313725490196</v>
+        <v>8.771929824561402</v>
       </c>
       <c r="L612" t="n">
         <v>3073.2</v>
@@ -31491,7 +31513,7 @@
         <v>3246</v>
       </c>
       <c r="K613" t="n">
-        <v>8.737864077669903</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L613" t="n">
         <v>3073.8</v>
@@ -31542,7 +31564,7 @@
         <v>3261</v>
       </c>
       <c r="K614" t="n">
-        <v>26.78571428571428</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L614" t="n">
         <v>3076.9</v>
@@ -31593,7 +31615,7 @@
         <v>3264</v>
       </c>
       <c r="K615" t="n">
-        <v>24.77064220183486</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L615" t="n">
         <v>3079.7</v>
@@ -31644,7 +31666,7 @@
         <v>3275</v>
       </c>
       <c r="K616" t="n">
-        <v>25.45454545454545</v>
+        <v>92.72727272727272</v>
       </c>
       <c r="L616" t="n">
         <v>3085</v>
@@ -31695,7 +31717,7 @@
         <v>3280</v>
       </c>
       <c r="K617" t="n">
-        <v>26.60550458715597</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="L617" t="n">
         <v>3089.6</v>
@@ -31746,7 +31768,7 @@
         <v>3280</v>
       </c>
       <c r="K618" t="n">
-        <v>20.79207920792079</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="L618" t="n">
         <v>3092.9</v>
@@ -31797,7 +31819,7 @@
         <v>3283</v>
       </c>
       <c r="K619" t="n">
-        <v>19.6078431372549</v>
+        <v>57.44680851063831</v>
       </c>
       <c r="L619" t="n">
         <v>3095.6</v>
@@ -31848,7 +31870,7 @@
         <v>3301</v>
       </c>
       <c r="K620" t="n">
-        <v>1.666666666666667</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L620" t="n">
         <v>3096.5</v>
@@ -31899,7 +31921,7 @@
         <v>3304</v>
       </c>
       <c r="K621" t="n">
-        <v>8.474576271186439</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="L621" t="n">
         <v>3097.9</v>
@@ -31950,7 +31972,7 @@
         <v>3314</v>
       </c>
       <c r="K622" t="n">
-        <v>15.625</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L622" t="n">
         <v>3099.6</v>
@@ -32001,7 +32023,7 @@
         <v>3314</v>
       </c>
       <c r="K623" t="n">
-        <v>17.46031746031746</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L623" t="n">
         <v>3101.2</v>
@@ -32052,7 +32074,7 @@
         <v>3314</v>
       </c>
       <c r="K624" t="n">
-        <v>27.58620689655172</v>
+        <v>-4</v>
       </c>
       <c r="L624" t="n">
         <v>3101.3</v>
@@ -32103,7 +32125,7 @@
         <v>3314</v>
       </c>
       <c r="K625" t="n">
-        <v>23.63636363636364</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L625" t="n">
         <v>3101.1</v>
@@ -32154,7 +32176,7 @@
         <v>3323</v>
       </c>
       <c r="K626" t="n">
-        <v>29.52380952380953</v>
+        <v>-39.53488372093023</v>
       </c>
       <c r="L626" t="n">
         <v>3098.9</v>
@@ -32205,7 +32227,7 @@
         <v>3326</v>
       </c>
       <c r="K627" t="n">
-        <v>24.52830188679245</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L627" t="n">
         <v>3096.9</v>
@@ -32256,7 +32278,7 @@
         <v>3327</v>
       </c>
       <c r="K628" t="n">
-        <v>12.76595744680851</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L628" t="n">
         <v>3094.8</v>
@@ -32307,7 +32329,7 @@
         <v>3327</v>
       </c>
       <c r="K629" t="n">
-        <v>9.890109890109891</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>3093</v>
@@ -32358,7 +32380,7 @@
         <v>3328</v>
       </c>
       <c r="K630" t="n">
-        <v>10.8695652173913</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L630" t="n">
         <v>3093.1</v>
@@ -32409,7 +32431,7 @@
         <v>3328</v>
       </c>
       <c r="K631" t="n">
-        <v>13.33333333333333</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L631" t="n">
         <v>3092.9</v>
@@ -32460,7 +32482,7 @@
         <v>3329</v>
       </c>
       <c r="K632" t="n">
-        <v>7.142857142857142</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L632" t="n">
         <v>3091.8</v>
@@ -32511,7 +32533,7 @@
         <v>3331</v>
       </c>
       <c r="K633" t="n">
-        <v>8.235294117647058</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L633" t="n">
         <v>3090.9</v>
@@ -32562,7 +32584,7 @@
         <v>3333</v>
       </c>
       <c r="K634" t="n">
-        <v>-13.88888888888889</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L634" t="n">
         <v>3089.8</v>
@@ -32613,7 +32635,7 @@
         <v>3334</v>
       </c>
       <c r="K635" t="n">
-        <v>-17.14285714285714</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L635" t="n">
         <v>3088.8</v>
@@ -32664,7 +32686,7 @@
         <v>3338</v>
       </c>
       <c r="K636" t="n">
-        <v>-30.15873015873016</v>
+        <v>50</v>
       </c>
       <c r="L636" t="n">
         <v>3089.1</v>
@@ -32715,7 +32737,7 @@
         <v>3338</v>
       </c>
       <c r="K637" t="n">
-        <v>-24.13793103448276</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L637" t="n">
         <v>3089.7</v>
@@ -32766,7 +32788,7 @@
         <v>3343</v>
       </c>
       <c r="K638" t="n">
-        <v>-30.15873015873016</v>
+        <v>12.5</v>
       </c>
       <c r="L638" t="n">
         <v>3089.9</v>
@@ -32817,7 +32839,7 @@
         <v>3343</v>
       </c>
       <c r="K639" t="n">
-        <v>-26.66666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L639" t="n">
         <v>3090.1</v>
@@ -32868,7 +32890,7 @@
         <v>3348</v>
       </c>
       <c r="K640" t="n">
-        <v>14.8936170212766</v>
+        <v>30</v>
       </c>
       <c r="L640" t="n">
         <v>3090.7</v>
@@ -32919,7 +32941,7 @@
         <v>3352</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L641" t="n">
         <v>3090.9</v>
@@ -32970,7 +32992,7 @@
         <v>3356</v>
       </c>
       <c r="K642" t="n">
-        <v>-14.28571428571428</v>
+        <v>12</v>
       </c>
       <c r="L642" t="n">
         <v>3091.4</v>
@@ -33021,7 +33043,7 @@
         <v>3362</v>
       </c>
       <c r="K643" t="n">
-        <v>-25</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L643" t="n">
         <v>3091.1</v>
@@ -33072,7 +33094,7 @@
         <v>3368</v>
       </c>
       <c r="K644" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L644" t="n">
         <v>3091.6</v>
@@ -33123,7 +33145,7 @@
         <v>3374</v>
       </c>
       <c r="K645" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L645" t="n">
         <v>3091.4</v>
@@ -33174,7 +33196,7 @@
         <v>3378</v>
       </c>
       <c r="K646" t="n">
-        <v>-12.72727272727273</v>
+        <v>-25</v>
       </c>
       <c r="L646" t="n">
         <v>3090.4</v>
@@ -33225,7 +33247,7 @@
         <v>3378</v>
       </c>
       <c r="K647" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L647" t="n">
         <v>3089.4</v>
@@ -33276,7 +33298,7 @@
         <v>3378</v>
       </c>
       <c r="K648" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L648" t="n">
         <v>3088.9</v>
@@ -33327,7 +33349,7 @@
         <v>3382</v>
       </c>
       <c r="K649" t="n">
-        <v>-12.72727272727273</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L649" t="n">
         <v>3088</v>
@@ -33378,7 +33400,7 @@
         <v>3390</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L650" t="n">
         <v>3087.4</v>
@@ -33429,7 +33451,7 @@
         <v>3395</v>
       </c>
       <c r="K651" t="n">
-        <v>-7.462686567164178</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L651" t="n">
         <v>3086.7</v>
@@ -33480,7 +33502,7 @@
         <v>3398</v>
       </c>
       <c r="K652" t="n">
-        <v>-4.347826086956522</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L652" t="n">
         <v>3085.9</v>
@@ -33531,7 +33553,7 @@
         <v>3398</v>
       </c>
       <c r="K653" t="n">
-        <v>-7.462686567164178</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L653" t="n">
         <v>3085.7</v>
@@ -33582,7 +33604,7 @@
         <v>3401</v>
       </c>
       <c r="K654" t="n">
-        <v>0</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L654" t="n">
         <v>3085.2</v>
@@ -33633,7 +33655,7 @@
         <v>3403</v>
       </c>
       <c r="K655" t="n">
-        <v>1.449275362318841</v>
+        <v>28</v>
       </c>
       <c r="L655" t="n">
         <v>3085.5</v>
@@ -33684,7 +33706,7 @@
         <v>3411</v>
       </c>
       <c r="K656" t="n">
-        <v>6.849315068493151</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L656" t="n">
         <v>3087</v>
@@ -33735,7 +33757,7 @@
         <v>3412</v>
       </c>
       <c r="K657" t="n">
-        <v>8.108108108108109</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L657" t="n">
         <v>3088.6</v>
@@ -33786,7 +33808,7 @@
         <v>3423</v>
       </c>
       <c r="K658" t="n">
-        <v>0</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L658" t="n">
         <v>3089.1</v>
@@ -33837,7 +33859,7 @@
         <v>3434</v>
       </c>
       <c r="K659" t="n">
-        <v>12.08791208791209</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L659" t="n">
         <v>3091.1</v>
@@ -33888,7 +33910,7 @@
         <v>3436</v>
       </c>
       <c r="K660" t="n">
-        <v>9.090909090909092</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L660" t="n">
         <v>3092.5</v>
@@ -33939,7 +33961,7 @@
         <v>3443</v>
       </c>
       <c r="K661" t="n">
-        <v>20.87912087912088</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L661" t="n">
         <v>3095.1</v>
@@ -33990,7 +34012,7 @@
         <v>3446</v>
       </c>
       <c r="K662" t="n">
-        <v>13.33333333333333</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L662" t="n">
         <v>3097.1</v>
@@ -34041,7 +34063,7 @@
         <v>3446</v>
       </c>
       <c r="K663" t="n">
-        <v>21.42857142857143</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L663" t="n">
         <v>3099.1</v>
@@ -34092,7 +34114,7 @@
         <v>3446</v>
       </c>
       <c r="K664" t="n">
-        <v>15.38461538461539</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L664" t="n">
         <v>3100.8</v>
@@ -34143,7 +34165,7 @@
         <v>3458</v>
       </c>
       <c r="K665" t="n">
-        <v>35.71428571428572</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L665" t="n">
         <v>3103.5</v>
@@ -34194,7 +34216,7 @@
         <v>3462</v>
       </c>
       <c r="K666" t="n">
-        <v>45.23809523809524</v>
+        <v>44</v>
       </c>
       <c r="L666" t="n">
         <v>3105.8</v>
@@ -34245,7 +34267,7 @@
         <v>3467</v>
       </c>
       <c r="K667" t="n">
-        <v>48.31460674157304</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="L667" t="n">
         <v>3108.5</v>
@@ -34296,7 +34318,7 @@
         <v>3467</v>
       </c>
       <c r="K668" t="n">
-        <v>48.31460674157304</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L668" t="n">
         <v>3112.3</v>
@@ -34347,7 +34369,7 @@
         <v>3474</v>
       </c>
       <c r="K669" t="n">
-        <v>43.47826086956522</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L669" t="n">
         <v>3114.3</v>
@@ -34398,7 +34420,7 @@
         <v>3488</v>
       </c>
       <c r="K670" t="n">
-        <v>46.93877551020408</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L670" t="n">
         <v>3117.5</v>
@@ -34449,7 +34471,7 @@
         <v>3505</v>
       </c>
       <c r="K671" t="n">
-        <v>30.90909090909091</v>
+        <v>18.64406779661017</v>
       </c>
       <c r="L671" t="n">
         <v>3118.3</v>
@@ -34500,7 +34522,7 @@
         <v>3513</v>
       </c>
       <c r="K672" t="n">
-        <v>20</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="L672" t="n">
         <v>3118.6</v>
@@ -34551,7 +34573,7 @@
         <v>3524</v>
       </c>
       <c r="K673" t="n">
-        <v>26.98412698412698</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L673" t="n">
         <v>3120</v>
@@ -34602,7 +34624,7 @@
         <v>3527</v>
       </c>
       <c r="K674" t="n">
-        <v>22.22222222222222</v>
+        <v>-1.449275362318841</v>
       </c>
       <c r="L674" t="n">
         <v>3121.1</v>
@@ -34653,7 +34675,7 @@
         <v>3532</v>
       </c>
       <c r="K675" t="n">
-        <v>24.03100775193798</v>
+        <v>0</v>
       </c>
       <c r="L675" t="n">
         <v>3121.5</v>
@@ -34704,7 +34726,7 @@
         <v>3533</v>
       </c>
       <c r="K676" t="n">
-        <v>18.0327868852459</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L676" t="n">
         <v>3121.4</v>
@@ -34755,7 +34777,7 @@
         <v>3534</v>
       </c>
       <c r="K677" t="n">
-        <v>16.39344262295082</v>
+        <v>-10.44776119402985</v>
       </c>
       <c r="L677" t="n">
         <v>3120.7</v>
@@ -34806,7 +34828,7 @@
         <v>3536</v>
       </c>
       <c r="K678" t="n">
-        <v>29.20353982300885</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L678" t="n">
         <v>3120.2</v>
@@ -34857,7 +34879,7 @@
         <v>3537</v>
       </c>
       <c r="K679" t="n">
-        <v>20.38834951456311</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L679" t="n">
         <v>3120.3</v>
@@ -34908,7 +34930,7 @@
         <v>3543</v>
       </c>
       <c r="K680" t="n">
-        <v>12.14953271028037</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L680" t="n">
         <v>3118.4</v>
@@ -34959,7 +34981,7 @@
         <v>3548</v>
       </c>
       <c r="K681" t="n">
-        <v>10.47619047619048</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L681" t="n">
         <v>3118.7</v>
@@ -35010,7 +35032,7 @@
         <v>3564</v>
       </c>
       <c r="K682" t="n">
-        <v>-1.694915254237288</v>
+        <v>-40</v>
       </c>
       <c r="L682" t="n">
         <v>3118.2</v>
@@ -35061,7 +35083,7 @@
         <v>3567</v>
       </c>
       <c r="K683" t="n">
-        <v>0.8264462809917356</v>
+        <v>-25</v>
       </c>
       <c r="L683" t="n">
         <v>3116.9</v>
@@ -35112,7 +35134,7 @@
         <v>3573</v>
       </c>
       <c r="K684" t="n">
-        <v>5.511811023622047</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L684" t="n">
         <v>3116.5</v>
@@ -35163,7 +35185,7 @@
         <v>3581</v>
       </c>
       <c r="K685" t="n">
-        <v>-10.56910569105691</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L685" t="n">
         <v>3114.8</v>
@@ -35214,7 +35236,7 @@
         <v>3582</v>
       </c>
       <c r="K686" t="n">
-        <v>-13.33333333333333</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L686" t="n">
         <v>3113.3</v>
@@ -35265,7 +35287,7 @@
         <v>3593</v>
       </c>
       <c r="K687" t="n">
-        <v>-7.936507936507936</v>
+        <v>-8.771929824561402</v>
       </c>
       <c r="L687" t="n">
         <v>3113</v>
@@ -35316,7 +35338,7 @@
         <v>3593</v>
       </c>
       <c r="K688" t="n">
-        <v>-7.936507936507936</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L688" t="n">
         <v>3112.5</v>
@@ -35367,7 +35389,7 @@
         <v>3606</v>
       </c>
       <c r="K689" t="n">
-        <v>-12.12121212121212</v>
+        <v>-17.46031746031746</v>
       </c>
       <c r="L689" t="n">
         <v>3110.8</v>
@@ -35418,7 +35440,7 @@
         <v>3606</v>
       </c>
       <c r="K690" t="n">
-        <v>-25.42372881355932</v>
+        <v>-27.58620689655172</v>
       </c>
       <c r="L690" t="n">
         <v>3109.7</v>
@@ -35469,7 +35491,7 @@
         <v>3616</v>
       </c>
       <c r="K691" t="n">
-        <v>-2.702702702702703</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L691" t="n">
         <v>3109.1</v>
@@ -35520,7 +35542,7 @@
         <v>3626</v>
       </c>
       <c r="K692" t="n">
-        <v>-4.424778761061947</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L692" t="n">
         <v>3109.1</v>
@@ -35571,7 +35593,7 @@
         <v>3630</v>
       </c>
       <c r="K693" t="n">
-        <v>-18.86792452830189</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L693" t="n">
         <v>3108.4</v>
@@ -35622,7 +35644,7 @@
         <v>3632</v>
       </c>
       <c r="K694" t="n">
-        <v>-18.09523809523809</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L694" t="n">
         <v>3106.9</v>
@@ -35673,7 +35695,7 @@
         <v>3632</v>
       </c>
       <c r="K695" t="n">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="L695" t="n">
         <v>3106.2</v>
@@ -35724,7 +35746,7 @@
         <v>3638</v>
       </c>
       <c r="K696" t="n">
-        <v>-27.61904761904762</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L696" t="n">
         <v>3104.8</v>
@@ -35775,7 +35797,7 @@
         <v>3645</v>
       </c>
       <c r="K697" t="n">
-        <v>-31.53153153153153</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L697" t="n">
         <v>3101.6</v>
@@ -35826,7 +35848,7 @@
         <v>3657</v>
       </c>
       <c r="K698" t="n">
-        <v>-40.49586776859504</v>
+        <v>-60.78431372549019</v>
       </c>
       <c r="L698" t="n">
         <v>3097.2</v>
@@ -35877,7 +35899,7 @@
         <v>3667</v>
       </c>
       <c r="K699" t="n">
-        <v>-29.23076923076923</v>
+        <v>-34.42622950819672</v>
       </c>
       <c r="L699" t="n">
         <v>3095.1</v>
@@ -35928,7 +35950,7 @@
         <v>3669</v>
       </c>
       <c r="K700" t="n">
-        <v>-26.98412698412698</v>
+        <v>-62.26415094339622</v>
       </c>
       <c r="L700" t="n">
         <v>3092.8</v>
@@ -35979,7 +36001,7 @@
         <v>3680</v>
       </c>
       <c r="K701" t="n">
-        <v>-37.87878787878788</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L701" t="n">
         <v>3088.4</v>
@@ -36030,7 +36052,7 @@
         <v>3682</v>
       </c>
       <c r="K702" t="n">
-        <v>-30.50847457627119</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L702" t="n">
         <v>3084.8</v>
@@ -36081,7 +36103,7 @@
         <v>3690</v>
       </c>
       <c r="K703" t="n">
-        <v>-25.20325203252033</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L703" t="n">
         <v>3082.4</v>
@@ -36132,7 +36154,7 @@
         <v>3691</v>
       </c>
       <c r="K704" t="n">
-        <v>-30.50847457627119</v>
+        <v>-35.59322033898305</v>
       </c>
       <c r="L704" t="n">
         <v>3080.3</v>
@@ -36183,7 +36205,7 @@
         <v>3699</v>
       </c>
       <c r="K705" t="n">
-        <v>-30.50847457627119</v>
+        <v>-37.70491803278689</v>
       </c>
       <c r="L705" t="n">
         <v>3077.4</v>
@@ -36234,7 +36256,7 @@
         <v>3704</v>
       </c>
       <c r="K706" t="n">
-        <v>-26.22950819672131</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L706" t="n">
         <v>3075.6</v>
@@ -36285,7 +36307,7 @@
         <v>3709</v>
       </c>
       <c r="K707" t="n">
-        <v>-41.37931034482759</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L707" t="n">
         <v>3074</v>
@@ -36336,7 +36358,7 @@
         <v>3711</v>
       </c>
       <c r="K708" t="n">
-        <v>-42.3728813559322</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L708" t="n">
         <v>3073.4</v>
@@ -36387,7 +36409,7 @@
         <v>3718</v>
       </c>
       <c r="K709" t="n">
-        <v>-26.78571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L709" t="n">
         <v>3072.5</v>
@@ -36438,7 +36460,7 @@
         <v>3719</v>
       </c>
       <c r="K710" t="n">
-        <v>-25.66371681415929</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L710" t="n">
         <v>3071.9</v>
@@ -36489,7 +36511,7 @@
         <v>3723</v>
       </c>
       <c r="K711" t="n">
-        <v>-32.71028037383177</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L711" t="n">
         <v>3072.8</v>
@@ -36540,7 +36562,7 @@
         <v>3725</v>
       </c>
       <c r="K712" t="n">
-        <v>-23.23232323232323</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L712" t="n">
         <v>3074.1</v>
@@ -36591,7 +36613,7 @@
         <v>3727</v>
       </c>
       <c r="K713" t="n">
-        <v>-17.52577319587629</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L713" t="n">
         <v>3074.8</v>
@@ -36642,7 +36664,7 @@
         <v>3728</v>
       </c>
       <c r="K714" t="n">
-        <v>-14.58333333333333</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L714" t="n">
         <v>3075.5</v>
@@ -36693,7 +36715,7 @@
         <v>3729</v>
       </c>
       <c r="K715" t="n">
-        <v>-15.4639175257732</v>
+        <v>36</v>
       </c>
       <c r="L715" t="n">
         <v>3076.9</v>
@@ -36744,7 +36766,7 @@
         <v>3730</v>
       </c>
       <c r="K716" t="n">
-        <v>-8.695652173913043</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L716" t="n">
         <v>3077.9</v>
@@ -36795,7 +36817,7 @@
         <v>3731</v>
       </c>
       <c r="K717" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L717" t="n">
         <v>3079.5</v>
@@ -36846,7 +36868,7 @@
         <v>3733</v>
       </c>
       <c r="K718" t="n">
-        <v>13.1578947368421</v>
+        <v>60</v>
       </c>
       <c r="L718" t="n">
         <v>3081.1</v>
@@ -36897,7 +36919,7 @@
         <v>3737</v>
       </c>
       <c r="K719" t="n">
-        <v>-5.714285714285714</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L719" t="n">
         <v>3081.6</v>
@@ -36948,7 +36970,7 @@
         <v>3737</v>
       </c>
       <c r="K720" t="n">
-        <v>-2.941176470588235</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>3082</v>
@@ -36999,7 +37021,7 @@
         <v>3740</v>
       </c>
       <c r="K721" t="n">
-        <v>10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L721" t="n">
         <v>3081.7</v>
@@ -37050,7 +37072,7 @@
         <v>3740</v>
       </c>
       <c r="K722" t="n">
-        <v>13.79310344827586</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L722" t="n">
         <v>3081.2</v>
@@ -37101,7 +37123,7 @@
         <v>3749</v>
       </c>
       <c r="K723" t="n">
-        <v>15.25423728813559</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L723" t="n">
         <v>3081.4</v>
@@ -37152,7 +37174,7 @@
         <v>3754</v>
       </c>
       <c r="K724" t="n">
-        <v>4.761904761904762</v>
+        <v>-12</v>
       </c>
       <c r="L724" t="n">
         <v>3081</v>
@@ -37203,7 +37225,7 @@
         <v>3756</v>
       </c>
       <c r="K725" t="n">
-        <v>22.80701754385965</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L725" t="n">
         <v>3080.9</v>
@@ -37254,7 +37276,7 @@
         <v>3761</v>
       </c>
       <c r="K726" t="n">
-        <v>5.263157894736842</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L726" t="n">
         <v>3080.2</v>
@@ -37305,7 +37327,7 @@
         <v>3761</v>
       </c>
       <c r="K727" t="n">
-        <v>15.38461538461539</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L727" t="n">
         <v>3079.4</v>
@@ -37356,7 +37378,7 @@
         <v>3761</v>
       </c>
       <c r="K728" t="n">
-        <v>20</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L728" t="n">
         <v>3078.8</v>
@@ -37407,7 +37429,7 @@
         <v>3767</v>
       </c>
       <c r="K729" t="n">
-        <v>-6.122448979591836</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L729" t="n">
         <v>3078</v>
@@ -37458,7 +37480,7 @@
         <v>3768</v>
       </c>
       <c r="K730" t="n">
-        <v>-10.20408163265306</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L730" t="n">
         <v>3077.1</v>
@@ -37509,7 +37531,7 @@
         <v>3772</v>
       </c>
       <c r="K731" t="n">
-        <v>-26.53061224489796</v>
+        <v>-31.25</v>
       </c>
       <c r="L731" t="n">
         <v>3076.1</v>
@@ -37560,7 +37582,7 @@
         <v>3780</v>
       </c>
       <c r="K732" t="n">
-        <v>-41.81818181818181</v>
+        <v>-87.09677419354838</v>
       </c>
       <c r="L732" t="n">
         <v>3074.3</v>
@@ -37611,7 +37633,7 @@
         <v>3782</v>
       </c>
       <c r="K733" t="n">
-        <v>-49.09090909090909</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L733" t="n">
         <v>3071.4</v>
@@ -37662,7 +37684,7 @@
         <v>3792</v>
       </c>
       <c r="K734" t="n">
-        <v>-28.125</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L734" t="n">
         <v>3070</v>
@@ -37713,7 +37735,7 @@
         <v>3808</v>
       </c>
       <c r="K735" t="n">
-        <v>-41.77215189873418</v>
+        <v>-57.44680851063831</v>
       </c>
       <c r="L735" t="n">
         <v>3066.8</v>
@@ -37764,7 +37786,7 @@
         <v>3814</v>
       </c>
       <c r="K736" t="n">
-        <v>-47.61904761904761</v>
+        <v>-62.26415094339622</v>
       </c>
       <c r="L736" t="n">
         <v>3063.5</v>
@@ -37815,7 +37837,7 @@
         <v>3819</v>
       </c>
       <c r="K737" t="n">
-        <v>-52.27272727272727</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L737" t="n">
         <v>3059.7</v>
@@ -37866,7 +37888,7 @@
         <v>3819</v>
       </c>
       <c r="K738" t="n">
-        <v>-51.16279069767442</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L738" t="n">
         <v>3055.9</v>
@@ -37917,7 +37939,7 @@
         <v>3832</v>
       </c>
       <c r="K739" t="n">
-        <v>-28.42105263157895</v>
+        <v>-28.125</v>
       </c>
       <c r="L739" t="n">
         <v>3054</v>
@@ -37968,7 +37990,7 @@
         <v>3832</v>
       </c>
       <c r="K740" t="n">
-        <v>-28.42105263157895</v>
+        <v>-23.33333333333333</v>
       </c>
       <c r="L740" t="n">
         <v>3052.2</v>
@@ -38019,7 +38041,7 @@
         <v>3847</v>
       </c>
       <c r="K741" t="n">
-        <v>-36.44859813084112</v>
+        <v>-31.34328358208955</v>
       </c>
       <c r="L741" t="n">
         <v>3049.3</v>
@@ -38070,7 +38092,7 @@
         <v>3860</v>
       </c>
       <c r="K742" t="n">
-        <v>-21.66666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L742" t="n">
         <v>3048.5</v>
@@ -38121,7 +38143,7 @@
         <v>3862</v>
       </c>
       <c r="K743" t="n">
-        <v>-32.74336283185841</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L743" t="n">
         <v>3047.7</v>
@@ -38172,7 +38194,7 @@
         <v>3862</v>
       </c>
       <c r="K744" t="n">
-        <v>-29.62962962962963</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L744" t="n">
         <v>3045.9</v>
@@ -38223,7 +38245,7 @@
         <v>3862</v>
       </c>
       <c r="K745" t="n">
-        <v>-32.0754716981132</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L745" t="n">
         <v>3045.7</v>
@@ -38274,7 +38296,7 @@
         <v>3873</v>
       </c>
       <c r="K746" t="n">
-        <v>-35.71428571428572</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L746" t="n">
         <v>3045</v>
@@ -38325,7 +38347,7 @@
         <v>3874</v>
       </c>
       <c r="K747" t="n">
-        <v>-36.28318584070797</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L747" t="n">
         <v>3044.7</v>
@@ -38376,7 +38398,7 @@
         <v>3884</v>
       </c>
       <c r="K748" t="n">
-        <v>-25.20325203252033</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="L748" t="n">
         <v>3045.4</v>
@@ -38427,7 +38449,7 @@
         <v>3886</v>
       </c>
       <c r="K749" t="n">
-        <v>-19.32773109243698</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L749" t="n">
         <v>3045</v>
@@ -38478,7 +38500,7 @@
         <v>3897</v>
       </c>
       <c r="K750" t="n">
-        <v>-8.527131782945736</v>
+        <v>44</v>
       </c>
       <c r="L750" t="n">
         <v>3045.7</v>
@@ -38529,7 +38551,7 @@
         <v>3904</v>
       </c>
       <c r="K751" t="n">
-        <v>-10.60606060606061</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L751" t="n">
         <v>3047.2</v>
@@ -38580,7 +38602,7 @@
         <v>3917</v>
       </c>
       <c r="K752" t="n">
-        <v>5.109489051094891</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L752" t="n">
         <v>3048.7</v>
@@ -38631,7 +38653,7 @@
         <v>3917</v>
       </c>
       <c r="K753" t="n">
-        <v>6.666666666666667</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L753" t="n">
         <v>3050.4</v>
@@ -38682,7 +38704,7 @@
         <v>3918</v>
       </c>
       <c r="K754" t="n">
-        <v>-1.587301587301587</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L754" t="n">
         <v>3052</v>
@@ -38733,7 +38755,7 @@
         <v>3923</v>
       </c>
       <c r="K755" t="n">
-        <v>7.82608695652174</v>
+        <v>44</v>
       </c>
       <c r="L755" t="n">
         <v>3053.1</v>
@@ -38784,7 +38806,7 @@
         <v>3925</v>
       </c>
       <c r="K756" t="n">
-        <v>15.31531531531531</v>
+        <v>49.01960784313725</v>
       </c>
       <c r="L756" t="n">
         <v>3055.5</v>
@@ -38835,7 +38857,7 @@
         <v>3929</v>
       </c>
       <c r="K757" t="n">
-        <v>23.63636363636364</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="L757" t="n">
         <v>3058.4</v>
@@ -38886,7 +38908,7 @@
         <v>3931</v>
       </c>
       <c r="K758" t="n">
-        <v>21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L758" t="n">
         <v>3060.1</v>
@@ -38937,7 +38959,7 @@
         <v>3934</v>
       </c>
       <c r="K759" t="n">
-        <v>7.84313725490196</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L759" t="n">
         <v>3061.3</v>
@@ -38988,7 +39010,7 @@
         <v>3934</v>
       </c>
       <c r="K760" t="n">
-        <v>7.84313725490196</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L760" t="n">
         <v>3061.4</v>
@@ -39039,7 +39061,7 @@
         <v>3941</v>
       </c>
       <c r="K761" t="n">
-        <v>31.91489361702128</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L761" t="n">
         <v>3062.9</v>
@@ -39090,7 +39112,7 @@
         <v>3948</v>
       </c>
       <c r="K762" t="n">
-        <v>11.36363636363636</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L762" t="n">
         <v>3062.4</v>
@@ -39141,7 +39163,7 @@
         <v>3948</v>
       </c>
       <c r="K763" t="n">
-        <v>13.95348837209302</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L763" t="n">
         <v>3061.9</v>
@@ -39192,7 +39214,7 @@
         <v>3971</v>
       </c>
       <c r="K764" t="n">
-        <v>-10.09174311926606</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L764" t="n">
         <v>3059.2</v>
@@ -39243,7 +39265,7 @@
         <v>3971</v>
       </c>
       <c r="K765" t="n">
-        <v>-10.09174311926606</v>
+        <v>-52.17391304347826</v>
       </c>
       <c r="L765" t="n">
         <v>3057</v>
@@ -39294,7 +39316,7 @@
         <v>3971</v>
       </c>
       <c r="K766" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L766" t="n">
         <v>3054.6</v>
@@ -39345,7 +39367,7 @@
         <v>3972</v>
       </c>
       <c r="K767" t="n">
-        <v>2.040816326530612</v>
+        <v>-60.97560975609756</v>
       </c>
       <c r="L767" t="n">
         <v>3051.9</v>
@@ -39396,7 +39418,7 @@
         <v>3985</v>
       </c>
       <c r="K768" t="n">
-        <v>4.95049504950495</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L768" t="n">
         <v>3050.7</v>
@@ -39447,7 +39469,7 @@
         <v>3996</v>
       </c>
       <c r="K769" t="n">
-        <v>-7.272727272727272</v>
+        <v>-32.25806451612903</v>
       </c>
       <c r="L769" t="n">
         <v>3048.7</v>
@@ -39498,7 +39520,7 @@
         <v>3999</v>
       </c>
       <c r="K770" t="n">
-        <v>-21.56862745098039</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L770" t="n">
         <v>3046.4</v>
@@ -39549,7 +39571,7 @@
         <v>4007</v>
       </c>
       <c r="K771" t="n">
-        <v>-22.33009708737864</v>
+        <v>-52.54237288135594</v>
       </c>
       <c r="L771" t="n">
         <v>3042.6</v>
@@ -39600,7 +39622,7 @@
         <v>4007</v>
       </c>
       <c r="K772" t="n">
-        <v>-40</v>
+        <v>-52.54237288135594</v>
       </c>
       <c r="L772" t="n">
         <v>3039.5</v>
@@ -39651,7 +39673,7 @@
         <v>4015</v>
       </c>
       <c r="K773" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L773" t="n">
         <v>3037.2</v>
@@ -39702,7 +39724,7 @@
         <v>4024</v>
       </c>
       <c r="K774" t="n">
-        <v>-33.9622641509434</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L774" t="n">
         <v>3036.3</v>
@@ -39753,7 +39775,7 @@
         <v>4025</v>
       </c>
       <c r="K775" t="n">
-        <v>-31.37254901960784</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L775" t="n">
         <v>3035.3</v>
@@ -39804,7 +39826,7 @@
         <v>4025</v>
       </c>
       <c r="K776" t="n">
-        <v>-34</v>
+        <v>-20.75471698113208</v>
       </c>
       <c r="L776" t="n">
         <v>3034.3</v>
@@ -39855,7 +39877,7 @@
         <v>4027</v>
       </c>
       <c r="K777" t="n">
-        <v>-40.81632653061224</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L777" t="n">
         <v>3033</v>
@@ -39906,7 +39928,7 @@
         <v>4027</v>
       </c>
       <c r="K778" t="n">
-        <v>-39.58333333333333</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L778" t="n">
         <v>3030.4</v>

--- a/BackTest/2019-10-21 BackTest LINK.xlsx
+++ b/BackTest/2019-10-21 BackTest LINK.xlsx
@@ -1151,14 +1151,20 @@
         <v>2878.75</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2856</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1186,18 +1192,18 @@
         <v>2878.65</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>2854</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1231,14 +1237,12 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2853</v>
-      </c>
-      <c r="K24" t="n">
         <v>2854</v>
       </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1268,20 +1272,16 @@
         <v>2878.216666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>2853</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1311,18 +1311,18 @@
         <v>2878.05</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>2854</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1350,20 +1350,16 @@
         <v>2877.783333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>2853</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1393,20 +1389,16 @@
         <v>2877.183333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>2854</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1436,17 +1428,13 @@
         <v>2876.316666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>2838</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1485,11 +1473,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2839</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2854</v>
-      </c>
+        <v>2838</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1528,11 +1514,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2840</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2854</v>
-      </c>
+        <v>2839</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1571,11 +1555,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2848</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2854</v>
-      </c>
+        <v>2840</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1616,9 +1598,7 @@
       <c r="J33" t="n">
         <v>2852</v>
       </c>
-      <c r="K33" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,17 +1631,13 @@
         <v>2872.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>2852</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1702,9 +1678,7 @@
       <c r="J35" t="n">
         <v>2853</v>
       </c>
-      <c r="K35" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1745,9 +1719,7 @@
       <c r="J36" t="n">
         <v>2853</v>
       </c>
-      <c r="K36" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,9 +1760,7 @@
       <c r="J37" t="n">
         <v>2853</v>
       </c>
-      <c r="K37" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1829,11 +1799,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2841</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2854</v>
-      </c>
+        <v>2853</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1874,9 +1842,7 @@
       <c r="J39" t="n">
         <v>2844</v>
       </c>
-      <c r="K39" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1909,17 +1875,13 @@
         <v>2869.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>2844</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1952,17 +1914,13 @@
         <v>2869.183333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>2841</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1995,17 +1953,13 @@
         <v>2868.566666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>2841</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2038,17 +1992,13 @@
         <v>2867.966666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>2842</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,17 +2031,13 @@
         <v>2867.316666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>2839</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2124,17 +2070,13 @@
         <v>2866.666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>2839</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2167,17 +2109,13 @@
         <v>2865.866666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>2838</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,17 +2148,13 @@
         <v>2865.033333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>2835</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,17 +2187,13 @@
         <v>2864.133333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>2830</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2296,17 +2226,13 @@
         <v>2863.15</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>2835</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2339,17 +2265,13 @@
         <v>2862.316666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>2840</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2382,17 +2304,13 @@
         <v>2861.65</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>2857</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,17 +2343,13 @@
         <v>2860.9</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>2855</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2468,17 +2382,13 @@
         <v>2860.1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>2853</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2511,17 +2421,13 @@
         <v>2859.45</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>2860</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2554,17 +2460,13 @@
         <v>2858.966666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>2860</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2597,17 +2499,13 @@
         <v>2858.466666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>2851</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2640,17 +2538,13 @@
         <v>2858</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>2850</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,17 +2577,13 @@
         <v>2857.483333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>2850</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2726,17 +2616,13 @@
         <v>2856.916666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>2850</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2769,17 +2655,13 @@
         <v>2856.266666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>2853</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2812,17 +2694,13 @@
         <v>2855.65</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>2848</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2855,17 +2733,13 @@
         <v>2854.95</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>2840</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2898,17 +2772,13 @@
         <v>2854.05</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>2834</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2941,17 +2811,13 @@
         <v>2852.9</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>2834</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,17 +2850,13 @@
         <v>2851.766666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>2826</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3027,17 +2889,13 @@
         <v>2850.783333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>2825</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,17 +2928,13 @@
         <v>2849.833333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>2833</v>
-      </c>
-      <c r="K67" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3113,17 +2967,13 @@
         <v>2849</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>2835</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,17 +3006,13 @@
         <v>2848.133333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>2834</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,17 +3045,13 @@
         <v>2847.466666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>2835</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,17 +3084,13 @@
         <v>2846.866666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>2840</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,17 +3123,13 @@
         <v>2846.233333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>2840</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3328,17 +3162,13 @@
         <v>2845.65</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>2840</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3371,17 +3201,13 @@
         <v>2845.633333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>2840</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,17 +3240,13 @@
         <v>2845.616666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>2840</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,17 +3279,13 @@
         <v>2845.35</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>2841</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,17 +3318,13 @@
         <v>2845.616666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>2846</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3543,17 +3357,13 @@
         <v>2845.7</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>2865</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3586,17 +3396,13 @@
         <v>2845.766666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>2866</v>
-      </c>
-      <c r="K79" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,17 +3435,13 @@
         <v>2846.016666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>2868</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3672,17 +3474,13 @@
         <v>2846.3</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>2865</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3715,17 +3513,13 @@
         <v>2846.6</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>2873</v>
-      </c>
-      <c r="K82" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,17 +3552,13 @@
         <v>2846.916666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>2873</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3801,17 +3591,13 @@
         <v>2847.133333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>2873</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,17 +3630,13 @@
         <v>2847.35</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>2872</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,17 +3669,13 @@
         <v>2847.65</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>2866</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3930,17 +3708,13 @@
         <v>2848.183333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>2872</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3973,17 +3747,13 @@
         <v>2848.566666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>2875</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,17 +3786,13 @@
         <v>2849.2</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>2876</v>
-      </c>
-      <c r="K89" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,17 +3825,13 @@
         <v>2849.883333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>2880</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,17 +3864,13 @@
         <v>2850.533333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>2879</v>
-      </c>
-      <c r="K91" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,17 +3903,13 @@
         <v>2851.016666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>2881</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2854</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,9 +3948,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,9 +4026,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4317,9 +4065,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,9 +4104,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4399,9 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4440,9 +4182,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,9 +4221,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4522,9 +4260,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,9 +4299,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4604,9 +4338,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,9 +4377,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,9 +4416,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4727,9 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4768,9 +4494,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4809,9 +4533,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,9 +4572,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,9 +4611,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,9 +4650,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,9 +4689,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,9 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5055,9 +4767,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,9 +4806,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5134,20 +4842,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2854</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5178,14 +4882,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5219,14 +4917,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5260,14 +4952,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5301,14 +4987,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5342,14 +5022,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5383,14 +5057,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5424,14 +5092,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5465,14 +5127,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5506,14 +5162,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5547,14 +5197,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +5232,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5629,14 +5267,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5670,14 +5302,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5711,14 +5337,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5752,14 +5372,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5793,14 +5407,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5834,14 +5442,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5875,14 +5477,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5916,14 +5512,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5957,14 +5547,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5582,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6039,14 +5617,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6080,14 +5652,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6121,14 +5687,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6162,14 +5722,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6203,14 +5757,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6244,14 +5792,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6285,14 +5827,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +5862,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6367,14 +5897,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6408,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6449,14 +5967,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6490,14 +6002,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6531,14 +6037,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6572,14 +6072,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6613,14 +6107,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6654,14 +6142,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6695,14 +6177,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6736,14 +6212,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6777,14 +6247,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6818,14 +6282,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6859,14 +6317,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6900,14 +6352,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6941,14 +6387,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6982,14 +6422,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7023,14 +6457,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7064,14 +6492,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7105,14 +6527,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7146,14 +6562,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7187,14 +6597,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7228,14 +6632,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7269,14 +6667,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7310,14 +6702,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7351,14 +6737,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7392,14 +6772,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7433,14 +6807,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7474,14 +6842,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7515,14 +6877,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7556,14 +6912,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7597,14 +6947,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7638,14 +6982,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7679,14 +7017,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7720,14 +7052,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7761,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7802,14 +7122,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7843,14 +7157,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7884,14 +7192,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7925,14 +7227,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7966,14 +7262,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8007,14 +7297,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8048,14 +7332,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8089,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8130,14 +7402,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8171,14 +7437,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8212,14 +7472,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8253,14 +7507,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8294,14 +7542,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8335,14 +7577,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8376,14 +7612,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8417,14 +7647,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8458,14 +7682,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8499,14 +7717,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8540,14 +7752,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8581,14 +7787,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8622,14 +7822,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8663,14 +7857,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8704,14 +7892,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8745,14 +7927,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8786,14 +7962,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8827,14 +7997,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8868,14 +8032,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8909,14 +8067,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8950,14 +8102,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8991,14 +8137,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9032,14 +8172,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9073,14 +8207,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9114,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9155,14 +8277,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9196,14 +8312,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9237,14 +8347,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9278,14 +8382,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9319,14 +8417,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9360,14 +8452,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9401,14 +8487,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9442,14 +8522,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9483,14 +8557,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9524,14 +8592,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9565,14 +8627,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9606,14 +8662,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9647,14 +8697,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9688,14 +8732,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9729,14 +8767,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9770,14 +8802,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9811,14 +8837,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9852,14 +8872,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9893,14 +8907,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9934,14 +8942,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9975,14 +8977,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10016,14 +9012,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10057,14 +9047,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10098,14 +9082,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10139,14 +9117,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10180,14 +9152,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10221,14 +9187,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10262,14 +9222,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10303,14 +9257,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10344,14 +9292,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10385,14 +9327,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10426,14 +9362,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10467,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10508,14 +9432,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10549,14 +9467,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10590,14 +9502,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10631,14 +9537,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10672,14 +9572,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10713,14 +9607,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10754,14 +9642,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10795,14 +9677,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10836,14 +9712,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10877,14 +9747,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10918,14 +9782,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10959,14 +9817,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11000,14 +9852,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11041,14 +9887,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11082,14 +9922,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11123,14 +9957,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11164,14 +9992,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11205,14 +10027,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11246,14 +10062,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11287,14 +10097,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11328,14 +10132,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11369,14 +10167,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11410,14 +10202,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11451,14 +10237,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11492,14 +10272,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11533,14 +10307,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11574,14 +10342,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11615,14 +10377,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11656,14 +10412,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11697,14 +10447,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11738,14 +10482,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11779,14 +10517,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11820,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11861,14 +10587,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11902,14 +10622,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11943,14 +10657,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11984,14 +10692,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -12025,14 +10727,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -12066,14 +10762,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -12107,14 +10797,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -12148,14 +10832,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -12189,14 +10867,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -12230,14 +10902,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -12271,14 +10937,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -12312,14 +10972,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12353,14 +11007,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12394,14 +11042,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12435,14 +11077,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12476,14 +11112,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12517,14 +11147,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12558,14 +11182,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12599,14 +11217,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12640,14 +11252,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12681,14 +11287,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12722,14 +11322,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12763,14 +11357,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12804,14 +11392,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12845,14 +11427,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12886,14 +11462,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12927,14 +11497,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12968,14 +11532,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -13009,14 +11567,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -13050,14 +11602,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -13091,14 +11637,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -13132,14 +11672,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -13173,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -13214,14 +11742,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -13255,14 +11777,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -13296,14 +11812,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -13337,14 +11847,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -13378,14 +11882,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -13419,14 +11917,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -13460,14 +11952,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13501,14 +11987,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13542,14 +12022,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13580,19 +12054,13 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>2854</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
-        <v>1.06823055360897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -13621,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
@@ -13656,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
@@ -13691,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
@@ -14671,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
@@ -14706,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
@@ -14741,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -14776,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest LINK.xlsx
+++ b/BackTest/2019-10-21 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14041.48738139535</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14051.47845937536</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2797</v>
@@ -523,7 +523,7 @@
         <v>14051.47845937536</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2802</v>
@@ -562,7 +562,7 @@
         <v>14051.47845937536</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2802</v>
@@ -601,7 +601,7 @@
         <v>14142.88665937536</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2802</v>
@@ -640,7 +640,7 @@
         <v>14142.88665937536</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2816</v>
@@ -679,7 +679,7 @@
         <v>21490.51295937536</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2816</v>
@@ -718,7 +718,7 @@
         <v>21847.00775937536</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>2825</v>
@@ -757,9 +757,11 @@
         <v>22421.23925937536</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2828</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -794,9 +796,11 @@
         <v>24949.20355937536</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2830</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -831,9 +835,11 @@
         <v>25620.65495937536</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2832</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -868,9 +874,11 @@
         <v>28258.55615937536</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2844</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -942,9 +950,11 @@
         <v>29927.58769465713</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2868</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1053,9 +1063,11 @@
         <v>29860.80329465713</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2853</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1090,9 +1102,11 @@
         <v>30437.36889465713</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2854</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1127,9 +1141,11 @@
         <v>30432.36889465713</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2864</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1164,9 +1180,11 @@
         <v>30432.36889465713</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2860</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1756,9 +1774,11 @@
         <v>44385.56634000196</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2856</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1867,9 +1887,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2878</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1904,9 +1926,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2878</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1941,9 +1965,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2878</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1978,9 +2004,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2878</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2015,9 +2043,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2878</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2052,9 +2082,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2878</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2089,9 +2121,11 @@
         <v>45607.93944000196</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2878</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2126,9 +2160,11 @@
         <v>45636.30894000196</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2880</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2163,9 +2199,11 @@
         <v>45652.50894000196</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2889</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -14484,16 +14522,18 @@
         <v>159273.3540367309</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L381" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
       <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
@@ -14519,11 +14559,15 @@
         <v>153537.3423576551</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14552,11 +14596,15 @@
         <v>153551.636257655</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14589,7 +14637,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14622,7 +14674,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14655,7 +14711,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14688,7 +14748,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14721,7 +14785,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14754,7 +14822,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14787,7 +14859,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14820,7 +14896,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14853,7 +14933,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14886,7 +14970,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14919,7 +15007,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14952,7 +15044,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14985,7 +15081,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +15118,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15051,7 +15155,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15084,7 +15192,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15117,7 +15229,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15150,7 +15266,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15183,7 +15303,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15216,7 +15340,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15249,7 +15377,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15282,7 +15414,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15315,7 +15451,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15348,7 +15488,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15381,7 +15525,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15414,7 +15562,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15447,7 +15599,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15480,7 +15636,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15513,7 +15673,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15546,7 +15710,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15579,7 +15747,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15612,7 +15784,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15645,7 +15821,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15678,7 +15858,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15711,7 +15895,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15744,7 +15932,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15777,7 +15969,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15810,7 +16006,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15843,7 +16043,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15876,7 +16080,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15909,7 +16117,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15942,7 +16154,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15975,7 +16191,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16008,7 +16228,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16041,7 +16265,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16074,7 +16302,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16107,7 +16339,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16140,7 +16376,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16173,7 +16413,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16206,7 +16450,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16239,7 +16487,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16272,7 +16524,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16305,7 +16561,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16338,7 +16598,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16371,7 +16635,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16404,7 +16672,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16437,7 +16709,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16470,7 +16746,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16503,7 +16783,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16536,7 +16820,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16569,7 +16857,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16602,7 +16894,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16635,7 +16931,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16668,7 +16968,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16701,7 +17005,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16734,7 +17042,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16767,7 +17079,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16800,7 +17116,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +17149,15 @@
         <v>200330.8855542148</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16866,7 +17190,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16899,7 +17227,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16932,7 +17264,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16965,7 +17301,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16998,7 +17338,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17031,7 +17375,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17064,7 +17412,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17097,7 +17449,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17130,7 +17486,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17163,7 +17523,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17196,7 +17560,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17225,14 +17593,16 @@
         <v>208264.1940542148</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="inlineStr"/>
     </row>
     <row r="465">
@@ -17390,7 +17760,7 @@
         <v>201427.5177542148</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17654,7 +18024,7 @@
         <v>206159.4587542148</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18182,7 +18552,7 @@
         <v>222696.7578118391</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18248,7 +18618,7 @@
         <v>222655.0746118391</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18314,7 +18684,7 @@
         <v>228480.1734118391</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18380,7 +18750,7 @@
         <v>227530.9578619676</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18413,7 +18783,7 @@
         <v>235934.0071118391</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18446,7 +18816,7 @@
         <v>231893.5877118391</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18479,7 +18849,7 @@
         <v>220484.1713118391</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18512,7 +18882,7 @@
         <v>220484.1713118391</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18545,7 +18915,7 @@
         <v>219543.9686118391</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18578,7 +18948,7 @@
         <v>218184.1319345428</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18611,7 +18981,7 @@
         <v>217988.0380345428</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18644,7 +19014,7 @@
         <v>218469.7676572466</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18677,7 +19047,7 @@
         <v>219728.5952572465</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18710,7 +19080,7 @@
         <v>219728.5952572465</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18743,7 +19113,7 @@
         <v>219023.2293572465</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18776,7 +19146,7 @@
         <v>219023.2293572465</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18809,7 +19179,7 @@
         <v>219554.8554572465</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18842,7 +19212,7 @@
         <v>219554.8554572465</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18875,7 +19245,7 @@
         <v>220502.0044572465</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18908,7 +19278,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18941,7 +19311,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18974,7 +19344,7 @@
         <v>220841.1656572465</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19007,7 +19377,7 @@
         <v>218999.2348572465</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19040,7 +19410,7 @@
         <v>219056.3331572466</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19073,7 +19443,7 @@
         <v>219146.237561126</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19106,7 +19476,7 @@
         <v>224531.5608268421</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19139,7 +19509,7 @@
         <v>225448.144061126</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19172,7 +19542,7 @@
         <v>229125.066961126</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19205,7 +19575,7 @@
         <v>230766.130361126</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19304,7 +19674,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19337,7 +19707,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19568,7 +19938,7 @@
         <v>236294.8220179513</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19601,7 +19971,7 @@
         <v>235501.4480179513</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19634,7 +20004,7 @@
         <v>234697.8292179513</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19667,7 +20037,7 @@
         <v>235789.9025179513</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19700,7 +20070,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19733,7 +20103,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19766,7 +20136,7 @@
         <v>239080.2187179512</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19799,7 +20169,7 @@
         <v>242887.7725179512</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19832,7 +20202,7 @@
         <v>242889.7725179512</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19865,7 +20235,7 @@
         <v>242673.8226179512</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19898,7 +20268,7 @@
         <v>235082.9016179512</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19931,7 +20301,7 @@
         <v>235083.6948179512</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19964,7 +20334,7 @@
         <v>258894.4432179512</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19997,7 +20367,7 @@
         <v>257199.6144179512</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20030,7 +20400,7 @@
         <v>257029.8973179512</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20492,7 +20862,7 @@
         <v>267593.1161179512</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20525,7 +20895,7 @@
         <v>273435.7458179512</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20558,7 +20928,7 @@
         <v>277113.7427179512</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20591,7 +20961,7 @@
         <v>267797.6533179512</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20624,7 +20994,7 @@
         <v>265557.6696179512</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20657,7 +21027,7 @@
         <v>265999.2432179512</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20690,7 +21060,7 @@
         <v>270254.8534179512</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20723,7 +21093,7 @@
         <v>264849.9453179512</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20789,7 +21159,7 @@
         <v>268476.1898179512</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21218,7 +21588,7 @@
         <v>255648.9868179511</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21284,7 +21654,7 @@
         <v>256383.5363179511</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21317,7 +21687,7 @@
         <v>256383.5363179511</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21350,7 +21720,7 @@
         <v>256393.5363179511</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21383,7 +21753,7 @@
         <v>256546.9829179511</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21416,7 +21786,7 @@
         <v>256697.0028179511</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21449,7 +21819,7 @@
         <v>256697.0028179511</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21482,7 +21852,7 @@
         <v>256641.0372460802</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21812,7 +22182,7 @@
         <v>258737.1892460801</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21878,7 +22248,7 @@
         <v>262815.6417460801</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21977,7 +22347,7 @@
         <v>259227.3410460801</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22010,7 +22380,7 @@
         <v>258816.1527460801</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22043,7 +22413,7 @@
         <v>261769.6786460801</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22076,7 +22446,7 @@
         <v>261537.1981460801</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22109,7 +22479,7 @@
         <v>260655.1167460801</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22142,7 +22512,7 @@
         <v>260651.1167460801</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22175,7 +22545,7 @@
         <v>260651.1167460801</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22208,7 +22578,7 @@
         <v>260651.1167460801</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22241,7 +22611,7 @@
         <v>260783.1493460801</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22274,7 +22644,7 @@
         <v>261348.2340460801</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22307,7 +22677,7 @@
         <v>263739.2806460802</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22340,7 +22710,7 @@
         <v>261870.4904460802</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22373,7 +22743,7 @@
         <v>262021.1457460802</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22406,7 +22776,7 @@
         <v>257558.5536460802</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22439,7 +22809,7 @@
         <v>259999.6515460802</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22472,7 +22842,7 @@
         <v>259973.7461460802</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22505,7 +22875,7 @@
         <v>259090.4167460802</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22538,7 +22908,7 @@
         <v>259074.5522460802</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22604,7 +22974,7 @@
         <v>259180.5176460802</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22637,7 +23007,7 @@
         <v>256695.8650460802</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22670,7 +23040,7 @@
         <v>250997.9953460802</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22703,7 +23073,7 @@
         <v>252275.3352460802</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22736,7 +23106,7 @@
         <v>251893.7652460801</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22769,7 +23139,7 @@
         <v>251990.0351460802</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22967,7 +23337,7 @@
         <v>248383.6285460802</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23033,7 +23403,7 @@
         <v>258117.7873460802</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23066,7 +23436,7 @@
         <v>258117.7873460802</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23099,7 +23469,7 @@
         <v>257663.1641460802</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23132,7 +23502,7 @@
         <v>257584.7402460802</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23165,7 +23535,7 @@
         <v>255994.9127460802</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23264,7 +23634,7 @@
         <v>258180.1412460802</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23297,7 +23667,7 @@
         <v>258144.1412460802</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23330,7 +23700,7 @@
         <v>258144.1412460802</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23429,7 +23799,7 @@
         <v>258143.0629460802</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23726,7 +24096,7 @@
         <v>258538.1950460802</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23759,7 +24129,7 @@
         <v>258377.1924460802</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23924,7 +24294,7 @@
         <v>268309.3110460801</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23957,7 +24327,7 @@
         <v>268656.7870460802</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23990,7 +24360,7 @@
         <v>268656.7870460802</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24287,7 +24657,7 @@
         <v>278995.752800836</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24320,7 +24690,7 @@
         <v>278616.810800836</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24353,7 +24723,7 @@
         <v>278628.780800836</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24386,7 +24756,7 @@
         <v>279968.204600836</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24551,7 +24921,7 @@
         <v>279704.4147531676</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24617,7 +24987,7 @@
         <v>279703.4147531676</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24683,7 +25053,7 @@
         <v>280504.4147531676</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24749,7 +25119,7 @@
         <v>280989.7321054992</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24782,7 +25152,7 @@
         <v>279921.0486054993</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24815,7 +25185,7 @@
         <v>279925.0486054993</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24848,7 +25218,7 @@
         <v>279933.0486054993</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24881,7 +25251,7 @@
         <v>279933.0486054993</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24914,7 +25284,7 @@
         <v>279516.3387054992</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24947,7 +25317,7 @@
         <v>279516.3387054992</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24980,7 +25350,7 @@
         <v>279593.2864054993</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25541,7 +25911,7 @@
         <v>283936.124257831</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25574,7 +25944,7 @@
         <v>283896.912357831</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25607,7 +25977,7 @@
         <v>283933.244857831</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25640,7 +26010,7 @@
         <v>284225.121857831</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25673,7 +26043,7 @@
         <v>284673.052357831</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25706,7 +26076,7 @@
         <v>283106.792157831</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25739,7 +26109,7 @@
         <v>283106.792157831</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25772,7 +26142,7 @@
         <v>283106.792157831</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25805,7 +26175,7 @@
         <v>285824.326757831</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25838,7 +26208,7 @@
         <v>288681.297057831</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25871,7 +26241,7 @@
         <v>288848.864357831</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25904,7 +26274,7 @@
         <v>288848.864357831</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25937,7 +26307,7 @@
         <v>284297.162157831</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25970,7 +26340,7 @@
         <v>284297.262157831</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26003,7 +26373,7 @@
         <v>284144.562157831</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26036,7 +26406,7 @@
         <v>283104.9838744763</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26069,7 +26439,7 @@
         <v>283107.0838744763</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26102,7 +26472,7 @@
         <v>283106.7604866033</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26135,7 +26505,7 @@
         <v>283107.0820753285</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26168,7 +26538,7 @@
         <v>282991.5820753285</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26201,7 +26571,7 @@
         <v>282991.2606009695</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26234,7 +26604,7 @@
         <v>283091.6980266106</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26267,7 +26637,7 @@
         <v>282418.6395447564</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26300,7 +26670,7 @@
         <v>282397.2547447564</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26333,7 +26703,7 @@
         <v>282772.7074447565</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26366,7 +26736,7 @@
         <v>282494.0172447565</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26399,7 +26769,7 @@
         <v>282494.2172447565</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26432,7 +26802,7 @@
         <v>282494.3172447564</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26465,7 +26835,7 @@
         <v>282364.3132447564</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26498,7 +26868,7 @@
         <v>282484.9964447565</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26531,7 +26901,7 @@
         <v>283438.4967655778</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26564,7 +26934,7 @@
         <v>283438.4967655778</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26597,7 +26967,7 @@
         <v>283157.5499655778</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26630,7 +27000,7 @@
         <v>283157.5499655778</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26663,7 +27033,7 @@
         <v>283157.6499655778</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26696,7 +27066,7 @@
         <v>283136.2499655777</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26729,7 +27099,7 @@
         <v>283039.0499655777</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26762,7 +27132,7 @@
         <v>282928.1500655777</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28280,7 +28650,7 @@
         <v>259654.8457655777</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28379,7 +28749,7 @@
         <v>259230.5248655778</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28412,7 +28782,7 @@
         <v>259230.5248655778</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29182,6 +29552,6 @@
       <c r="M826" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest LINK.xlsx
+++ b/BackTest/2019-10-21 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -718,11 +718,9 @@
         <v>21847.00775937536</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,11 +755,9 @@
         <v>22421.23925937536</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2828</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +792,9 @@
         <v>24949.20355937536</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +829,9 @@
         <v>25620.65495937536</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +866,9 @@
         <v>28258.55615937536</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -950,11 +940,9 @@
         <v>29927.58769465713</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1063,11 +1051,9 @@
         <v>29860.80329465713</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1102,11 +1088,9 @@
         <v>30437.36889465713</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1141,11 +1125,9 @@
         <v>30432.36889465713</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1180,11 +1162,9 @@
         <v>30432.36889465713</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1552,18 +1532,16 @@
         <v>37872.00334000196</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1589,15 +1567,11 @@
         <v>37872.00334000196</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1626,15 +1600,11 @@
         <v>36859.43934000196</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1663,15 +1633,11 @@
         <v>36859.43934000196</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1700,15 +1666,11 @@
         <v>36844.34254000196</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1737,15 +1699,11 @@
         <v>33595.44444000196</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1774,17 +1732,11 @@
         <v>44385.56634000196</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2856</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1813,15 +1765,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1850,15 +1798,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1887,17 +1831,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2878</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1926,17 +1864,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2878</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1965,17 +1897,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2878</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2004,17 +1930,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2878</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2043,17 +1963,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2878</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2082,17 +1996,11 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2878</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2121,17 +2029,11 @@
         <v>45607.93944000196</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2878</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2160,17 +2062,11 @@
         <v>45636.30894000196</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2880</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2199,17 +2095,11 @@
         <v>45652.50894000196</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2889</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2238,15 +2128,11 @@
         <v>47611.08284000196</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2275,15 +2161,11 @@
         <v>47622.19949465714</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2312,15 +2194,11 @@
         <v>47592.32919465713</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2349,15 +2227,11 @@
         <v>47592.32919465713</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2386,15 +2260,11 @@
         <v>46444.67264931231</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2423,15 +2293,11 @@
         <v>46443.67264931231</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2460,15 +2326,11 @@
         <v>46442.67264931231</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2501,11 +2363,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2538,11 +2396,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2575,11 +2429,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2462,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2649,11 +2495,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2686,11 +2528,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2723,11 +2561,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2760,11 +2594,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +2627,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +2660,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2871,11 +2693,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2908,11 +2726,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +2759,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2982,11 +2792,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3019,11 +2825,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2858,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +2891,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3130,11 +2924,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3167,11 +2957,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3204,11 +2990,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3023,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3278,11 +3056,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3315,11 +3089,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3352,11 +3122,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3389,11 +3155,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3426,11 +3188,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3463,11 +3221,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3500,11 +3254,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3537,11 +3287,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3574,11 +3320,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3611,11 +3353,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3648,11 +3386,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3419,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3722,11 +3452,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3759,11 +3485,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +3518,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3833,11 +3551,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3870,11 +3584,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3907,11 +3617,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3944,11 +3650,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3981,11 +3683,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +3716,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4055,11 +3749,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4092,11 +3782,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4129,11 +3815,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4166,11 +3848,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4203,11 +3881,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4240,11 +3914,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4277,11 +3947,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4314,11 +3980,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4351,11 +4013,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4388,11 +4046,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4425,11 +4079,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4462,11 +4112,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4499,11 +4145,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4536,11 +4178,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4573,11 +4211,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4610,11 +4244,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4277,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4684,11 +4310,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4721,11 +4343,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4758,11 +4376,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +4409,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +4442,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4869,11 +4475,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4508,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4943,11 +4541,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4980,11 +4574,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5017,11 +4607,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5054,11 +4640,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5091,11 +4673,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +4706,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +4739,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +4772,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +4805,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +4838,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5313,11 +4871,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5350,11 +4904,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +4937,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5424,11 +4970,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5461,11 +5003,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5036,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +5069,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5572,11 +5102,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5609,11 +5135,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5646,11 +5168,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5683,11 +5201,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5720,11 +5234,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5757,11 +5267,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5794,11 +5300,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5831,11 +5333,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5868,11 +5366,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5905,11 +5399,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5942,11 +5432,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5979,11 +5465,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6016,11 +5498,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6053,11 +5531,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6090,11 +5564,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +5597,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6164,11 +5630,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6201,11 +5663,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6238,11 +5696,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6275,11 +5729,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6312,11 +5762,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6349,11 +5795,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6386,11 +5828,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6423,11 +5861,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6460,11 +5894,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6497,11 +5927,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +5960,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6571,11 +5993,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6604,15 +6022,11 @@
         <v>67584.27932342874</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6641,15 +6055,11 @@
         <v>70459.27932342874</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6678,15 +6088,11 @@
         <v>72057.50282342875</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6715,15 +6121,11 @@
         <v>72057.50282342875</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6752,15 +6154,11 @@
         <v>74429.96202342874</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6789,15 +6187,11 @@
         <v>75806.20392342874</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6826,15 +6220,11 @@
         <v>74530.11512342874</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6863,15 +6253,11 @@
         <v>72201.60592342874</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6900,15 +6286,11 @@
         <v>72201.60592342874</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6937,15 +6319,11 @@
         <v>76687.22222342873</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6974,15 +6352,11 @@
         <v>76687.22222342873</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7011,15 +6385,11 @@
         <v>79671.9228615126</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7048,15 +6418,11 @@
         <v>85257.56386151261</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7085,15 +6451,11 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7122,15 +6484,11 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7159,15 +6517,11 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7196,15 +6550,11 @@
         <v>94448.20016151261</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7233,15 +6583,11 @@
         <v>94448.20016151261</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7270,15 +6616,11 @@
         <v>98475.34999202107</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7307,15 +6649,11 @@
         <v>98475.34999202107</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7344,15 +6682,11 @@
         <v>98392.57449202107</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7381,15 +6715,11 @@
         <v>99242.81759202108</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7418,15 +6748,11 @@
         <v>102071.9484920211</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7455,15 +6781,11 @@
         <v>98776.06429202108</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7492,15 +6814,11 @@
         <v>98716.83819202108</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7529,15 +6847,11 @@
         <v>97829.07869202108</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7566,15 +6880,11 @@
         <v>97829.07869202108</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7603,15 +6913,11 @@
         <v>96569.15759202107</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7640,15 +6946,11 @@
         <v>96663.26179202108</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7677,15 +6979,11 @@
         <v>97563.80979202107</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7714,15 +7012,11 @@
         <v>97513.37619202107</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7751,15 +7045,11 @@
         <v>96454.60809202107</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7788,15 +7078,11 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7825,15 +7111,11 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7862,15 +7144,11 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7899,15 +7177,11 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7936,15 +7210,11 @@
         <v>99811.77319202106</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7973,15 +7243,11 @@
         <v>102761.6713920211</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8010,15 +7276,11 @@
         <v>103203.8253718987</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8047,15 +7309,11 @@
         <v>103203.8253718987</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8084,15 +7342,11 @@
         <v>102928.2034718987</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8121,15 +7375,11 @@
         <v>102928.2034718987</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8158,15 +7408,11 @@
         <v>102599.2646718987</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8195,15 +7441,11 @@
         <v>102599.2646718987</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8232,15 +7474,11 @@
         <v>104653.9437895017</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8269,15 +7507,11 @@
         <v>104512.6297568041</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8306,15 +7540,11 @@
         <v>103512.6297568041</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8343,15 +7573,11 @@
         <v>103512.6297568041</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8384,11 +7610,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8421,11 +7643,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8458,11 +7676,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8495,11 +7709,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8532,11 +7742,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +7775,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +7808,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8643,11 +7841,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8680,11 +7874,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8717,11 +7907,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8754,11 +7940,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +7973,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8828,11 +8006,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8865,11 +8039,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +8072,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8939,11 +8105,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8976,11 +8138,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9013,11 +8171,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9050,11 +8204,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9087,11 +8237,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9124,11 +8270,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9157,15 +8299,11 @@
         <v>106222.6887568041</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9194,15 +8332,11 @@
         <v>106236.5457568041</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9231,15 +8365,11 @@
         <v>106225.2553568041</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9268,15 +8398,11 @@
         <v>106218.4087351825</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9305,15 +8431,11 @@
         <v>105652.3357351825</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9346,11 +8468,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9379,15 +8497,11 @@
         <v>105669.4749351825</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9416,15 +8530,11 @@
         <v>105648.6132351825</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9453,15 +8563,11 @@
         <v>105074.2029351825</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9494,11 +8600,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9531,11 +8633,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9564,15 +8662,11 @@
         <v>109692.8055351825</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9605,11 +8699,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9642,11 +8732,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9679,11 +8765,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9716,11 +8798,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9753,11 +8831,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +8864,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9827,11 +8897,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9864,11 +8930,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9897,15 +8959,11 @@
         <v>107975.1627351825</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9938,11 +8996,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9971,15 +9025,11 @@
         <v>107832.0291351825</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10008,15 +9058,11 @@
         <v>107833.0291351825</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10045,15 +9091,11 @@
         <v>107833.0291351825</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10082,15 +9124,11 @@
         <v>107794.0151351825</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10119,15 +9157,11 @@
         <v>107784.6774351825</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10156,15 +9190,11 @@
         <v>108804.3531351826</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10193,15 +9223,11 @@
         <v>108801.3531351826</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10230,15 +9256,11 @@
         <v>109508.7468351826</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10267,15 +9289,11 @@
         <v>109508.7468351826</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10304,15 +9322,11 @@
         <v>110027.4906351825</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10341,15 +9355,11 @@
         <v>110118.9995351825</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10378,15 +9388,11 @@
         <v>112894.9602351825</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10415,15 +9421,11 @@
         <v>113162.5216351826</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10452,15 +9454,11 @@
         <v>113154.0098351826</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10489,15 +9487,11 @@
         <v>112151.0098351826</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10526,15 +9520,11 @@
         <v>112151.0098351826</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10563,15 +9553,11 @@
         <v>112235.5522351826</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10600,15 +9586,11 @@
         <v>112219.7767351826</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10637,15 +9619,11 @@
         <v>111726.5385351826</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10674,15 +9652,11 @@
         <v>111725.8705351825</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10715,11 +9689,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10752,11 +9722,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10789,11 +9755,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10826,11 +9788,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10863,11 +9821,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10900,11 +9854,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10937,11 +9887,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10974,11 +9920,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +9953,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11048,11 +9986,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11085,11 +10019,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11122,11 +10052,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11159,11 +10085,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11196,11 +10118,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11233,11 +10151,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11270,11 +10184,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11307,11 +10217,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11344,11 +10250,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11381,11 +10283,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11418,11 +10316,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11455,11 +10349,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11492,11 +10382,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11529,11 +10415,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11566,11 +10448,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11603,11 +10481,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11640,11 +10514,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11677,11 +10547,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +10580,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11751,11 +10613,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +10646,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11825,11 +10679,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11862,11 +10712,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11899,11 +10745,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11936,11 +10778,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11973,11 +10811,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12010,11 +10844,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12047,11 +10877,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +10910,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12121,11 +10943,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12158,11 +10976,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12195,11 +11009,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +11042,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +11075,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12306,11 +11108,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12343,11 +11141,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12376,15 +11170,11 @@
         <v>112737.9001950602</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12413,15 +11203,11 @@
         <v>112679.6745950602</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12450,15 +11236,11 @@
         <v>112679.6745950602</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12487,15 +11269,11 @@
         <v>115938.2332396388</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12524,15 +11302,11 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12561,15 +11335,11 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12598,15 +11368,11 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12635,15 +11401,11 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12672,15 +11434,11 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12709,15 +11467,11 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12746,15 +11500,11 @@
         <v>116031.9182396388</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12783,15 +11533,11 @@
         <v>118484.0213396388</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12820,15 +11566,11 @@
         <v>118703.4211396388</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12857,15 +11599,11 @@
         <v>120806.6649990096</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12894,15 +11632,11 @@
         <v>120731.2306990096</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12931,15 +11665,11 @@
         <v>120117.0006286814</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12968,15 +11698,11 @@
         <v>120117.0006286814</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13005,15 +11731,11 @@
         <v>120617.0006286814</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13042,15 +11764,11 @@
         <v>120587.0006286814</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13079,15 +11797,11 @@
         <v>121612.0898391904</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13116,15 +11830,11 @@
         <v>122219.8045639479</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13153,15 +11863,11 @@
         <v>120846.6204887053</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13190,15 +11896,11 @@
         <v>120966.8588887053</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13227,15 +11929,11 @@
         <v>120966.8588887053</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13264,15 +11962,11 @@
         <v>120784.0888887053</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13301,15 +11995,11 @@
         <v>120345.5932887053</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13338,15 +12028,11 @@
         <v>119884.2757887053</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13375,15 +12061,11 @@
         <v>117772.6569887053</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13412,15 +12094,11 @@
         <v>117832.5340887053</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13449,15 +12127,11 @@
         <v>115964.5339887053</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13486,15 +12160,11 @@
         <v>115977.1418887053</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13523,15 +12193,11 @@
         <v>116308.3153887053</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13560,15 +12226,11 @@
         <v>116308.3153887053</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13597,15 +12259,11 @@
         <v>115705.3617887054</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13634,15 +12292,11 @@
         <v>115679.8138887054</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13671,15 +12325,11 @@
         <v>115812.4221887054</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13708,15 +12358,11 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13745,15 +12391,11 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13782,15 +12424,11 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13819,15 +12457,11 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13856,15 +12490,11 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13893,15 +12523,11 @@
         <v>118143.9095887054</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13930,15 +12556,11 @@
         <v>118572.0379887054</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13967,15 +12589,11 @@
         <v>117680.8928887054</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14004,15 +12622,11 @@
         <v>118360.2448887054</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14041,15 +12655,11 @@
         <v>119279.2959887054</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14078,15 +12688,11 @@
         <v>118270.0469887054</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14115,15 +12721,11 @@
         <v>118215.9973887054</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14152,15 +12754,11 @@
         <v>125597.5987887054</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14189,15 +12787,11 @@
         <v>129555.2655887054</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14226,15 +12820,11 @@
         <v>130841.9792887054</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14263,15 +12853,11 @@
         <v>132142.2127887054</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14300,15 +12886,11 @@
         <v>133201.8005971519</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14337,15 +12919,11 @@
         <v>141711.8665887054</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14378,11 +12956,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14415,11 +12989,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14452,11 +13022,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14489,11 +13055,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14526,11 +13088,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14563,11 +13121,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14600,11 +13154,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14637,11 +13187,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +13220,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14711,11 +13253,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14748,11 +13286,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14785,11 +13319,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14822,11 +13352,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14859,11 +13385,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14896,11 +13418,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14933,11 +13451,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14970,11 +13484,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15007,11 +13517,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15044,11 +13550,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15081,11 +13583,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15118,11 +13616,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15155,11 +13649,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15192,11 +13682,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15229,11 +13715,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15266,11 +13748,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15303,11 +13781,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15340,11 +13814,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15377,11 +13847,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15414,11 +13880,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15451,11 +13913,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15488,11 +13946,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15525,11 +13979,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15562,11 +14012,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15599,11 +14045,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15636,11 +14078,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15673,11 +14111,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15710,11 +14144,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15747,11 +14177,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15784,11 +14210,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15821,11 +14243,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15858,11 +14276,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +14309,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15932,11 +14342,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15969,11 +14375,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16006,11 +14408,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16043,11 +14441,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16080,11 +14474,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16117,11 +14507,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16154,11 +14540,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16191,11 +14573,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16228,11 +14606,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16265,11 +14639,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16302,11 +14672,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16339,11 +14705,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16376,11 +14738,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16413,11 +14771,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16450,11 +14804,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16487,11 +14837,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16524,11 +14870,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16561,11 +14903,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16598,11 +14936,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16635,11 +14969,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16672,11 +15002,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16709,11 +15035,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16746,11 +15068,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16783,11 +15101,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16820,11 +15134,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16857,11 +15167,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16894,11 +15200,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16931,11 +15233,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16968,11 +15266,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17005,11 +15299,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17042,11 +15332,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17079,11 +15365,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +15398,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17153,11 +15431,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17190,11 +15464,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17227,11 +15497,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17264,11 +15530,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17301,11 +15563,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17338,11 +15596,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17375,11 +15629,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17412,11 +15662,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17449,11 +15695,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17486,11 +15728,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17523,11 +15761,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17560,11 +15794,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17593,16 +15823,14 @@
         <v>208264.1940542148</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
       <c r="M464" t="inlineStr"/>
     </row>
     <row r="465">
@@ -18552,7 +16780,7 @@
         <v>222696.7578118391</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18618,7 +16846,7 @@
         <v>222655.0746118391</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18684,7 +16912,7 @@
         <v>228480.1734118391</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18750,7 +16978,7 @@
         <v>227530.9578619676</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18783,7 +17011,7 @@
         <v>235934.0071118391</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18816,7 +17044,7 @@
         <v>231893.5877118391</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18849,7 +17077,7 @@
         <v>220484.1713118391</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18882,7 +17110,7 @@
         <v>220484.1713118391</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18915,7 +17143,7 @@
         <v>219543.9686118391</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18948,7 +17176,7 @@
         <v>218184.1319345428</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18981,7 +17209,7 @@
         <v>217988.0380345428</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19014,7 +17242,7 @@
         <v>218469.7676572466</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19047,7 +17275,7 @@
         <v>219728.5952572465</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19080,7 +17308,7 @@
         <v>219728.5952572465</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19113,7 +17341,7 @@
         <v>219023.2293572465</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19146,7 +17374,7 @@
         <v>219023.2293572465</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19179,7 +17407,7 @@
         <v>219554.8554572465</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19212,7 +17440,7 @@
         <v>219554.8554572465</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19245,7 +17473,7 @@
         <v>220502.0044572465</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19278,7 +17506,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19311,7 +17539,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19344,7 +17572,7 @@
         <v>220841.1656572465</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19377,7 +17605,7 @@
         <v>218999.2348572465</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19410,7 +17638,7 @@
         <v>219056.3331572466</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19443,7 +17671,7 @@
         <v>219146.237561126</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19476,7 +17704,7 @@
         <v>224531.5608268421</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19509,7 +17737,7 @@
         <v>225448.144061126</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19542,7 +17770,7 @@
         <v>229125.066961126</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19575,7 +17803,7 @@
         <v>230766.130361126</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19707,7 +17935,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20004,7 +18232,7 @@
         <v>234697.8292179513</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20037,7 +18265,7 @@
         <v>235789.9025179513</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20070,7 +18298,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20103,7 +18331,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20136,7 +18364,7 @@
         <v>239080.2187179512</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20169,7 +18397,7 @@
         <v>242887.7725179512</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20202,7 +18430,7 @@
         <v>242889.7725179512</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20235,7 +18463,7 @@
         <v>242673.8226179512</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20268,7 +18496,7 @@
         <v>235082.9016179512</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20301,7 +18529,7 @@
         <v>235083.6948179512</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20334,7 +18562,7 @@
         <v>258894.4432179512</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20400,7 +18628,7 @@
         <v>257029.8973179512</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20862,7 +19090,7 @@
         <v>267593.1161179512</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20895,7 +19123,7 @@
         <v>273435.7458179512</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20928,7 +19156,7 @@
         <v>277113.7427179512</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20961,7 +19189,7 @@
         <v>267797.6533179512</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20994,7 +19222,7 @@
         <v>265557.6696179512</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21027,7 +19255,7 @@
         <v>265999.2432179512</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21060,7 +19288,7 @@
         <v>270254.8534179512</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21093,7 +19321,7 @@
         <v>264849.9453179512</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21159,7 +19387,7 @@
         <v>268476.1898179512</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21588,7 +19816,7 @@
         <v>255648.9868179511</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21654,7 +19882,7 @@
         <v>256383.5363179511</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21687,7 +19915,7 @@
         <v>256383.5363179511</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21720,7 +19948,7 @@
         <v>256393.5363179511</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21753,7 +19981,7 @@
         <v>256546.9829179511</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21786,7 +20014,7 @@
         <v>256697.0028179511</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21819,7 +20047,7 @@
         <v>256697.0028179511</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21852,7 +20080,7 @@
         <v>256641.0372460802</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22446,7 +20674,7 @@
         <v>261537.1981460801</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22479,7 +20707,7 @@
         <v>260655.1167460801</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22512,7 +20740,7 @@
         <v>260651.1167460801</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22578,7 +20806,7 @@
         <v>260651.1167460801</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22611,7 +20839,7 @@
         <v>260783.1493460801</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22644,7 +20872,7 @@
         <v>261348.2340460801</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22677,7 +20905,7 @@
         <v>263739.2806460802</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22743,7 +20971,7 @@
         <v>262021.1457460802</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23073,7 +21301,7 @@
         <v>252275.3352460802</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23106,7 +21334,7 @@
         <v>251893.7652460801</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23403,7 +21631,7 @@
         <v>258117.7873460802</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23436,7 +21664,7 @@
         <v>258117.7873460802</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23469,7 +21697,7 @@
         <v>257663.1641460802</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23502,7 +21730,7 @@
         <v>257584.7402460802</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23535,7 +21763,7 @@
         <v>255994.9127460802</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23634,7 +21862,7 @@
         <v>258180.1412460802</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23667,7 +21895,7 @@
         <v>258144.1412460802</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23700,7 +21928,7 @@
         <v>258144.1412460802</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23799,7 +22027,7 @@
         <v>258143.0629460802</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24294,7 +22522,7 @@
         <v>268309.3110460801</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24327,7 +22555,7 @@
         <v>268656.7870460802</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24360,7 +22588,7 @@
         <v>268656.7870460802</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24921,7 +23149,7 @@
         <v>279704.4147531676</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24987,7 +23215,7 @@
         <v>279703.4147531676</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25053,7 +23281,7 @@
         <v>280504.4147531676</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25119,7 +23347,7 @@
         <v>280989.7321054992</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25152,7 +23380,7 @@
         <v>279921.0486054993</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25185,7 +23413,7 @@
         <v>279925.0486054993</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25218,7 +23446,7 @@
         <v>279933.0486054993</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25251,7 +23479,7 @@
         <v>279933.0486054993</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25284,7 +23512,7 @@
         <v>279516.3387054992</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -28650,7 +26878,7 @@
         <v>259654.8457655777</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28749,7 +26977,7 @@
         <v>259230.5248655778</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28782,7 +27010,7 @@
         <v>259230.5248655778</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29552,6 +27780,6 @@
       <c r="M826" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest LINK.xlsx
+++ b/BackTest/2019-10-21 BackTest LINK.xlsx
@@ -718,9 +718,11 @@
         <v>21847.00775937536</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2825</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -1532,16 +1534,18 @@
         <v>37872.00334000196</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1567,11 +1571,15 @@
         <v>37872.00334000196</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1600,11 +1608,15 @@
         <v>36859.43934000196</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1633,11 +1645,15 @@
         <v>36859.43934000196</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1666,11 +1682,15 @@
         <v>36844.34254000196</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1719,15 @@
         <v>33595.44444000196</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1732,11 +1756,15 @@
         <v>44385.56634000196</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1765,11 +1793,15 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1798,11 +1830,15 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1831,11 +1867,15 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +1904,15 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1897,11 +1941,15 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1930,11 +1978,15 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1963,11 +2015,15 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1996,11 +2052,15 @@
         <v>45603.93944000196</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2029,11 +2089,15 @@
         <v>45607.93944000196</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +2126,15 @@
         <v>45636.30894000196</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2095,11 +2163,15 @@
         <v>45652.50894000196</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2128,11 +2200,15 @@
         <v>47611.08284000196</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2161,11 +2237,15 @@
         <v>47622.19949465714</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2194,11 +2274,15 @@
         <v>47592.32919465713</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2227,11 +2311,15 @@
         <v>47592.32919465713</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2260,11 +2348,15 @@
         <v>46444.67264931231</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2293,11 +2385,15 @@
         <v>46443.67264931231</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2326,11 +2422,15 @@
         <v>46442.67264931231</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2363,7 +2463,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2396,7 +2500,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2429,7 +2537,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2462,7 +2574,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2495,7 +2611,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2528,7 +2648,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2561,7 +2685,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2594,7 +2722,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2627,7 +2759,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2660,7 +2796,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2693,7 +2833,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2726,7 +2870,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2759,7 +2907,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2792,7 +2944,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2825,7 +2981,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2858,7 +3018,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2891,7 +3055,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2924,7 +3092,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2957,7 +3129,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2990,7 +3166,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3023,7 +3203,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3056,7 +3240,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3089,7 +3277,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3122,7 +3314,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3155,7 +3351,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3388,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3221,7 +3425,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3254,7 +3462,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3287,7 +3499,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3320,7 +3536,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3353,7 +3573,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3386,7 +3610,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3419,7 +3647,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3452,7 +3684,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3485,7 +3721,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3518,7 +3758,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3551,7 +3795,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3584,7 +3832,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3617,7 +3869,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3650,7 +3906,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3683,7 +3943,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3716,7 +3980,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3749,7 +4017,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3782,7 +4054,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3815,7 +4091,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3848,7 +4128,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3881,7 +4165,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3914,7 +4202,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3947,7 +4239,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3980,7 +4276,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4013,7 +4313,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4046,7 +4350,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4079,7 +4387,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4112,7 +4424,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4145,7 +4461,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4178,7 +4498,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4211,7 +4535,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4244,7 +4572,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4277,7 +4609,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4310,7 +4646,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4683,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4376,7 +4720,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4409,7 +4757,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4442,7 +4794,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4475,7 +4831,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4508,7 +4868,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4541,7 +4905,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4574,7 +4942,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4607,7 +4979,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4640,7 +5016,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4673,7 +5053,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4706,7 +5090,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4739,7 +5127,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4772,7 +5164,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4805,7 +5201,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4838,7 +5238,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4871,7 +5275,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4904,7 +5312,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4937,7 +5349,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4970,7 +5386,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5003,7 +5423,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5036,7 +5460,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5069,7 +5497,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5102,7 +5534,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5135,7 +5571,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5168,7 +5608,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5201,7 +5645,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5234,7 +5682,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5267,7 +5719,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5300,7 +5756,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5333,7 +5793,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5366,7 +5830,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5399,7 +5867,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5432,7 +5904,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5465,7 +5941,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5978,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5531,7 +6015,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5564,7 +6052,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5597,7 +6089,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5630,7 +6126,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5663,7 +6163,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5696,7 +6200,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5729,7 +6237,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5762,7 +6274,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5795,7 +6311,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5828,7 +6348,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5861,7 +6385,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5894,7 +6422,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5927,7 +6459,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5960,7 +6496,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5993,7 +6533,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6022,11 +6566,15 @@
         <v>67584.27932342874</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6055,11 +6603,15 @@
         <v>70459.27932342874</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6088,11 +6640,15 @@
         <v>72057.50282342875</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6121,11 +6677,15 @@
         <v>72057.50282342875</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6154,11 +6714,15 @@
         <v>74429.96202342874</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6187,11 +6751,15 @@
         <v>75806.20392342874</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6220,11 +6788,15 @@
         <v>74530.11512342874</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6253,11 +6825,15 @@
         <v>72201.60592342874</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6286,11 +6862,15 @@
         <v>72201.60592342874</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6319,11 +6899,15 @@
         <v>76687.22222342873</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6352,11 +6936,15 @@
         <v>76687.22222342873</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6385,11 +6973,15 @@
         <v>79671.9228615126</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6418,11 +7010,15 @@
         <v>85257.56386151261</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6451,11 +7047,15 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6484,11 +7084,15 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6517,11 +7121,15 @@
         <v>88376.7803615126</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +7158,15 @@
         <v>94448.20016151261</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6583,11 +7195,15 @@
         <v>94448.20016151261</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6616,11 +7232,15 @@
         <v>98475.34999202107</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +7269,15 @@
         <v>98475.34999202107</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6682,11 +7306,15 @@
         <v>98392.57449202107</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6715,11 +7343,15 @@
         <v>99242.81759202108</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6748,11 +7380,15 @@
         <v>102071.9484920211</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6781,11 +7417,15 @@
         <v>98776.06429202108</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6814,11 +7454,15 @@
         <v>98716.83819202108</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6847,11 +7491,15 @@
         <v>97829.07869202108</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6880,11 +7528,15 @@
         <v>97829.07869202108</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6913,11 +7565,15 @@
         <v>96569.15759202107</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6946,11 +7602,15 @@
         <v>96663.26179202108</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6979,11 +7639,15 @@
         <v>97563.80979202107</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7012,11 +7676,15 @@
         <v>97513.37619202107</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7045,11 +7713,15 @@
         <v>96454.60809202107</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7078,11 +7750,15 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7111,11 +7787,15 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7144,11 +7824,15 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7177,11 +7861,15 @@
         <v>97796.19959202106</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7210,11 +7898,15 @@
         <v>99811.77319202106</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7243,11 +7935,15 @@
         <v>102761.6713920211</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7276,11 +7972,15 @@
         <v>103203.8253718987</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7309,11 +8009,15 @@
         <v>103203.8253718987</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7342,11 +8046,15 @@
         <v>102928.2034718987</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7375,11 +8083,15 @@
         <v>102928.2034718987</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7408,11 +8120,15 @@
         <v>102599.2646718987</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7441,11 +8157,15 @@
         <v>102599.2646718987</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +8194,15 @@
         <v>104653.9437895017</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7507,11 +8231,15 @@
         <v>104512.6297568041</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7540,11 +8268,15 @@
         <v>103512.6297568041</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7573,11 +8305,15 @@
         <v>103512.6297568041</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7610,7 +8346,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7643,7 +8383,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7676,7 +8420,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7709,7 +8457,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7742,7 +8494,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7775,7 +8531,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +8568,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7841,7 +8605,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7874,7 +8642,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7907,7 +8679,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7940,7 +8716,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7973,7 +8753,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8006,7 +8790,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8039,7 +8827,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8072,7 +8864,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8105,7 +8901,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8138,7 +8938,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8171,7 +8975,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8204,7 +9012,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8237,7 +9049,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8270,7 +9086,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8299,11 +9119,15 @@
         <v>106222.6887568041</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8332,11 +9156,15 @@
         <v>106236.5457568041</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +9193,15 @@
         <v>106225.2553568041</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8398,11 +9230,15 @@
         <v>106218.4087351825</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8431,11 +9267,15 @@
         <v>105652.3357351825</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8468,7 +9308,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8497,11 +9341,15 @@
         <v>105669.4749351825</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8530,11 +9378,15 @@
         <v>105648.6132351825</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8563,11 +9415,15 @@
         <v>105074.2029351825</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8600,7 +9456,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8633,7 +9493,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8662,11 +9526,15 @@
         <v>109692.8055351825</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8699,7 +9567,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8732,7 +9604,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8765,7 +9641,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8798,7 +9678,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8831,7 +9715,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8864,7 +9752,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8897,7 +9789,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8930,7 +9826,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +9859,15 @@
         <v>107975.1627351825</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8996,7 +9900,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9025,11 +9933,15 @@
         <v>107832.0291351825</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9058,11 +9970,15 @@
         <v>107833.0291351825</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9091,11 +10007,15 @@
         <v>107833.0291351825</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9124,11 +10044,15 @@
         <v>107794.0151351825</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9157,11 +10081,15 @@
         <v>107784.6774351825</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9190,11 +10118,15 @@
         <v>108804.3531351826</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9223,11 +10155,15 @@
         <v>108801.3531351826</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9256,11 +10192,15 @@
         <v>109508.7468351826</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9289,11 +10229,15 @@
         <v>109508.7468351826</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9322,11 +10266,15 @@
         <v>110027.4906351825</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9355,11 +10303,15 @@
         <v>110118.9995351825</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9388,11 +10340,15 @@
         <v>112894.9602351825</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9421,11 +10377,15 @@
         <v>113162.5216351826</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9454,11 +10414,15 @@
         <v>113154.0098351826</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9487,11 +10451,15 @@
         <v>112151.0098351826</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9520,11 +10488,15 @@
         <v>112151.0098351826</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9553,11 +10525,15 @@
         <v>112235.5522351826</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9586,11 +10562,15 @@
         <v>112219.7767351826</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9619,11 +10599,15 @@
         <v>111726.5385351826</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9652,11 +10636,15 @@
         <v>111725.8705351825</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9689,7 +10677,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9722,7 +10714,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9755,7 +10751,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9788,7 +10788,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9821,7 +10825,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9854,7 +10862,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9887,7 +10899,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9920,7 +10936,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9953,7 +10973,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9986,7 +11010,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10019,7 +11047,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10052,7 +11084,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10085,7 +11121,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +11158,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10151,7 +11195,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10184,7 +11232,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10217,7 +11269,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10250,7 +11306,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10283,7 +11343,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10316,7 +11380,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10349,7 +11417,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10382,7 +11454,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10415,7 +11491,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10448,7 +11528,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10481,7 +11565,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10514,7 +11602,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10547,7 +11639,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10580,7 +11676,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10613,7 +11713,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10646,7 +11750,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10679,7 +11787,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10712,7 +11824,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10745,7 +11861,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10778,7 +11898,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10811,7 +11935,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10844,7 +11972,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10877,7 +12009,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10910,7 +12046,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10943,7 +12083,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10976,7 +12120,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11009,7 +12157,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11042,7 +12194,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11075,7 +12231,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11108,7 +12268,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11141,7 +12305,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11170,11 +12338,15 @@
         <v>112737.9001950602</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11203,11 +12375,15 @@
         <v>112679.6745950602</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11236,11 +12412,15 @@
         <v>112679.6745950602</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11269,11 +12449,15 @@
         <v>115938.2332396388</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11302,11 +12486,15 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11335,11 +12523,15 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11368,11 +12560,15 @@
         <v>115992.4182396388</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11401,11 +12597,15 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11434,11 +12634,15 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11467,11 +12671,15 @@
         <v>115991.4182396388</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11500,11 +12708,15 @@
         <v>116031.9182396388</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11533,11 +12745,15 @@
         <v>118484.0213396388</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11566,11 +12782,15 @@
         <v>118703.4211396388</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11599,11 +12819,15 @@
         <v>120806.6649990096</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11632,11 +12856,15 @@
         <v>120731.2306990096</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11665,11 +12893,15 @@
         <v>120117.0006286814</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11698,11 +12930,15 @@
         <v>120117.0006286814</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11731,11 +12967,15 @@
         <v>120617.0006286814</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11764,11 +13004,15 @@
         <v>120587.0006286814</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11797,11 +13041,15 @@
         <v>121612.0898391904</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11830,11 +13078,15 @@
         <v>122219.8045639479</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11863,11 +13115,15 @@
         <v>120846.6204887053</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11896,11 +13152,15 @@
         <v>120966.8588887053</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11929,11 +13189,15 @@
         <v>120966.8588887053</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11962,11 +13226,15 @@
         <v>120784.0888887053</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11995,11 +13263,15 @@
         <v>120345.5932887053</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12028,11 +13300,15 @@
         <v>119884.2757887053</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12061,11 +13337,15 @@
         <v>117772.6569887053</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12094,11 +13374,15 @@
         <v>117832.5340887053</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12127,11 +13411,15 @@
         <v>115964.5339887053</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12160,11 +13448,15 @@
         <v>115977.1418887053</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12193,11 +13485,15 @@
         <v>116308.3153887053</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12226,11 +13522,15 @@
         <v>116308.3153887053</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12259,11 +13559,15 @@
         <v>115705.3617887054</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12292,11 +13596,15 @@
         <v>115679.8138887054</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12325,11 +13633,15 @@
         <v>115812.4221887054</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12358,11 +13670,15 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12391,11 +13707,15 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12424,11 +13744,15 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12457,11 +13781,15 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12490,11 +13818,15 @@
         <v>117115.7022887054</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12523,11 +13855,15 @@
         <v>118143.9095887054</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12556,11 +13892,15 @@
         <v>118572.0379887054</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12589,11 +13929,15 @@
         <v>117680.8928887054</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12622,11 +13966,15 @@
         <v>118360.2448887054</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +14003,15 @@
         <v>119279.2959887054</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12688,11 +14040,15 @@
         <v>118270.0469887054</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12721,11 +14077,15 @@
         <v>118215.9973887054</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12754,11 +14114,15 @@
         <v>125597.5987887054</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12787,11 +14151,15 @@
         <v>129555.2655887054</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12820,11 +14188,15 @@
         <v>130841.9792887054</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12853,11 +14225,15 @@
         <v>132142.2127887054</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12886,11 +14262,15 @@
         <v>133201.8005971519</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12919,11 +14299,15 @@
         <v>141711.8665887054</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12956,7 +14340,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12989,7 +14377,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13022,7 +14414,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13055,7 +14451,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13088,7 +14488,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13121,7 +14525,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13154,7 +14562,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13187,7 +14599,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13220,7 +14636,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13253,7 +14673,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13286,7 +14710,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13319,7 +14747,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13352,7 +14784,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13385,7 +14821,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13418,7 +14858,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13451,7 +14895,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13484,7 +14932,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13517,7 +14969,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13550,7 +15006,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13583,7 +15043,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13616,7 +15080,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13649,7 +15117,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13682,7 +15154,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13715,7 +15191,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13748,7 +15228,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13781,7 +15265,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13814,7 +15302,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13847,7 +15339,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13880,7 +15376,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13913,7 +15413,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13946,7 +15450,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13979,7 +15487,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14012,7 +15524,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14045,7 +15561,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14078,7 +15598,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14111,7 +15635,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14144,7 +15672,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14173,14 +15705,16 @@
         <v>190410.3113043434</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="inlineStr"/>
     </row>
     <row r="415">
@@ -14239,7 +15773,7 @@
         <v>183775.3403043434</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14272,7 +15806,7 @@
         <v>188402.4428542148</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14305,7 +15839,7 @@
         <v>187412.6832542148</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14536,7 +16070,7 @@
         <v>179720.5981542148</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14767,7 +16301,7 @@
         <v>186243.3634542148</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17176,7 +18710,7 @@
         <v>218184.1319345428</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17209,7 +18743,7 @@
         <v>217988.0380345428</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17341,7 +18875,7 @@
         <v>219023.2293572465</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17374,7 +18908,7 @@
         <v>219023.2293572465</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17440,7 +18974,7 @@
         <v>219554.8554572465</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17506,7 +19040,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17539,7 +19073,7 @@
         <v>220661.3835572465</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17572,7 +19106,7 @@
         <v>220841.1656572465</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17605,7 +19139,7 @@
         <v>218999.2348572465</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17638,7 +19172,7 @@
         <v>219056.3331572466</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17671,7 +19205,7 @@
         <v>219146.237561126</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17704,7 +19238,7 @@
         <v>224531.5608268421</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17737,7 +19271,7 @@
         <v>225448.144061126</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17770,7 +19304,7 @@
         <v>229125.066961126</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17803,7 +19337,7 @@
         <v>230766.130361126</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17836,7 +19370,7 @@
         <v>242073.2894036927</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17869,7 +19403,7 @@
         <v>239789.7760179513</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17902,7 +19436,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17935,7 +19469,7 @@
         <v>236967.9626179513</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17968,7 +19502,7 @@
         <v>237953.2593179513</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18001,7 +19535,7 @@
         <v>237201.7398179513</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18034,7 +19568,7 @@
         <v>237283.8710179513</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18067,7 +19601,7 @@
         <v>237283.8710179513</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18100,7 +19634,7 @@
         <v>238133.1038179513</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18133,7 +19667,7 @@
         <v>237327.1636179513</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18166,7 +19700,7 @@
         <v>236294.8220179513</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18199,7 +19733,7 @@
         <v>235501.4480179513</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18232,7 +19766,7 @@
         <v>234697.8292179513</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18265,7 +19799,7 @@
         <v>235789.9025179513</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18298,7 +19832,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18331,7 +19865,7 @@
         <v>238965.4359179513</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18364,7 +19898,7 @@
         <v>239080.2187179512</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18397,7 +19931,7 @@
         <v>242887.7725179512</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18430,7 +19964,7 @@
         <v>242889.7725179512</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18463,7 +19997,7 @@
         <v>242673.8226179512</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18496,7 +20030,7 @@
         <v>235082.9016179512</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18529,7 +20063,7 @@
         <v>235083.6948179512</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18562,7 +20096,7 @@
         <v>258894.4432179512</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18595,7 +20129,7 @@
         <v>257199.6144179512</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18628,7 +20162,7 @@
         <v>257029.8973179512</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18661,7 +20195,7 @@
         <v>256634.9502179512</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18694,7 +20228,7 @@
         <v>257112.6387179512</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18727,7 +20261,7 @@
         <v>257164.7066179512</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18760,7 +20294,7 @@
         <v>256726.6401179512</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18793,7 +20327,7 @@
         <v>256723.6401179512</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18826,7 +20360,7 @@
         <v>256561.8208179512</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18859,7 +20393,7 @@
         <v>256561.8208179512</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19288,7 +20822,7 @@
         <v>270254.8534179512</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19321,7 +20855,7 @@
         <v>264849.9453179512</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19354,7 +20888,7 @@
         <v>264849.9453179512</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -23116,7 +24650,7 @@
         <v>279868.454600836</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24568,7 +26102,7 @@
         <v>284297.262157831</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
